--- a/city-metro-visualization/data/上海/metro_exchange_lines.xlsx
+++ b/city-metro-visualization/data/上海/metro_exchange_lines.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="466">
   <si>
     <t>station_name</t>
   </si>
@@ -100,6 +100,9 @@
     <t>下南路</t>
   </si>
   <si>
+    <t>下沙</t>
+  </si>
+  <si>
     <t>世博会博物馆</t>
   </si>
   <si>
@@ -169,6 +172,9 @@
     <t>丰庄</t>
   </si>
   <si>
+    <t>丰翔路</t>
+  </si>
+  <si>
     <t>临平路</t>
   </si>
   <si>
@@ -214,6 +220,9 @@
     <t>佘山</t>
   </si>
   <si>
+    <t>元江路</t>
+  </si>
+  <si>
     <t>兆丰路</t>
   </si>
   <si>
@@ -253,6 +262,9 @@
     <t>北蔡</t>
   </si>
   <si>
+    <t>华东理工大学</t>
+  </si>
+  <si>
     <t>华夏东路</t>
   </si>
   <si>
@@ -265,6 +277,9 @@
     <t>华宁路</t>
   </si>
   <si>
+    <t>华泾西</t>
+  </si>
+  <si>
     <t>华鹏路</t>
   </si>
   <si>
@@ -274,6 +289,9 @@
     <t>南京西路</t>
   </si>
   <si>
+    <t>南大路</t>
+  </si>
+  <si>
     <t>南浦大桥</t>
   </si>
   <si>
@@ -292,6 +310,15 @@
     <t>友谊路</t>
   </si>
   <si>
+    <t>双柏路</t>
+  </si>
+  <si>
+    <t>双江路</t>
+  </si>
+  <si>
+    <t>古浪路</t>
+  </si>
+  <si>
     <t>台儿庄路</t>
   </si>
   <si>
@@ -304,6 +331,12 @@
     <t>后滩</t>
   </si>
   <si>
+    <t>吴中路</t>
+  </si>
+  <si>
+    <t>周浦</t>
+  </si>
+  <si>
     <t>周浦东</t>
   </si>
   <si>
@@ -337,6 +370,9 @@
     <t>四平路</t>
   </si>
   <si>
+    <t>国帆路</t>
+  </si>
+  <si>
     <t>国权路</t>
   </si>
   <si>
@@ -346,6 +382,9 @@
     <t>场中路</t>
   </si>
   <si>
+    <t>基隆路</t>
+  </si>
+  <si>
     <t>塘桥</t>
   </si>
   <si>
@@ -391,6 +430,9 @@
     <t>奉贤新城</t>
   </si>
   <si>
+    <t>姚虹路</t>
+  </si>
+  <si>
     <t>威宁路</t>
   </si>
   <si>
@@ -451,6 +493,9 @@
     <t>康新公路</t>
   </si>
   <si>
+    <t>康桥</t>
+  </si>
+  <si>
     <t>延吉中路</t>
   </si>
   <si>
@@ -535,6 +580,12 @@
     <t>春申路</t>
   </si>
   <si>
+    <t>景西路</t>
+  </si>
+  <si>
+    <t>曙建路</t>
+  </si>
+  <si>
     <t>曲阜路</t>
   </si>
   <si>
@@ -553,6 +604,9 @@
     <t>朱家角</t>
   </si>
   <si>
+    <t>朱梅路</t>
+  </si>
+  <si>
     <t>李子园</t>
   </si>
   <si>
@@ -595,6 +649,12 @@
     <t>桃浦新村</t>
   </si>
   <si>
+    <t>梅岭北路</t>
+  </si>
+  <si>
+    <t>武威东路</t>
+  </si>
+  <si>
     <t>武威路</t>
   </si>
   <si>
@@ -619,6 +679,9 @@
     <t>水城路</t>
   </si>
   <si>
+    <t>永德路</t>
+  </si>
+  <si>
     <t>汇臻路</t>
   </si>
   <si>
@@ -661,6 +724,9 @@
     <t>沈杜公路</t>
   </si>
   <si>
+    <t>沈梅路</t>
+  </si>
+  <si>
     <t>泗泾</t>
   </si>
   <si>
@@ -763,6 +829,9 @@
     <t>祁华路</t>
   </si>
   <si>
+    <t>祁安路</t>
+  </si>
+  <si>
     <t>祁连山南路</t>
   </si>
   <si>
@@ -772,15 +841,27 @@
     <t>秀沿路</t>
   </si>
   <si>
+    <t>紫竹高新区</t>
+  </si>
+  <si>
     <t>紫藤路</t>
   </si>
   <si>
+    <t>繁荣路</t>
+  </si>
+  <si>
+    <t>红宝石路</t>
+  </si>
+  <si>
     <t>罗南新村</t>
   </si>
   <si>
     <t>罗山路</t>
   </si>
   <si>
+    <t>罗秀路</t>
+  </si>
+  <si>
     <t>美兰湖</t>
   </si>
   <si>
@@ -805,6 +886,9 @@
     <t>航中路</t>
   </si>
   <si>
+    <t>航头</t>
+  </si>
+  <si>
     <t>航头东</t>
   </si>
   <si>
@@ -859,6 +943,9 @@
     <t>虹桥路</t>
   </si>
   <si>
+    <t>虹梅南路</t>
+  </si>
+  <si>
     <t>虹梅路</t>
   </si>
   <si>
@@ -952,12 +1039,18 @@
     <t>铁力路</t>
   </si>
   <si>
+    <t>铜川路</t>
+  </si>
+  <si>
     <t>银都路</t>
   </si>
   <si>
     <t>锦江乐园</t>
   </si>
   <si>
+    <t>锦秋路</t>
+  </si>
+  <si>
     <t>锦绣路</t>
   </si>
   <si>
@@ -973,6 +1066,9 @@
     <t>长清路</t>
   </si>
   <si>
+    <t>长风公园</t>
+  </si>
+  <si>
     <t>闵瑞路</t>
   </si>
   <si>
@@ -988,6 +1084,9 @@
     <t>陈春路</t>
   </si>
   <si>
+    <t>陈翔公路</t>
+  </si>
+  <si>
     <t>陕西南路</t>
   </si>
   <si>
@@ -1024,6 +1123,12 @@
     <t>马陆</t>
   </si>
   <si>
+    <t>高桥</t>
+  </si>
+  <si>
+    <t>高桥西</t>
+  </si>
+  <si>
     <t>高科西路</t>
   </si>
   <si>
@@ -1036,6 +1141,9 @@
     <t>鹤沙航城</t>
   </si>
   <si>
+    <t>鹤涛路</t>
+  </si>
+  <si>
     <t>黄兴公园</t>
   </si>
   <si>
@@ -1093,7 +1201,7 @@
     <t>1号线,4号线</t>
   </si>
   <si>
-    <t>1号线,3号线</t>
+    <t>15号线,1号线,3号线</t>
   </si>
   <si>
     <t>1号线,3号线,4号线</t>
@@ -1102,12 +1210,18 @@
     <t>2号线</t>
   </si>
   <si>
+    <t>11号线,15号线</t>
+  </si>
+  <si>
     <t>1号线</t>
   </si>
   <si>
     <t>13号线</t>
   </si>
   <si>
+    <t>18号线</t>
+  </si>
+  <si>
     <t>2号线,4号线,6号线,9号线</t>
   </si>
   <si>
@@ -1138,6 +1252,9 @@
     <t>3号线,4号线</t>
   </si>
   <si>
+    <t>15号线</t>
+  </si>
+  <si>
     <t>16号线</t>
   </si>
   <si>
@@ -1165,9 +1282,15 @@
     <t>12号线,4号线</t>
   </si>
   <si>
+    <t>13号线,15号线</t>
+  </si>
+  <si>
     <t>10号线,12号线</t>
   </si>
   <si>
+    <t>15号线,2号线</t>
+  </si>
+  <si>
     <t>3号线,4号线,9号线</t>
   </si>
   <si>
@@ -1180,6 +1303,9 @@
     <t>11号线,1号线,9号线</t>
   </si>
   <si>
+    <t>11号线,18号线</t>
+  </si>
+  <si>
     <t>13号线,8号线</t>
   </si>
   <si>
@@ -1192,6 +1318,12 @@
     <t>11号线,3号线,4号线</t>
   </si>
   <si>
+    <t>12号线,15号线</t>
+  </si>
+  <si>
+    <t>15号线,9号线</t>
+  </si>
+  <si>
     <t>12号线,13号线,1号线</t>
   </si>
   <si>
@@ -1207,6 +1339,9 @@
     <t>10号线,4号线</t>
   </si>
   <si>
+    <t>10号线,6号线</t>
+  </si>
+  <si>
     <t>12号线,1号线</t>
   </si>
   <si>
@@ -1256,6 +1391,9 @@
   </si>
   <si>
     <t>2号线,7号线</t>
+  </si>
+  <si>
+    <t>15号线,7号线</t>
   </si>
   <si>
     <t>13号线,9号线</t>
@@ -1631,7 +1769,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E346"/>
+  <dimension ref="A1:E382"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1662,7 +1800,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
       <c r="D2">
         <v>121.349221</v>
@@ -1679,7 +1817,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>351</v>
+        <v>387</v>
       </c>
       <c r="D3">
         <v>121.362464</v>
@@ -1696,7 +1834,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>352</v>
+        <v>388</v>
       </c>
       <c r="D4">
         <v>121.511594</v>
@@ -1713,7 +1851,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>352</v>
+        <v>388</v>
       </c>
       <c r="D5">
         <v>121.522999</v>
@@ -1730,7 +1868,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>353</v>
+        <v>389</v>
       </c>
       <c r="D6">
         <v>121.50834</v>
@@ -1747,7 +1885,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>354</v>
+        <v>390</v>
       </c>
       <c r="D7">
         <v>121.527389</v>
@@ -1764,7 +1902,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>355</v>
+        <v>391</v>
       </c>
       <c r="D8">
         <v>121.506151</v>
@@ -1781,7 +1919,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>356</v>
+        <v>392</v>
       </c>
       <c r="D9">
         <v>121.40858</v>
@@ -1798,7 +1936,7 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>357</v>
+        <v>393</v>
       </c>
       <c r="D10">
         <v>121.443529</v>
@@ -1815,7 +1953,7 @@
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>358</v>
+        <v>394</v>
       </c>
       <c r="D11">
         <v>121.437423</v>
@@ -1832,7 +1970,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>355</v>
+        <v>391</v>
       </c>
       <c r="D12">
         <v>121.523482</v>
@@ -1849,7 +1987,7 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>353</v>
+        <v>389</v>
       </c>
       <c r="D13">
         <v>121.368137</v>
@@ -1863,10 +2001,10 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>359</v>
+        <v>395</v>
       </c>
       <c r="D14">
         <v>121.430041</v>
@@ -1883,7 +2021,7 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>353</v>
+        <v>389</v>
       </c>
       <c r="D15">
         <v>121.444363</v>
@@ -1900,7 +2038,7 @@
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>356</v>
+        <v>392</v>
       </c>
       <c r="D16">
         <v>121.388884</v>
@@ -1917,7 +2055,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>352</v>
+        <v>388</v>
       </c>
       <c r="D17">
         <v>121.180742</v>
@@ -1934,7 +2072,7 @@
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>352</v>
+        <v>388</v>
       </c>
       <c r="D18">
         <v>121.441424</v>
@@ -1951,7 +2089,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="s">
-        <v>360</v>
+        <v>396</v>
       </c>
       <c r="D19">
         <v>121.457939</v>
@@ -1968,7 +2106,7 @@
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>361</v>
+        <v>397</v>
       </c>
       <c r="D20">
         <v>121.544439</v>
@@ -1982,10 +2120,10 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>352</v>
+        <v>398</v>
       </c>
       <c r="D21">
         <v>121.400926</v>
@@ -2002,7 +2140,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>352</v>
+        <v>388</v>
       </c>
       <c r="D22">
         <v>121.226098</v>
@@ -2019,7 +2157,7 @@
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>362</v>
+        <v>399</v>
       </c>
       <c r="D23">
         <v>121.452023</v>
@@ -2036,7 +2174,7 @@
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>363</v>
+        <v>400</v>
       </c>
       <c r="D24">
         <v>121.540189</v>
@@ -2053,13 +2191,13 @@
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>363</v>
+        <v>401</v>
       </c>
       <c r="D25">
-        <v>121.481592</v>
+        <v>121.588988</v>
       </c>
       <c r="E25">
-        <v>31.197572</v>
+        <v>31.054396</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -2070,13 +2208,13 @@
         <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>363</v>
+        <v>400</v>
       </c>
       <c r="D26">
-        <v>121.484313</v>
+        <v>121.481592</v>
       </c>
       <c r="E26">
-        <v>31.182789</v>
+        <v>31.197572</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -2087,13 +2225,13 @@
         <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>361</v>
+        <v>400</v>
       </c>
       <c r="D27">
-        <v>121.550909</v>
+        <v>121.484313</v>
       </c>
       <c r="E27">
-        <v>31.209421</v>
+        <v>31.182789</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -2101,16 +2239,16 @@
         <v>31</v>
       </c>
       <c r="B28">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>364</v>
+        <v>397</v>
       </c>
       <c r="D28">
-        <v>121.527213</v>
+        <v>121.550909</v>
       </c>
       <c r="E28">
-        <v>31.228682</v>
+        <v>31.209421</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -2118,16 +2256,16 @@
         <v>32</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C29" t="s">
-        <v>351</v>
+        <v>402</v>
       </c>
       <c r="D29">
-        <v>121.391915</v>
+        <v>121.527213</v>
       </c>
       <c r="E29">
-        <v>31.155823</v>
+        <v>31.228682</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -2138,13 +2276,13 @@
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>354</v>
+        <v>387</v>
       </c>
       <c r="D30">
-        <v>121.532093</v>
+        <v>121.391915</v>
       </c>
       <c r="E30">
-        <v>31.03039</v>
+        <v>31.155823</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -2152,16 +2290,16 @@
         <v>34</v>
       </c>
       <c r="B31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>365</v>
+        <v>390</v>
       </c>
       <c r="D31">
-        <v>121.454897</v>
+        <v>121.532093</v>
       </c>
       <c r="E31">
-        <v>31.190819</v>
+        <v>31.03039</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -2169,16 +2307,16 @@
         <v>35</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C32" t="s">
-        <v>366</v>
+        <v>403</v>
       </c>
       <c r="D32">
-        <v>121.480202</v>
+        <v>121.454897</v>
       </c>
       <c r="E32">
-        <v>31.259886</v>
+        <v>31.190819</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -2189,13 +2327,13 @@
         <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>367</v>
+        <v>404</v>
       </c>
       <c r="D33">
-        <v>121.419901</v>
+        <v>121.480202</v>
       </c>
       <c r="E33">
-        <v>31.018197</v>
+        <v>31.259886</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -2203,16 +2341,16 @@
         <v>37</v>
       </c>
       <c r="B34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>368</v>
+        <v>405</v>
       </c>
       <c r="D34">
-        <v>121.480304</v>
+        <v>121.419901</v>
       </c>
       <c r="E34">
-        <v>31.153366</v>
+        <v>31.018197</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -2220,16 +2358,16 @@
         <v>38</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C35" t="s">
-        <v>369</v>
+        <v>406</v>
       </c>
       <c r="D35">
-        <v>121.019534</v>
+        <v>121.480304</v>
       </c>
       <c r="E35">
-        <v>31.098544</v>
+        <v>31.153366</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -2240,13 +2378,13 @@
         <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>361</v>
+        <v>407</v>
       </c>
       <c r="D36">
-        <v>121.515556</v>
+        <v>121.019534</v>
       </c>
       <c r="E36">
-        <v>31.23327</v>
+        <v>31.098544</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -2254,16 +2392,16 @@
         <v>40</v>
       </c>
       <c r="B37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C37" t="s">
-        <v>370</v>
+        <v>397</v>
       </c>
       <c r="D37">
-        <v>121.510868</v>
+        <v>121.515556</v>
       </c>
       <c r="E37">
-        <v>31.172646</v>
+        <v>31.23327</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -2271,16 +2409,16 @@
         <v>41</v>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C38" t="s">
-        <v>351</v>
+        <v>408</v>
       </c>
       <c r="D38">
-        <v>121.579124</v>
+        <v>121.510868</v>
       </c>
       <c r="E38">
-        <v>31.282533</v>
+        <v>31.172646</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -2291,13 +2429,13 @@
         <v>1</v>
       </c>
       <c r="C39" t="s">
-        <v>355</v>
+        <v>387</v>
       </c>
       <c r="D39">
-        <v>121.588736</v>
+        <v>121.579124</v>
       </c>
       <c r="E39">
-        <v>31.290684</v>
+        <v>31.282533</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -2308,13 +2446,13 @@
         <v>1</v>
       </c>
       <c r="C40" t="s">
-        <v>371</v>
+        <v>391</v>
       </c>
       <c r="D40">
-        <v>121.469026</v>
+        <v>121.588736</v>
       </c>
       <c r="E40">
-        <v>31.253228</v>
+        <v>31.290684</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -2325,13 +2463,13 @@
         <v>1</v>
       </c>
       <c r="C41" t="s">
-        <v>371</v>
+        <v>409</v>
       </c>
       <c r="D41">
-        <v>121.493626</v>
+        <v>121.469026</v>
       </c>
       <c r="E41">
-        <v>31.185242</v>
+        <v>31.253228</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -2339,16 +2477,16 @@
         <v>45</v>
       </c>
       <c r="B42">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C42" t="s">
-        <v>372</v>
+        <v>409</v>
       </c>
       <c r="D42">
-        <v>121.415773</v>
+        <v>121.493626</v>
       </c>
       <c r="E42">
-        <v>31.217948</v>
+        <v>31.185242</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -2356,16 +2494,16 @@
         <v>46</v>
       </c>
       <c r="B43">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C43" t="s">
-        <v>362</v>
+        <v>410</v>
       </c>
       <c r="D43">
-        <v>121.459204</v>
+        <v>121.415773</v>
       </c>
       <c r="E43">
-        <v>31.258891</v>
+        <v>31.217948</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -2376,13 +2514,13 @@
         <v>1</v>
       </c>
       <c r="C44" t="s">
-        <v>350</v>
+        <v>399</v>
       </c>
       <c r="D44">
-        <v>121.3377</v>
+        <v>121.459204</v>
       </c>
       <c r="E44">
-        <v>31.149415</v>
+        <v>31.258891</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -2390,16 +2528,16 @@
         <v>48</v>
       </c>
       <c r="B45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C45" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="D45">
-        <v>121.441001</v>
+        <v>121.3377</v>
       </c>
       <c r="E45">
-        <v>31.254568</v>
+        <v>31.149415</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -2407,16 +2545,16 @@
         <v>49</v>
       </c>
       <c r="B46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C46" t="s">
-        <v>363</v>
+        <v>411</v>
       </c>
       <c r="D46">
-        <v>121.602465</v>
+        <v>121.441001</v>
       </c>
       <c r="E46">
-        <v>31.178862</v>
+        <v>31.254568</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -2427,13 +2565,13 @@
         <v>1</v>
       </c>
       <c r="C47" t="s">
-        <v>363</v>
+        <v>400</v>
       </c>
       <c r="D47">
-        <v>121.355141</v>
+        <v>121.602465</v>
       </c>
       <c r="E47">
-        <v>31.242553</v>
+        <v>31.178862</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -2444,13 +2582,13 @@
         <v>1</v>
       </c>
       <c r="C48" t="s">
-        <v>357</v>
+        <v>400</v>
       </c>
       <c r="D48">
-        <v>121.500696</v>
+        <v>121.355141</v>
       </c>
       <c r="E48">
-        <v>31.260874</v>
+        <v>31.242553</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -2461,13 +2599,13 @@
         <v>1</v>
       </c>
       <c r="C49" t="s">
-        <v>355</v>
+        <v>412</v>
       </c>
       <c r="D49">
-        <v>121.516695</v>
+        <v>121.380872</v>
       </c>
       <c r="E49">
-        <v>31.193202</v>
+        <v>31.308218</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -2478,13 +2616,13 @@
         <v>1</v>
       </c>
       <c r="C50" t="s">
-        <v>374</v>
+        <v>393</v>
       </c>
       <c r="D50">
-        <v>121.910851</v>
+        <v>121.500696</v>
       </c>
       <c r="E50">
-        <v>30.923519</v>
+        <v>31.260874</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -2495,13 +2633,13 @@
         <v>1</v>
       </c>
       <c r="C51" t="s">
-        <v>350</v>
+        <v>391</v>
       </c>
       <c r="D51">
-        <v>121.319423</v>
+        <v>121.516695</v>
       </c>
       <c r="E51">
-        <v>31.137252</v>
+        <v>31.193202</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -2512,13 +2650,13 @@
         <v>1</v>
       </c>
       <c r="C52" t="s">
-        <v>374</v>
+        <v>413</v>
       </c>
       <c r="D52">
-        <v>121.85052</v>
+        <v>121.910851</v>
       </c>
       <c r="E52">
-        <v>30.959264</v>
+        <v>30.923519</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -2529,13 +2667,13 @@
         <v>1</v>
       </c>
       <c r="C53" t="s">
-        <v>356</v>
+        <v>386</v>
       </c>
       <c r="D53">
-        <v>121.500439</v>
+        <v>121.319423</v>
       </c>
       <c r="E53">
-        <v>31.182212</v>
+        <v>31.137252</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -2546,13 +2684,13 @@
         <v>1</v>
       </c>
       <c r="C54" t="s">
-        <v>355</v>
+        <v>413</v>
       </c>
       <c r="D54">
-        <v>121.572775</v>
+        <v>121.85052</v>
       </c>
       <c r="E54">
-        <v>31.250413</v>
+        <v>30.959264</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -2563,13 +2701,13 @@
         <v>1</v>
       </c>
       <c r="C55" t="s">
-        <v>352</v>
+        <v>392</v>
       </c>
       <c r="D55">
-        <v>121.458519</v>
+        <v>121.500439</v>
       </c>
       <c r="E55">
-        <v>31.166488</v>
+        <v>31.182212</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -2580,13 +2718,13 @@
         <v>1</v>
       </c>
       <c r="C56" t="s">
-        <v>355</v>
+        <v>391</v>
       </c>
       <c r="D56">
-        <v>121.589212</v>
+        <v>121.572775</v>
       </c>
       <c r="E56">
-        <v>31.302569</v>
+        <v>31.250413</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -2597,13 +2735,13 @@
         <v>1</v>
       </c>
       <c r="C57" t="s">
-        <v>355</v>
+        <v>388</v>
       </c>
       <c r="D57">
-        <v>121.587866</v>
+        <v>121.458519</v>
       </c>
       <c r="E57">
-        <v>31.272025</v>
+        <v>31.166488</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -2614,13 +2752,13 @@
         <v>1</v>
       </c>
       <c r="C58" t="s">
-        <v>353</v>
+        <v>391</v>
       </c>
       <c r="D58">
-        <v>121.514632</v>
+        <v>121.589212</v>
       </c>
       <c r="E58">
-        <v>31.298043</v>
+        <v>31.302569</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -2628,16 +2766,16 @@
         <v>62</v>
       </c>
       <c r="B59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C59" t="s">
-        <v>375</v>
+        <v>391</v>
       </c>
       <c r="D59">
-        <v>121.435253</v>
+        <v>121.587866</v>
       </c>
       <c r="E59">
-        <v>31.202213</v>
+        <v>31.272025</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -2645,16 +2783,16 @@
         <v>63</v>
       </c>
       <c r="B60">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C60" t="s">
-        <v>376</v>
+        <v>389</v>
       </c>
       <c r="D60">
-        <v>121.475137</v>
+        <v>121.514632</v>
       </c>
       <c r="E60">
-        <v>31.232781</v>
+        <v>31.298043</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -2662,16 +2800,16 @@
         <v>64</v>
       </c>
       <c r="B61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C61" t="s">
-        <v>353</v>
+        <v>414</v>
       </c>
       <c r="D61">
-        <v>121.403899</v>
+        <v>121.435253</v>
       </c>
       <c r="E61">
-        <v>31.19888</v>
+        <v>31.202213</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -2679,16 +2817,16 @@
         <v>65</v>
       </c>
       <c r="B62">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C62" t="s">
-        <v>350</v>
+        <v>415</v>
       </c>
       <c r="D62">
-        <v>121.229686</v>
+        <v>121.475137</v>
       </c>
       <c r="E62">
-        <v>31.104097</v>
+        <v>31.232781</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -2699,13 +2837,13 @@
         <v>1</v>
       </c>
       <c r="C63" t="s">
-        <v>352</v>
+        <v>389</v>
       </c>
       <c r="D63">
-        <v>121.150315</v>
+        <v>121.403899</v>
       </c>
       <c r="E63">
-        <v>31.289048</v>
+        <v>31.19888</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2716,13 +2854,13 @@
         <v>1</v>
       </c>
       <c r="C64" t="s">
-        <v>352</v>
+        <v>386</v>
       </c>
       <c r="D64">
-        <v>121.117186</v>
+        <v>121.229686</v>
       </c>
       <c r="E64">
-        <v>31.29621</v>
+        <v>31.104097</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2733,13 +2871,13 @@
         <v>1</v>
       </c>
       <c r="C65" t="s">
-        <v>362</v>
+        <v>412</v>
       </c>
       <c r="D65">
-        <v>121.434063</v>
+        <v>121.431901</v>
       </c>
       <c r="E65">
-        <v>31.355082</v>
+        <v>31.062815</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2750,13 +2888,13 @@
         <v>1</v>
       </c>
       <c r="C66" t="s">
-        <v>362</v>
+        <v>388</v>
       </c>
       <c r="D66">
-        <v>121.447063</v>
+        <v>121.150315</v>
       </c>
       <c r="E66">
-        <v>31.318936</v>
+        <v>31.289048</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2767,13 +2905,13 @@
         <v>1</v>
       </c>
       <c r="C67" t="s">
-        <v>371</v>
+        <v>388</v>
       </c>
       <c r="D67">
-        <v>121.489663</v>
+        <v>121.117186</v>
       </c>
       <c r="E67">
-        <v>31.141301</v>
+        <v>31.29621</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2784,13 +2922,13 @@
         <v>1</v>
       </c>
       <c r="C68" t="s">
-        <v>361</v>
+        <v>399</v>
       </c>
       <c r="D68">
-        <v>121.724095</v>
+        <v>121.434063</v>
       </c>
       <c r="E68">
-        <v>31.192861</v>
+        <v>31.355082</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2801,13 +2939,13 @@
         <v>1</v>
       </c>
       <c r="C69" t="s">
-        <v>356</v>
+        <v>399</v>
       </c>
       <c r="D69">
-        <v>121.362376</v>
+        <v>121.447063</v>
       </c>
       <c r="E69">
-        <v>31.357586</v>
+        <v>31.318936</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2818,13 +2956,13 @@
         <v>1</v>
       </c>
       <c r="C70" t="s">
-        <v>361</v>
+        <v>409</v>
       </c>
       <c r="D70">
-        <v>121.673713</v>
+        <v>121.489663</v>
       </c>
       <c r="E70">
-        <v>31.213871</v>
+        <v>31.141301</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2835,13 +2973,13 @@
         <v>1</v>
       </c>
       <c r="C71" t="s">
-        <v>367</v>
+        <v>397</v>
       </c>
       <c r="D71">
-        <v>121.416582</v>
+        <v>121.724095</v>
       </c>
       <c r="E71">
-        <v>31.026483</v>
+        <v>31.192861</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2852,13 +2990,13 @@
         <v>1</v>
       </c>
       <c r="C72" t="s">
-        <v>361</v>
+        <v>392</v>
       </c>
       <c r="D72">
-        <v>121.373998</v>
+        <v>121.362376</v>
       </c>
       <c r="E72">
-        <v>31.216395</v>
+        <v>31.357586</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2869,13 +3007,13 @@
         <v>1</v>
       </c>
       <c r="C73" t="s">
-        <v>367</v>
+        <v>397</v>
       </c>
       <c r="D73">
-        <v>121.410054</v>
+        <v>121.673713</v>
       </c>
       <c r="E73">
-        <v>31.045112</v>
+        <v>31.213871</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2886,13 +3024,13 @@
         <v>1</v>
       </c>
       <c r="C74" t="s">
-        <v>355</v>
+        <v>405</v>
       </c>
       <c r="D74">
-        <v>121.552314</v>
+        <v>121.416582</v>
       </c>
       <c r="E74">
-        <v>31.239145</v>
+        <v>31.026483</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2903,13 +3041,13 @@
         <v>1</v>
       </c>
       <c r="C75" t="s">
-        <v>363</v>
+        <v>397</v>
       </c>
       <c r="D75">
-        <v>121.552017</v>
+        <v>121.373998</v>
       </c>
       <c r="E75">
-        <v>31.180131</v>
+        <v>31.216395</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2920,13 +3058,13 @@
         <v>1</v>
       </c>
       <c r="C76" t="s">
-        <v>361</v>
+        <v>405</v>
       </c>
       <c r="D76">
-        <v>121.680972</v>
+        <v>121.410054</v>
       </c>
       <c r="E76">
-        <v>31.196575</v>
+        <v>31.045112</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2934,16 +3072,16 @@
         <v>80</v>
       </c>
       <c r="B77">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C77" t="s">
-        <v>377</v>
+        <v>391</v>
       </c>
       <c r="D77">
-        <v>121.583109</v>
+        <v>121.552314</v>
       </c>
       <c r="E77">
-        <v>31.175759</v>
+        <v>31.239145</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2954,13 +3092,13 @@
         <v>1</v>
       </c>
       <c r="C78" t="s">
-        <v>355</v>
+        <v>400</v>
       </c>
       <c r="D78">
-        <v>121.514539</v>
+        <v>121.552017</v>
       </c>
       <c r="E78">
-        <v>31.149878</v>
+        <v>31.180131</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2971,13 +3109,13 @@
         <v>1</v>
       </c>
       <c r="C79" t="s">
-        <v>367</v>
+        <v>412</v>
       </c>
       <c r="D79">
-        <v>121.395255</v>
+        <v>121.429092</v>
       </c>
       <c r="E79">
-        <v>31.007467</v>
+        <v>31.142709</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2988,13 +3126,13 @@
         <v>1</v>
       </c>
       <c r="C80" t="s">
-        <v>363</v>
+        <v>397</v>
       </c>
       <c r="D80">
-        <v>121.526567</v>
+        <v>121.680972</v>
       </c>
       <c r="E80">
-        <v>31.176276</v>
+        <v>31.196575</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -3005,13 +3143,13 @@
         <v>2</v>
       </c>
       <c r="C81" t="s">
-        <v>378</v>
+        <v>416</v>
       </c>
       <c r="D81">
-        <v>121.484628</v>
+        <v>121.583109</v>
       </c>
       <c r="E81">
-        <v>31.238101</v>
+        <v>31.175759</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -3019,16 +3157,16 @@
         <v>85</v>
       </c>
       <c r="B82">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C82" t="s">
-        <v>379</v>
+        <v>391</v>
       </c>
       <c r="D82">
-        <v>121.459971</v>
+        <v>121.514539</v>
       </c>
       <c r="E82">
-        <v>31.229853</v>
+        <v>31.149878</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -3039,13 +3177,13 @@
         <v>1</v>
       </c>
       <c r="C83" t="s">
-        <v>357</v>
+        <v>405</v>
       </c>
       <c r="D83">
-        <v>121.499725</v>
+        <v>121.395255</v>
       </c>
       <c r="E83">
-        <v>31.208504</v>
+        <v>31.007467</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -3056,13 +3194,13 @@
         <v>1</v>
       </c>
       <c r="C84" t="s">
-        <v>352</v>
+        <v>412</v>
       </c>
       <c r="D84">
-        <v>121.323141</v>
+        <v>121.440138</v>
       </c>
       <c r="E84">
-        <v>31.296952</v>
+        <v>31.113429</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -3073,13 +3211,13 @@
         <v>1</v>
       </c>
       <c r="C85" t="s">
-        <v>356</v>
+        <v>400</v>
       </c>
       <c r="D85">
-        <v>121.398863</v>
+        <v>121.526567</v>
       </c>
       <c r="E85">
-        <v>31.321437</v>
+        <v>31.176276</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -3087,16 +3225,16 @@
         <v>89</v>
       </c>
       <c r="B86">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C86" t="s">
-        <v>355</v>
+        <v>417</v>
       </c>
       <c r="D86">
-        <v>121.586689</v>
+        <v>121.484628</v>
       </c>
       <c r="E86">
-        <v>31.26352</v>
+        <v>31.238101</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -3104,16 +3242,16 @@
         <v>90</v>
       </c>
       <c r="B87">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C87" t="s">
-        <v>362</v>
+        <v>418</v>
       </c>
       <c r="D87">
-        <v>121.427953</v>
+        <v>121.459971</v>
       </c>
       <c r="E87">
-        <v>31.381296</v>
+        <v>31.229853</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -3124,13 +3262,13 @@
         <v>1</v>
       </c>
       <c r="C88" t="s">
-        <v>366</v>
+        <v>412</v>
       </c>
       <c r="D88">
-        <v>121.475924</v>
+        <v>121.380097</v>
       </c>
       <c r="E88">
-        <v>31.404016</v>
+        <v>31.299117</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -3141,13 +3279,13 @@
         <v>1</v>
       </c>
       <c r="C89" t="s">
-        <v>350</v>
+        <v>393</v>
       </c>
       <c r="D89">
-        <v>121.597458</v>
+        <v>121.499725</v>
       </c>
       <c r="E89">
-        <v>31.252825</v>
+        <v>31.208504</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -3158,13 +3296,13 @@
         <v>1</v>
       </c>
       <c r="C90" t="s">
-        <v>350</v>
+        <v>388</v>
       </c>
       <c r="D90">
-        <v>121.384772</v>
+        <v>121.323141</v>
       </c>
       <c r="E90">
-        <v>31.166542</v>
+        <v>31.296952</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -3175,13 +3313,13 @@
         <v>1</v>
       </c>
       <c r="C91" t="s">
-        <v>353</v>
+        <v>392</v>
       </c>
       <c r="D91">
-        <v>121.506357</v>
+        <v>121.398863</v>
       </c>
       <c r="E91">
-        <v>31.282086</v>
+        <v>31.321437</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -3192,13 +3330,13 @@
         <v>1</v>
       </c>
       <c r="C92" t="s">
-        <v>356</v>
+        <v>391</v>
       </c>
       <c r="D92">
-        <v>121.473756</v>
+        <v>121.586689</v>
       </c>
       <c r="E92">
-        <v>31.171918</v>
+        <v>31.26352</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -3209,13 +3347,13 @@
         <v>1</v>
       </c>
       <c r="C93" t="s">
-        <v>374</v>
+        <v>399</v>
       </c>
       <c r="D93">
-        <v>121.606895</v>
+        <v>121.427953</v>
       </c>
       <c r="E93">
-        <v>31.110038</v>
+        <v>31.381296</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -3226,13 +3364,13 @@
         <v>1</v>
       </c>
       <c r="C94" t="s">
-        <v>362</v>
+        <v>404</v>
       </c>
       <c r="D94">
-        <v>121.437711</v>
+        <v>121.475924</v>
       </c>
       <c r="E94">
-        <v>31.339703</v>
+        <v>31.404016</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -3243,13 +3381,13 @@
         <v>1</v>
       </c>
       <c r="C95" t="s">
-        <v>361</v>
+        <v>412</v>
       </c>
       <c r="D95">
-        <v>121.656269</v>
+        <v>121.42175</v>
       </c>
       <c r="E95">
-        <v>31.214107</v>
+        <v>31.083214</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -3260,13 +3398,13 @@
         <v>1</v>
       </c>
       <c r="C96" t="s">
-        <v>350</v>
+        <v>389</v>
       </c>
       <c r="D96">
-        <v>121.516275</v>
+        <v>121.539425</v>
       </c>
       <c r="E96">
-        <v>31.230258</v>
+        <v>31.353601</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -3274,16 +3412,16 @@
         <v>100</v>
       </c>
       <c r="B97">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C97" t="s">
-        <v>380</v>
+        <v>412</v>
       </c>
       <c r="D97">
-        <v>121.460704</v>
+        <v>121.392261</v>
       </c>
       <c r="E97">
-        <v>31.20282</v>
+        <v>31.284858</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -3294,13 +3432,13 @@
         <v>1</v>
       </c>
       <c r="C98" t="s">
-        <v>352</v>
+        <v>386</v>
       </c>
       <c r="D98">
-        <v>121.23735</v>
+        <v>121.597458</v>
       </c>
       <c r="E98">
-        <v>31.391549</v>
+        <v>31.252825</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -3311,13 +3449,13 @@
         <v>1</v>
       </c>
       <c r="C99" t="s">
-        <v>352</v>
+        <v>386</v>
       </c>
       <c r="D99">
-        <v>121.254294</v>
+        <v>121.384772</v>
       </c>
       <c r="E99">
-        <v>31.330062</v>
+        <v>31.166542</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -3328,13 +3466,13 @@
         <v>1</v>
       </c>
       <c r="C100" t="s">
-        <v>352</v>
+        <v>389</v>
       </c>
       <c r="D100">
-        <v>121.227855</v>
+        <v>121.506357</v>
       </c>
       <c r="E100">
-        <v>31.377107</v>
+        <v>31.282086</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -3345,13 +3483,13 @@
         <v>1</v>
       </c>
       <c r="C101" t="s">
-        <v>369</v>
+        <v>392</v>
       </c>
       <c r="D101">
-        <v>121.223916</v>
+        <v>121.473756</v>
       </c>
       <c r="E101">
-        <v>31.164099</v>
+        <v>31.171918</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -3362,13 +3500,13 @@
         <v>1</v>
       </c>
       <c r="C102" t="s">
-        <v>353</v>
+        <v>412</v>
       </c>
       <c r="D102">
-        <v>121.484208</v>
+        <v>121.413457</v>
       </c>
       <c r="E102">
-        <v>31.252035</v>
+        <v>31.186765</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -3376,16 +3514,16 @@
         <v>106</v>
       </c>
       <c r="B103">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C103" t="s">
-        <v>381</v>
+        <v>401</v>
       </c>
       <c r="D103">
-        <v>121.501488</v>
+        <v>121.567589</v>
       </c>
       <c r="E103">
-        <v>31.27488</v>
+        <v>31.113461</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -3396,13 +3534,13 @@
         <v>1</v>
       </c>
       <c r="C104" t="s">
-        <v>353</v>
+        <v>413</v>
       </c>
       <c r="D104">
-        <v>121.510024</v>
+        <v>121.606895</v>
       </c>
       <c r="E104">
-        <v>31.289276</v>
+        <v>31.110038</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -3413,13 +3551,13 @@
         <v>1</v>
       </c>
       <c r="C105" t="s">
-        <v>351</v>
+        <v>399</v>
       </c>
       <c r="D105">
-        <v>121.498158</v>
+        <v>121.437711</v>
       </c>
       <c r="E105">
-        <v>31.25016</v>
+        <v>31.339703</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -3430,13 +3568,13 @@
         <v>1</v>
       </c>
       <c r="C106" t="s">
-        <v>356</v>
+        <v>397</v>
       </c>
       <c r="D106">
-        <v>121.413661</v>
+        <v>121.656269</v>
       </c>
       <c r="E106">
-        <v>31.303685</v>
+        <v>31.214107</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -3447,13 +3585,13 @@
         <v>1</v>
       </c>
       <c r="C107" t="s">
-        <v>357</v>
+        <v>386</v>
       </c>
       <c r="D107">
-        <v>121.51869</v>
+        <v>121.516275</v>
       </c>
       <c r="E107">
-        <v>31.209762</v>
+        <v>31.230258</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -3461,16 +3599,16 @@
         <v>111</v>
       </c>
       <c r="B108">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C108" t="s">
-        <v>351</v>
+        <v>419</v>
       </c>
       <c r="D108">
-        <v>121.561315</v>
+        <v>121.460704</v>
       </c>
       <c r="E108">
-        <v>31.280779</v>
+        <v>31.20282</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -3481,13 +3619,13 @@
         <v>1</v>
       </c>
       <c r="C109" t="s">
-        <v>362</v>
+        <v>388</v>
       </c>
       <c r="D109">
-        <v>121.39302</v>
+        <v>121.23735</v>
       </c>
       <c r="E109">
-        <v>31.120899</v>
+        <v>31.391549</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -3498,13 +3636,13 @@
         <v>1</v>
       </c>
       <c r="C110" t="s">
-        <v>355</v>
+        <v>388</v>
       </c>
       <c r="D110">
-        <v>121.586926</v>
+        <v>121.254294</v>
       </c>
       <c r="E110">
-        <v>31.347802</v>
+        <v>31.330062</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -3515,13 +3653,13 @@
         <v>1</v>
       </c>
       <c r="C111" t="s">
-        <v>355</v>
+        <v>388</v>
       </c>
       <c r="D111">
-        <v>121.601963</v>
+        <v>121.227855</v>
       </c>
       <c r="E111">
-        <v>31.321578</v>
+        <v>31.377107</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -3532,13 +3670,13 @@
         <v>1</v>
       </c>
       <c r="C112" t="s">
-        <v>371</v>
+        <v>407</v>
       </c>
       <c r="D112">
-        <v>121.479326</v>
+        <v>121.223916</v>
       </c>
       <c r="E112">
-        <v>31.227182</v>
+        <v>31.164099</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -3549,13 +3687,13 @@
         <v>1</v>
       </c>
       <c r="C113" t="s">
-        <v>356</v>
+        <v>389</v>
       </c>
       <c r="D113">
-        <v>121.422949</v>
+        <v>121.484208</v>
       </c>
       <c r="E113">
-        <v>31.274047</v>
+        <v>31.252035</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -3563,16 +3701,16 @@
         <v>117</v>
       </c>
       <c r="B114">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C114" t="s">
-        <v>356</v>
+        <v>420</v>
       </c>
       <c r="D114">
-        <v>121.416548</v>
+        <v>121.501488</v>
       </c>
       <c r="E114">
-        <v>31.29332</v>
+        <v>31.27488</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -3580,16 +3718,16 @@
         <v>118</v>
       </c>
       <c r="B115">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C115" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="D115">
-        <v>121.463278</v>
+        <v>121.513238</v>
       </c>
       <c r="E115">
-        <v>31.194057</v>
+        <v>31.339761</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -3600,13 +3738,13 @@
         <v>1</v>
       </c>
       <c r="C116" t="s">
-        <v>366</v>
+        <v>389</v>
       </c>
       <c r="D116">
-        <v>121.483216</v>
+        <v>121.510024</v>
       </c>
       <c r="E116">
-        <v>31.289433</v>
+        <v>31.289276</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -3617,13 +3755,13 @@
         <v>1</v>
       </c>
       <c r="C117" t="s">
-        <v>363</v>
+        <v>387</v>
       </c>
       <c r="D117">
-        <v>121.394431</v>
+        <v>121.498158</v>
       </c>
       <c r="E117">
-        <v>31.231752</v>
+        <v>31.25016</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -3631,16 +3769,16 @@
         <v>121</v>
       </c>
       <c r="B118">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C118" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="D118">
-        <v>121.513088</v>
+        <v>121.413661</v>
       </c>
       <c r="E118">
-        <v>31.257938</v>
+        <v>31.303685</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -3648,16 +3786,16 @@
         <v>122</v>
       </c>
       <c r="B119">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C119" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="D119">
-        <v>121.482473</v>
+        <v>121.590411</v>
       </c>
       <c r="E119">
-        <v>31.243829</v>
+        <v>31.351311</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -3668,13 +3806,13 @@
         <v>1</v>
       </c>
       <c r="C120" t="s">
-        <v>367</v>
+        <v>393</v>
       </c>
       <c r="D120">
-        <v>121.448984</v>
+        <v>121.51869</v>
       </c>
       <c r="E120">
-        <v>30.942055</v>
+        <v>31.209762</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -3685,13 +3823,13 @@
         <v>1</v>
       </c>
       <c r="C121" t="s">
-        <v>367</v>
+        <v>387</v>
       </c>
       <c r="D121">
-        <v>121.49629</v>
+        <v>121.561315</v>
       </c>
       <c r="E121">
-        <v>30.913916</v>
+        <v>31.280779</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -3702,13 +3840,13 @@
         <v>1</v>
       </c>
       <c r="C122" t="s">
-        <v>361</v>
+        <v>399</v>
       </c>
       <c r="D122">
-        <v>121.387285</v>
+        <v>121.39302</v>
       </c>
       <c r="E122">
-        <v>31.21487</v>
+        <v>31.120899</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -3719,13 +3857,13 @@
         <v>1</v>
       </c>
       <c r="C123" t="s">
-        <v>361</v>
+        <v>391</v>
       </c>
       <c r="D123">
-        <v>121.404058</v>
+        <v>121.586926</v>
       </c>
       <c r="E123">
-        <v>31.211158</v>
+        <v>31.347802</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -3736,13 +3874,13 @@
         <v>1</v>
       </c>
       <c r="C124" t="s">
-        <v>371</v>
+        <v>391</v>
       </c>
       <c r="D124">
-        <v>121.531954</v>
+        <v>121.601963</v>
       </c>
       <c r="E124">
-        <v>31.314804</v>
+        <v>31.321578</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -3753,13 +3891,13 @@
         <v>1</v>
       </c>
       <c r="C125" t="s">
-        <v>363</v>
+        <v>409</v>
       </c>
       <c r="D125">
-        <v>121.614363</v>
+        <v>121.479326</v>
       </c>
       <c r="E125">
-        <v>31.183476</v>
+        <v>31.227182</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -3770,13 +3908,13 @@
         <v>1</v>
       </c>
       <c r="C126" t="s">
-        <v>351</v>
+        <v>392</v>
       </c>
       <c r="D126">
-        <v>121.532352</v>
+        <v>121.422949</v>
       </c>
       <c r="E126">
-        <v>31.268574</v>
+        <v>31.274047</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -3787,13 +3925,13 @@
         <v>1</v>
       </c>
       <c r="C127" t="s">
-        <v>352</v>
+        <v>392</v>
       </c>
       <c r="D127">
-        <v>121.161985</v>
+        <v>121.416548</v>
       </c>
       <c r="E127">
-        <v>31.28849</v>
+        <v>31.29332</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -3801,16 +3939,16 @@
         <v>131</v>
       </c>
       <c r="B128">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C128" t="s">
-        <v>353</v>
+        <v>421</v>
       </c>
       <c r="D128">
-        <v>121.41208</v>
+        <v>121.463278</v>
       </c>
       <c r="E128">
-        <v>31.19654</v>
+        <v>31.194057</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -3818,16 +3956,16 @@
         <v>132</v>
       </c>
       <c r="B129">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C129" t="s">
-        <v>384</v>
+        <v>404</v>
       </c>
       <c r="D129">
-        <v>121.427194</v>
+        <v>121.483216</v>
       </c>
       <c r="E129">
-        <v>31.186717</v>
+        <v>31.289433</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -3835,16 +3973,16 @@
         <v>133</v>
       </c>
       <c r="B130">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C130" t="s">
-        <v>362</v>
+        <v>422</v>
       </c>
       <c r="D130">
-        <v>121.430914</v>
+        <v>121.394431</v>
       </c>
       <c r="E130">
-        <v>31.369555</v>
+        <v>31.231752</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -3855,13 +3993,13 @@
         <v>2</v>
       </c>
       <c r="C131" t="s">
-        <v>373</v>
+        <v>421</v>
       </c>
       <c r="D131">
-        <v>121.476298</v>
+        <v>121.513088</v>
       </c>
       <c r="E131">
-        <v>31.251523</v>
+        <v>31.257938</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -3869,16 +4007,16 @@
         <v>135</v>
       </c>
       <c r="B132">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C132" t="s">
-        <v>366</v>
+        <v>423</v>
       </c>
       <c r="D132">
-        <v>121.479574</v>
+        <v>121.482473</v>
       </c>
       <c r="E132">
-        <v>31.395315</v>
+        <v>31.243829</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -3889,13 +4027,13 @@
         <v>1</v>
       </c>
       <c r="C133" t="s">
-        <v>362</v>
+        <v>405</v>
       </c>
       <c r="D133">
-        <v>121.424661</v>
+        <v>121.448984</v>
       </c>
       <c r="E133">
-        <v>31.39226</v>
+        <v>30.942055</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -3906,13 +4044,13 @@
         <v>1</v>
       </c>
       <c r="C134" t="s">
-        <v>350</v>
+        <v>405</v>
       </c>
       <c r="D134">
-        <v>121.498398</v>
+        <v>121.49629</v>
       </c>
       <c r="E134">
-        <v>31.216866</v>
+        <v>30.913916</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -3923,13 +4061,13 @@
         <v>1</v>
       </c>
       <c r="C135" t="s">
-        <v>356</v>
+        <v>412</v>
       </c>
       <c r="D135">
-        <v>121.421939</v>
+        <v>121.406699</v>
       </c>
       <c r="E135">
-        <v>31.256198</v>
+        <v>31.191535</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -3940,13 +4078,13 @@
         <v>1</v>
       </c>
       <c r="C136" t="s">
-        <v>361</v>
+        <v>397</v>
       </c>
       <c r="D136">
-        <v>121.69821</v>
+        <v>121.387285</v>
       </c>
       <c r="E136">
-        <v>31.186741</v>
+        <v>31.21487</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -3957,13 +4095,13 @@
         <v>2</v>
       </c>
       <c r="C137" t="s">
-        <v>385</v>
+        <v>424</v>
       </c>
       <c r="D137">
-        <v>121.588365</v>
+        <v>121.404058</v>
       </c>
       <c r="E137">
-        <v>31.280684</v>
+        <v>31.211158</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -3974,13 +4112,13 @@
         <v>1</v>
       </c>
       <c r="C138" t="s">
-        <v>371</v>
+        <v>409</v>
       </c>
       <c r="D138">
-        <v>121.531933</v>
+        <v>121.531954</v>
       </c>
       <c r="E138">
-        <v>31.322724</v>
+        <v>31.314804</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -3988,16 +4126,16 @@
         <v>142</v>
       </c>
       <c r="B139">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C139" t="s">
-        <v>386</v>
+        <v>400</v>
       </c>
       <c r="D139">
-        <v>121.449141</v>
+        <v>121.614363</v>
       </c>
       <c r="E139">
-        <v>31.213524</v>
+        <v>31.183476</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -4008,13 +4146,13 @@
         <v>1</v>
       </c>
       <c r="C140" t="s">
-        <v>361</v>
+        <v>387</v>
       </c>
       <c r="D140">
-        <v>121.621072</v>
+        <v>121.532352</v>
       </c>
       <c r="E140">
-        <v>31.21105</v>
+        <v>31.268574</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -4025,13 +4163,13 @@
         <v>1</v>
       </c>
       <c r="C141" t="s">
-        <v>352</v>
+        <v>388</v>
       </c>
       <c r="D141">
-        <v>121.617199</v>
+        <v>121.161985</v>
       </c>
       <c r="E141">
-        <v>31.130439</v>
+        <v>31.28849</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -4042,13 +4180,13 @@
         <v>1</v>
       </c>
       <c r="C142" t="s">
-        <v>371</v>
+        <v>389</v>
       </c>
       <c r="D142">
-        <v>121.534941</v>
+        <v>121.41208</v>
       </c>
       <c r="E142">
-        <v>31.288543</v>
+        <v>31.19654</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -4056,16 +4194,16 @@
         <v>146</v>
       </c>
       <c r="B143">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C143" t="s">
-        <v>373</v>
+        <v>425</v>
       </c>
       <c r="D143">
-        <v>121.417062</v>
+        <v>121.427194</v>
       </c>
       <c r="E143">
-        <v>31.209616</v>
+        <v>31.186717</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -4076,13 +4214,13 @@
         <v>1</v>
       </c>
       <c r="C144" t="s">
-        <v>362</v>
+        <v>399</v>
       </c>
       <c r="D144">
-        <v>121.455329</v>
+        <v>121.430914</v>
       </c>
       <c r="E144">
-        <v>31.271675</v>
+        <v>31.369555</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -4090,16 +4228,16 @@
         <v>148</v>
       </c>
       <c r="B145">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C145" t="s">
-        <v>366</v>
+        <v>411</v>
       </c>
       <c r="D145">
-        <v>121.498671</v>
+        <v>121.476298</v>
       </c>
       <c r="E145">
-        <v>31.358016</v>
+        <v>31.251523</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -4110,13 +4248,13 @@
         <v>1</v>
       </c>
       <c r="C146" t="s">
-        <v>363</v>
+        <v>404</v>
       </c>
       <c r="D146">
-        <v>121.629182</v>
+        <v>121.479574</v>
       </c>
       <c r="E146">
-        <v>31.18913</v>
+        <v>31.395315</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -4127,13 +4265,13 @@
         <v>1</v>
       </c>
       <c r="C147" t="s">
-        <v>361</v>
+        <v>399</v>
       </c>
       <c r="D147">
-        <v>121.587687</v>
+        <v>121.424661</v>
       </c>
       <c r="E147">
-        <v>31.201832</v>
+        <v>31.39226</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -4144,13 +4282,13 @@
         <v>1</v>
       </c>
       <c r="C148" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="D148">
-        <v>121.448642</v>
+        <v>121.498398</v>
       </c>
       <c r="E148">
-        <v>31.306604</v>
+        <v>31.216866</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -4158,16 +4296,16 @@
         <v>152</v>
       </c>
       <c r="B149">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C149" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="D149">
-        <v>121.436837</v>
+        <v>121.421939</v>
       </c>
       <c r="E149">
-        <v>31.195338</v>
+        <v>31.256198</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -4178,13 +4316,13 @@
         <v>1</v>
       </c>
       <c r="C150" t="s">
-        <v>361</v>
+        <v>397</v>
       </c>
       <c r="D150">
-        <v>121.299204</v>
+        <v>121.69821</v>
       </c>
       <c r="E150">
-        <v>31.188367</v>
+        <v>31.186741</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -4192,16 +4330,16 @@
         <v>154</v>
       </c>
       <c r="B151">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C151" t="s">
-        <v>369</v>
+        <v>426</v>
       </c>
       <c r="D151">
-        <v>121.241668</v>
+        <v>121.588365</v>
       </c>
       <c r="E151">
-        <v>31.175518</v>
+        <v>31.280684</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -4212,13 +4350,13 @@
         <v>1</v>
       </c>
       <c r="C152" t="s">
-        <v>369</v>
+        <v>409</v>
       </c>
       <c r="D152">
-        <v>121.253976</v>
+        <v>121.531933</v>
       </c>
       <c r="E152">
-        <v>31.178101</v>
+        <v>31.322724</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -4226,16 +4364,16 @@
         <v>156</v>
       </c>
       <c r="B153">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C153" t="s">
-        <v>352</v>
+        <v>427</v>
       </c>
       <c r="D153">
-        <v>121.570914</v>
+        <v>121.449141</v>
       </c>
       <c r="E153">
-        <v>31.158131</v>
+        <v>31.213524</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -4246,13 +4384,13 @@
         <v>1</v>
       </c>
       <c r="C154" t="s">
-        <v>355</v>
+        <v>397</v>
       </c>
       <c r="D154">
-        <v>121.564237</v>
+        <v>121.621072</v>
       </c>
       <c r="E154">
-        <v>31.2454</v>
+        <v>31.21105</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -4263,13 +4401,13 @@
         <v>1</v>
       </c>
       <c r="C155" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D155">
-        <v>121.761677</v>
+        <v>121.617199</v>
       </c>
       <c r="E155">
-        <v>31.053828</v>
+        <v>31.130439</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -4280,13 +4418,13 @@
         <v>1</v>
       </c>
       <c r="C156" t="s">
-        <v>374</v>
+        <v>401</v>
       </c>
       <c r="D156">
-        <v>121.7938</v>
+        <v>121.567342</v>
       </c>
       <c r="E156">
-        <v>31.026448</v>
+        <v>31.134504</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -4294,16 +4432,16 @@
         <v>160</v>
       </c>
       <c r="B157">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C157" t="s">
-        <v>388</v>
+        <v>409</v>
       </c>
       <c r="D157">
-        <v>121.49622</v>
+        <v>121.534941</v>
       </c>
       <c r="E157">
-        <v>31.170735</v>
+        <v>31.288543</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -4311,16 +4449,16 @@
         <v>161</v>
       </c>
       <c r="B158">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C158" t="s">
-        <v>350</v>
+        <v>411</v>
       </c>
       <c r="D158">
-        <v>121.468681</v>
+        <v>121.417062</v>
       </c>
       <c r="E158">
-        <v>31.206309</v>
+        <v>31.209616</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -4331,13 +4469,13 @@
         <v>1</v>
       </c>
       <c r="C159" t="s">
-        <v>351</v>
+        <v>399</v>
       </c>
       <c r="D159">
-        <v>121.506801</v>
+        <v>121.455329</v>
       </c>
       <c r="E159">
-        <v>31.253518</v>
+        <v>31.271675</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -4348,13 +4486,13 @@
         <v>1</v>
       </c>
       <c r="C160" t="s">
-        <v>367</v>
+        <v>404</v>
       </c>
       <c r="D160">
-        <v>121.380775</v>
+        <v>121.498671</v>
       </c>
       <c r="E160">
-        <v>31.003597</v>
+        <v>31.358016</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -4365,13 +4503,13 @@
         <v>1</v>
       </c>
       <c r="C161" t="s">
-        <v>374</v>
+        <v>400</v>
       </c>
       <c r="D161">
-        <v>121.64898</v>
+        <v>121.629182</v>
       </c>
       <c r="E161">
-        <v>31.045561</v>
+        <v>31.18913</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -4379,16 +4517,16 @@
         <v>165</v>
       </c>
       <c r="B162">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C162" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="D162">
-        <v>121.475182</v>
+        <v>121.587687</v>
       </c>
       <c r="E162">
-        <v>31.216367</v>
+        <v>31.201832</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -4399,13 +4537,13 @@
         <v>1</v>
       </c>
       <c r="C163" t="s">
-        <v>356</v>
+        <v>399</v>
       </c>
       <c r="D163">
-        <v>121.422682</v>
+        <v>121.448642</v>
       </c>
       <c r="E163">
-        <v>31.263952</v>
+        <v>31.306604</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -4413,16 +4551,16 @@
         <v>167</v>
       </c>
       <c r="B164">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C164" t="s">
-        <v>353</v>
+        <v>428</v>
       </c>
       <c r="D164">
-        <v>121.506951</v>
+        <v>121.436837</v>
       </c>
       <c r="E164">
-        <v>31.328496</v>
+        <v>31.195338</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -4433,13 +4571,13 @@
         <v>1</v>
       </c>
       <c r="C165" t="s">
-        <v>362</v>
+        <v>397</v>
       </c>
       <c r="D165">
-        <v>121.468151</v>
+        <v>121.299204</v>
       </c>
       <c r="E165">
-        <v>31.238373</v>
+        <v>31.188367</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -4450,13 +4588,13 @@
         <v>1</v>
       </c>
       <c r="C166" t="s">
-        <v>352</v>
+        <v>407</v>
       </c>
       <c r="D166">
-        <v>121.200384</v>
+        <v>121.241668</v>
       </c>
       <c r="E166">
-        <v>31.29362</v>
+        <v>31.175518</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -4467,13 +4605,13 @@
         <v>1</v>
       </c>
       <c r="C167" t="s">
-        <v>356</v>
+        <v>407</v>
       </c>
       <c r="D167">
-        <v>121.442617</v>
+        <v>121.253976</v>
       </c>
       <c r="E167">
-        <v>31.233749</v>
+        <v>31.178101</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -4481,16 +4619,16 @@
         <v>171</v>
       </c>
       <c r="B168">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C168" t="s">
-        <v>350</v>
+        <v>429</v>
       </c>
       <c r="D168">
-        <v>121.368903</v>
+        <v>121.570914</v>
       </c>
       <c r="E168">
-        <v>31.158109</v>
+        <v>31.158131</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -4501,13 +4639,13 @@
         <v>1</v>
       </c>
       <c r="C169" t="s">
-        <v>367</v>
+        <v>391</v>
       </c>
       <c r="D169">
-        <v>121.385818</v>
+        <v>121.564237</v>
       </c>
       <c r="E169">
-        <v>31.09825</v>
+        <v>31.2454</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -4515,16 +4653,16 @@
         <v>173</v>
       </c>
       <c r="B170">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C170" t="s">
-        <v>390</v>
+        <v>413</v>
       </c>
       <c r="D170">
-        <v>121.471543</v>
+        <v>121.761677</v>
       </c>
       <c r="E170">
-        <v>31.242307</v>
+        <v>31.053828</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -4535,13 +4673,13 @@
         <v>1</v>
       </c>
       <c r="C171" t="s">
-        <v>371</v>
+        <v>413</v>
       </c>
       <c r="D171">
-        <v>121.491138</v>
+        <v>121.7938</v>
       </c>
       <c r="E171">
-        <v>31.276524</v>
+        <v>31.026448</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -4549,16 +4687,16 @@
         <v>175</v>
       </c>
       <c r="B172">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C172" t="s">
-        <v>391</v>
+        <v>430</v>
       </c>
       <c r="D172">
-        <v>121.417701</v>
+        <v>121.49622</v>
       </c>
       <c r="E172">
-        <v>31.239302</v>
+        <v>31.170735</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -4569,13 +4707,13 @@
         <v>1</v>
       </c>
       <c r="C173" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
       <c r="D173">
-        <v>121.683046</v>
+        <v>121.468681</v>
       </c>
       <c r="E173">
-        <v>31.271272</v>
+        <v>31.206309</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -4586,13 +4724,13 @@
         <v>1</v>
       </c>
       <c r="C174" t="s">
-        <v>367</v>
+        <v>387</v>
       </c>
       <c r="D174">
-        <v>121.48358</v>
+        <v>121.506801</v>
       </c>
       <c r="E174">
-        <v>30.93194</v>
+        <v>31.253518</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -4603,13 +4741,13 @@
         <v>1</v>
       </c>
       <c r="C175" t="s">
-        <v>369</v>
+        <v>405</v>
       </c>
       <c r="D175">
-        <v>121.048989</v>
+        <v>121.380775</v>
       </c>
       <c r="E175">
-        <v>31.100594</v>
+        <v>31.003597</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -4620,13 +4758,13 @@
         <v>1</v>
       </c>
       <c r="C176" t="s">
-        <v>352</v>
+        <v>413</v>
       </c>
       <c r="D176">
-        <v>121.389969</v>
+        <v>121.64898</v>
       </c>
       <c r="E176">
-        <v>31.26902</v>
+        <v>31.045561</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -4634,16 +4772,16 @@
         <v>180</v>
       </c>
       <c r="B177">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C177" t="s">
-        <v>371</v>
+        <v>431</v>
       </c>
       <c r="D177">
-        <v>121.493443</v>
+        <v>121.475182</v>
       </c>
       <c r="E177">
-        <v>31.161054</v>
+        <v>31.216367</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -4654,13 +4792,13 @@
         <v>1</v>
       </c>
       <c r="C178" t="s">
-        <v>357</v>
+        <v>392</v>
       </c>
       <c r="D178">
-        <v>121.51721</v>
+        <v>121.422682</v>
       </c>
       <c r="E178">
-        <v>31.251935</v>
+        <v>31.263952</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -4671,13 +4809,13 @@
         <v>1</v>
       </c>
       <c r="C179" t="s">
-        <v>350</v>
+        <v>389</v>
       </c>
       <c r="D179">
-        <v>121.548664</v>
+        <v>121.506951</v>
       </c>
       <c r="E179">
-        <v>31.22751</v>
+        <v>31.328496</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -4688,13 +4826,13 @@
         <v>1</v>
       </c>
       <c r="C180" t="s">
-        <v>351</v>
+        <v>399</v>
       </c>
       <c r="D180">
-        <v>121.60296</v>
+        <v>121.468151</v>
       </c>
       <c r="E180">
-        <v>31.280092</v>
+        <v>31.238373</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -4705,13 +4843,13 @@
         <v>1</v>
       </c>
       <c r="C181" t="s">
-        <v>356</v>
+        <v>388</v>
       </c>
       <c r="D181">
-        <v>121.525087</v>
+        <v>121.200384</v>
       </c>
       <c r="E181">
-        <v>31.187566</v>
+        <v>31.29362</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -4722,13 +4860,13 @@
         <v>1</v>
       </c>
       <c r="C182" t="s">
-        <v>350</v>
+        <v>392</v>
       </c>
       <c r="D182">
-        <v>121.230504</v>
+        <v>121.442617</v>
       </c>
       <c r="E182">
-        <v>31.016038</v>
+        <v>31.233749</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -4739,13 +4877,13 @@
         <v>1</v>
       </c>
       <c r="C183" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
       <c r="D183">
-        <v>121.230884</v>
+        <v>121.368903</v>
       </c>
       <c r="E183">
-        <v>30.984818</v>
+        <v>31.158109</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -4756,13 +4894,13 @@
         <v>1</v>
       </c>
       <c r="C184" t="s">
-        <v>350</v>
+        <v>405</v>
       </c>
       <c r="D184">
-        <v>121.232577</v>
+        <v>121.385818</v>
       </c>
       <c r="E184">
-        <v>31.053984</v>
+        <v>31.09825</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -4773,13 +4911,13 @@
         <v>1</v>
       </c>
       <c r="C185" t="s">
-        <v>350</v>
+        <v>412</v>
       </c>
       <c r="D185">
-        <v>121.230739</v>
+        <v>121.41876</v>
       </c>
       <c r="E185">
-        <v>31.030295</v>
+        <v>31.099727</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -4790,13 +4928,13 @@
         <v>1</v>
       </c>
       <c r="C186" t="s">
-        <v>352</v>
+        <v>412</v>
       </c>
       <c r="D186">
-        <v>121.411402</v>
+        <v>121.417897</v>
       </c>
       <c r="E186">
-        <v>31.24185</v>
+        <v>31.090625</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -4804,16 +4942,16 @@
         <v>190</v>
       </c>
       <c r="B187">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C187" t="s">
-        <v>351</v>
+        <v>432</v>
       </c>
       <c r="D187">
-        <v>121.419654</v>
+        <v>121.471543</v>
       </c>
       <c r="E187">
-        <v>31.166986</v>
+        <v>31.242307</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -4824,13 +4962,13 @@
         <v>1</v>
       </c>
       <c r="C188" t="s">
-        <v>350</v>
+        <v>409</v>
       </c>
       <c r="D188">
-        <v>121.418064</v>
+        <v>121.491138</v>
       </c>
       <c r="E188">
-        <v>31.174791</v>
+        <v>31.276524</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -4838,16 +4976,16 @@
         <v>192</v>
       </c>
       <c r="B189">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C189" t="s">
-        <v>352</v>
+        <v>433</v>
       </c>
       <c r="D189">
-        <v>121.349623</v>
+        <v>121.417701</v>
       </c>
       <c r="E189">
-        <v>31.281603</v>
+        <v>31.239302</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -4858,13 +4996,13 @@
         <v>1</v>
       </c>
       <c r="C190" t="s">
-        <v>352</v>
+        <v>386</v>
       </c>
       <c r="D190">
-        <v>121.364678</v>
+        <v>121.683046</v>
       </c>
       <c r="E190">
-        <v>31.276646</v>
+        <v>31.271272</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -4875,13 +5013,13 @@
         <v>1</v>
       </c>
       <c r="C191" t="s">
-        <v>363</v>
+        <v>405</v>
       </c>
       <c r="D191">
-        <v>121.430504</v>
+        <v>121.48358</v>
       </c>
       <c r="E191">
-        <v>31.234346</v>
+        <v>30.93194</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -4892,13 +5030,13 @@
         <v>1</v>
       </c>
       <c r="C192" t="s">
-        <v>353</v>
+        <v>407</v>
       </c>
       <c r="D192">
-        <v>121.506797</v>
+        <v>121.048989</v>
       </c>
       <c r="E192">
-        <v>31.321768</v>
+        <v>31.100594</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -4909,13 +5047,13 @@
         <v>1</v>
       </c>
       <c r="C193" t="s">
-        <v>366</v>
+        <v>412</v>
       </c>
       <c r="D193">
-        <v>121.484856</v>
+        <v>121.437804</v>
       </c>
       <c r="E193">
-        <v>31.320005</v>
+        <v>31.124364</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -4926,13 +5064,13 @@
         <v>1</v>
       </c>
       <c r="C194" t="s">
-        <v>355</v>
+        <v>388</v>
       </c>
       <c r="D194">
-        <v>121.543527</v>
+        <v>121.389969</v>
       </c>
       <c r="E194">
-        <v>31.235851</v>
+        <v>31.26902</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -4943,13 +5081,13 @@
         <v>1</v>
       </c>
       <c r="C195" t="s">
-        <v>350</v>
+        <v>409</v>
       </c>
       <c r="D195">
-        <v>121.668125</v>
+        <v>121.493443</v>
       </c>
       <c r="E195">
-        <v>31.268335</v>
+        <v>31.161054</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -4960,13 +5098,13 @@
         <v>1</v>
       </c>
       <c r="C196" t="s">
-        <v>366</v>
+        <v>393</v>
       </c>
       <c r="D196">
-        <v>121.488247</v>
+        <v>121.51721</v>
       </c>
       <c r="E196">
-        <v>31.381302</v>
+        <v>31.251935</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -4977,13 +5115,13 @@
         <v>1</v>
       </c>
       <c r="C197" t="s">
-        <v>353</v>
+        <v>386</v>
       </c>
       <c r="D197">
-        <v>121.392259</v>
+        <v>121.548664</v>
       </c>
       <c r="E197">
-        <v>31.199482</v>
+        <v>31.22751</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -4994,13 +5132,13 @@
         <v>1</v>
       </c>
       <c r="C198" t="s">
-        <v>354</v>
+        <v>387</v>
       </c>
       <c r="D198">
-        <v>121.524558</v>
+        <v>121.60296</v>
       </c>
       <c r="E198">
-        <v>31.025245</v>
+        <v>31.280092</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -5011,13 +5149,13 @@
         <v>1</v>
       </c>
       <c r="C199" t="s">
-        <v>369</v>
+        <v>392</v>
       </c>
       <c r="D199">
-        <v>121.151665</v>
+        <v>121.525087</v>
       </c>
       <c r="E199">
-        <v>31.161221</v>
+        <v>31.187566</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -5025,16 +5163,16 @@
         <v>203</v>
       </c>
       <c r="B200">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C200" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="D200">
-        <v>121.458699</v>
+        <v>121.230504</v>
       </c>
       <c r="E200">
-        <v>31.241883</v>
+        <v>31.016038</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -5045,13 +5183,13 @@
         <v>1</v>
       </c>
       <c r="C201" t="s">
-        <v>363</v>
+        <v>386</v>
       </c>
       <c r="D201">
-        <v>121.44483</v>
+        <v>121.230884</v>
       </c>
       <c r="E201">
-        <v>31.244282</v>
+        <v>30.984818</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -5062,13 +5200,13 @@
         <v>1</v>
       </c>
       <c r="C202" t="s">
-        <v>367</v>
+        <v>386</v>
       </c>
       <c r="D202">
-        <v>121.423474</v>
+        <v>121.232577</v>
       </c>
       <c r="E202">
-        <v>31.005428</v>
+        <v>31.053984</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -5079,13 +5217,13 @@
         <v>1</v>
       </c>
       <c r="C203" t="s">
-        <v>371</v>
+        <v>386</v>
       </c>
       <c r="D203">
-        <v>121.508603</v>
+        <v>121.230739</v>
       </c>
       <c r="E203">
-        <v>31.084253</v>
+        <v>31.030295</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -5096,13 +5234,13 @@
         <v>1</v>
       </c>
       <c r="C204" t="s">
-        <v>366</v>
+        <v>388</v>
       </c>
       <c r="D204">
-        <v>121.439819</v>
+        <v>121.411402</v>
       </c>
       <c r="E204">
-        <v>31.407858</v>
+        <v>31.24185</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -5110,16 +5248,16 @@
         <v>208</v>
       </c>
       <c r="B205">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C205" t="s">
-        <v>351</v>
+        <v>434</v>
       </c>
       <c r="D205">
-        <v>121.523697</v>
+        <v>121.419654</v>
       </c>
       <c r="E205">
-        <v>31.26457</v>
+        <v>31.166986</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -5127,16 +5265,16 @@
         <v>209</v>
       </c>
       <c r="B206">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C206" t="s">
-        <v>371</v>
+        <v>435</v>
       </c>
       <c r="D206">
-        <v>121.518379</v>
+        <v>121.418064</v>
       </c>
       <c r="E206">
-        <v>31.274946</v>
+        <v>31.174791</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -5147,13 +5285,13 @@
         <v>1</v>
       </c>
       <c r="C207" t="s">
-        <v>353</v>
+        <v>388</v>
       </c>
       <c r="D207">
-        <v>121.513314</v>
+        <v>121.349623</v>
       </c>
       <c r="E207">
-        <v>31.304293</v>
+        <v>31.281603</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -5164,13 +5302,13 @@
         <v>1</v>
       </c>
       <c r="C208" t="s">
-        <v>366</v>
+        <v>412</v>
       </c>
       <c r="D208">
-        <v>121.485064</v>
+        <v>121.39697</v>
       </c>
       <c r="E208">
-        <v>31.305566</v>
+        <v>31.242948</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -5178,16 +5316,16 @@
         <v>212</v>
       </c>
       <c r="B209">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C209" t="s">
-        <v>393</v>
+        <v>412</v>
       </c>
       <c r="D209">
-        <v>121.430642</v>
+        <v>121.391307</v>
       </c>
       <c r="E209">
-        <v>31.220411</v>
+        <v>31.275685</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -5198,13 +5336,13 @@
         <v>1</v>
       </c>
       <c r="C210" t="s">
-        <v>362</v>
+        <v>388</v>
       </c>
       <c r="D210">
-        <v>121.450251</v>
+        <v>121.364678</v>
       </c>
       <c r="E210">
-        <v>31.292556</v>
+        <v>31.276646</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -5212,16 +5350,16 @@
         <v>214</v>
       </c>
       <c r="B211">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C211" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="D211">
-        <v>121.512272</v>
+        <v>121.430504</v>
       </c>
       <c r="E211">
-        <v>31.061427</v>
+        <v>31.234346</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -5232,13 +5370,13 @@
         <v>1</v>
       </c>
       <c r="C212" t="s">
-        <v>350</v>
+        <v>389</v>
       </c>
       <c r="D212">
-        <v>121.260247</v>
+        <v>121.506797</v>
       </c>
       <c r="E212">
-        <v>31.118272</v>
+        <v>31.321768</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -5249,13 +5387,13 @@
         <v>1</v>
       </c>
       <c r="C213" t="s">
-        <v>350</v>
+        <v>404</v>
       </c>
       <c r="D213">
-        <v>121.230473</v>
+        <v>121.484856</v>
       </c>
       <c r="E213">
-        <v>31.084492</v>
+        <v>31.320005</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -5266,13 +5404,13 @@
         <v>1</v>
       </c>
       <c r="C214" t="s">
-        <v>355</v>
+        <v>391</v>
       </c>
       <c r="D214">
-        <v>121.589396</v>
+        <v>121.543527</v>
       </c>
       <c r="E214">
-        <v>31.312229</v>
+        <v>31.235851</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -5283,13 +5421,13 @@
         <v>1</v>
       </c>
       <c r="C215" t="s">
-        <v>352</v>
+        <v>386</v>
       </c>
       <c r="D215">
-        <v>121.539005</v>
+        <v>121.668125</v>
       </c>
       <c r="E215">
-        <v>31.150861</v>
+        <v>31.268335</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -5297,16 +5435,16 @@
         <v>219</v>
       </c>
       <c r="B216">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C216" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
       <c r="D216">
-        <v>121.805591</v>
+        <v>121.488247</v>
       </c>
       <c r="E216">
-        <v>31.150958</v>
+        <v>31.381302</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -5317,13 +5455,13 @@
         <v>1</v>
       </c>
       <c r="C217" t="s">
-        <v>357</v>
+        <v>389</v>
       </c>
       <c r="D217">
-        <v>121.519385</v>
+        <v>121.392259</v>
       </c>
       <c r="E217">
-        <v>31.239974</v>
+        <v>31.199482</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -5334,13 +5472,13 @@
         <v>1</v>
       </c>
       <c r="C218" t="s">
-        <v>371</v>
+        <v>412</v>
       </c>
       <c r="D218">
-        <v>121.506272</v>
+        <v>121.443203</v>
       </c>
       <c r="E218">
-        <v>31.09659</v>
+        <v>31.039147</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -5351,13 +5489,13 @@
         <v>1</v>
       </c>
       <c r="C219" t="s">
-        <v>357</v>
+        <v>390</v>
       </c>
       <c r="D219">
-        <v>121.53208</v>
+        <v>121.524558</v>
       </c>
       <c r="E219">
-        <v>31.222285</v>
+        <v>31.025245</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -5368,13 +5506,13 @@
         <v>1</v>
       </c>
       <c r="C220" t="s">
-        <v>355</v>
+        <v>407</v>
       </c>
       <c r="D220">
-        <v>121.529122</v>
+        <v>121.151665</v>
       </c>
       <c r="E220">
-        <v>31.220104</v>
+        <v>31.161221</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -5382,16 +5520,16 @@
         <v>224</v>
       </c>
       <c r="B221">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C221" t="s">
-        <v>354</v>
+        <v>436</v>
       </c>
       <c r="D221">
-        <v>121.530591</v>
+        <v>121.458699</v>
       </c>
       <c r="E221">
-        <v>31.040993</v>
+        <v>31.241883</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -5399,16 +5537,16 @@
         <v>225</v>
       </c>
       <c r="B222">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C222" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="D222">
-        <v>121.488697</v>
+        <v>121.44483</v>
       </c>
       <c r="E222">
-        <v>31.259303</v>
+        <v>31.244282</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -5419,13 +5557,13 @@
         <v>1</v>
       </c>
       <c r="C223" t="s">
-        <v>361</v>
+        <v>405</v>
       </c>
       <c r="D223">
-        <v>121.796878</v>
+        <v>121.423474</v>
       </c>
       <c r="E223">
-        <v>31.168459</v>
+        <v>31.005428</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -5436,13 +5574,13 @@
         <v>1</v>
       </c>
       <c r="C224" t="s">
-        <v>369</v>
+        <v>409</v>
       </c>
       <c r="D224">
-        <v>121.082134</v>
+        <v>121.508603</v>
       </c>
       <c r="E224">
-        <v>31.13446</v>
+        <v>31.084253</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -5453,13 +5591,13 @@
         <v>1</v>
       </c>
       <c r="C225" t="s">
-        <v>366</v>
+        <v>404</v>
       </c>
       <c r="D225">
-        <v>121.50039</v>
+        <v>121.439819</v>
       </c>
       <c r="E225">
-        <v>31.345135</v>
+        <v>31.407858</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -5470,13 +5608,13 @@
         <v>1</v>
       </c>
       <c r="C226" t="s">
-        <v>366</v>
+        <v>387</v>
       </c>
       <c r="D226">
-        <v>121.492818</v>
+        <v>121.523697</v>
       </c>
       <c r="E226">
-        <v>31.370928</v>
+        <v>31.26457</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -5487,13 +5625,13 @@
         <v>1</v>
       </c>
       <c r="C227" t="s">
-        <v>361</v>
+        <v>409</v>
       </c>
       <c r="D227">
-        <v>121.359588</v>
+        <v>121.518379</v>
       </c>
       <c r="E227">
-        <v>31.218212</v>
+        <v>31.274946</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -5504,13 +5642,13 @@
         <v>1</v>
       </c>
       <c r="C228" t="s">
-        <v>363</v>
+        <v>389</v>
       </c>
       <c r="D228">
-        <v>121.464514</v>
+        <v>121.513314</v>
       </c>
       <c r="E228">
-        <v>31.22028</v>
+        <v>31.304293</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -5521,13 +5659,13 @@
         <v>1</v>
       </c>
       <c r="C229" t="s">
-        <v>355</v>
+        <v>404</v>
       </c>
       <c r="D229">
-        <v>121.574752</v>
+        <v>121.485064</v>
       </c>
       <c r="E229">
-        <v>31.353005</v>
+        <v>31.305566</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -5535,16 +5673,16 @@
         <v>233</v>
       </c>
       <c r="B230">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C230" t="s">
-        <v>355</v>
+        <v>437</v>
       </c>
       <c r="D230">
-        <v>121.534642</v>
+        <v>121.430642</v>
       </c>
       <c r="E230">
-        <v>31.233004</v>
+        <v>31.220411</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -5555,13 +5693,13 @@
         <v>1</v>
       </c>
       <c r="C231" t="s">
-        <v>374</v>
+        <v>399</v>
       </c>
       <c r="D231">
-        <v>121.929583</v>
+        <v>121.450251</v>
       </c>
       <c r="E231">
-        <v>30.907245</v>
+        <v>31.292556</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -5572,13 +5710,13 @@
         <v>2</v>
       </c>
       <c r="C232" t="s">
-        <v>397</v>
+        <v>438</v>
       </c>
       <c r="D232">
-        <v>121.433143</v>
+        <v>121.512272</v>
       </c>
       <c r="E232">
-        <v>31.168344</v>
+        <v>31.061427</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -5589,13 +5727,13 @@
         <v>1</v>
       </c>
       <c r="C233" t="s">
-        <v>350</v>
+        <v>401</v>
       </c>
       <c r="D233">
-        <v>121.397769</v>
+        <v>121.580094</v>
       </c>
       <c r="E233">
-        <v>31.170644</v>
+        <v>31.091457</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -5606,13 +5744,13 @@
         <v>1</v>
       </c>
       <c r="C234" t="s">
-        <v>366</v>
+        <v>386</v>
       </c>
       <c r="D234">
-        <v>121.43841</v>
+        <v>121.260247</v>
       </c>
       <c r="E234">
-        <v>31.176746</v>
+        <v>31.118272</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -5623,13 +5761,13 @@
         <v>1</v>
       </c>
       <c r="C235" t="s">
-        <v>369</v>
+        <v>386</v>
       </c>
       <c r="D235">
-        <v>121.096889</v>
+        <v>121.230473</v>
       </c>
       <c r="E235">
-        <v>31.160467</v>
+        <v>31.084492</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -5640,13 +5778,13 @@
         <v>1</v>
       </c>
       <c r="C236" t="s">
-        <v>356</v>
+        <v>391</v>
       </c>
       <c r="D236">
-        <v>121.355845</v>
+        <v>121.589396</v>
       </c>
       <c r="E236">
-        <v>31.364182</v>
+        <v>31.312229</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -5657,13 +5795,13 @@
         <v>1</v>
       </c>
       <c r="C237" t="s">
-        <v>355</v>
+        <v>388</v>
       </c>
       <c r="D237">
-        <v>121.495295</v>
+        <v>121.539005</v>
       </c>
       <c r="E237">
-        <v>31.148665</v>
+        <v>31.150861</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -5671,16 +5809,16 @@
         <v>241</v>
       </c>
       <c r="B238">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C238" t="s">
-        <v>351</v>
+        <v>439</v>
       </c>
       <c r="D238">
-        <v>121.552655</v>
+        <v>121.805591</v>
       </c>
       <c r="E238">
-        <v>31.279788</v>
+        <v>31.150958</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -5691,13 +5829,13 @@
         <v>1</v>
       </c>
       <c r="C239" t="s">
-        <v>367</v>
+        <v>393</v>
       </c>
       <c r="D239">
-        <v>121.463204</v>
+        <v>121.519385</v>
       </c>
       <c r="E239">
-        <v>30.931168</v>
+        <v>31.239974</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -5708,13 +5846,13 @@
         <v>1</v>
       </c>
       <c r="C240" t="s">
-        <v>351</v>
+        <v>409</v>
       </c>
       <c r="D240">
-        <v>121.626863</v>
+        <v>121.506272</v>
       </c>
       <c r="E240">
-        <v>31.280231</v>
+        <v>31.09659</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -5725,13 +5863,13 @@
         <v>1</v>
       </c>
       <c r="C241" t="s">
-        <v>352</v>
+        <v>393</v>
       </c>
       <c r="D241">
-        <v>121.24535</v>
+        <v>121.53208</v>
       </c>
       <c r="E241">
-        <v>31.345359</v>
+        <v>31.222285</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -5742,13 +5880,13 @@
         <v>1</v>
       </c>
       <c r="C242" t="s">
-        <v>363</v>
+        <v>391</v>
       </c>
       <c r="D242">
-        <v>121.381946</v>
+        <v>121.529122</v>
       </c>
       <c r="E242">
-        <v>31.232243</v>
+        <v>31.220104</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -5759,13 +5897,13 @@
         <v>1</v>
       </c>
       <c r="C243" t="s">
-        <v>352</v>
+        <v>390</v>
       </c>
       <c r="D243">
-        <v>121.407219</v>
+        <v>121.530591</v>
       </c>
       <c r="E243">
-        <v>31.250767</v>
+        <v>31.040993</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -5773,16 +5911,16 @@
         <v>247</v>
       </c>
       <c r="B244">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C244" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
       <c r="D244">
-        <v>121.443205</v>
+        <v>121.488697</v>
       </c>
       <c r="E244">
-        <v>31.157949</v>
+        <v>31.259303</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -5793,13 +5931,13 @@
         <v>1</v>
       </c>
       <c r="C245" t="s">
-        <v>356</v>
+        <v>397</v>
       </c>
       <c r="D245">
-        <v>121.373569</v>
+        <v>121.796878</v>
       </c>
       <c r="E245">
-        <v>31.322315</v>
+        <v>31.168459</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -5810,13 +5948,13 @@
         <v>1</v>
       </c>
       <c r="C246" t="s">
-        <v>363</v>
+        <v>407</v>
       </c>
       <c r="D246">
-        <v>121.367275</v>
+        <v>121.082134</v>
       </c>
       <c r="E246">
-        <v>31.237625</v>
+        <v>31.13446</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -5827,13 +5965,13 @@
         <v>1</v>
       </c>
       <c r="C247" t="s">
-        <v>352</v>
+        <v>404</v>
       </c>
       <c r="D247">
-        <v>121.376035</v>
+        <v>121.50039</v>
       </c>
       <c r="E247">
-        <v>31.27165</v>
+        <v>31.345135</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -5844,13 +5982,13 @@
         <v>1</v>
       </c>
       <c r="C248" t="s">
-        <v>352</v>
+        <v>404</v>
       </c>
       <c r="D248">
-        <v>121.59839</v>
+        <v>121.492818</v>
       </c>
       <c r="E248">
-        <v>31.138128</v>
+        <v>31.370928</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -5861,13 +5999,13 @@
         <v>1</v>
       </c>
       <c r="C249" t="s">
-        <v>353</v>
+        <v>397</v>
       </c>
       <c r="D249">
-        <v>121.364831</v>
+        <v>121.359588</v>
       </c>
       <c r="E249">
-        <v>31.169674</v>
+        <v>31.218212</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -5878,13 +6016,13 @@
         <v>1</v>
       </c>
       <c r="C250" t="s">
-        <v>356</v>
+        <v>400</v>
       </c>
       <c r="D250">
-        <v>121.35747</v>
+        <v>121.464514</v>
       </c>
       <c r="E250">
-        <v>31.388831</v>
+        <v>31.22028</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -5895,13 +6033,13 @@
         <v>2</v>
       </c>
       <c r="C251" t="s">
-        <v>398</v>
+        <v>441</v>
       </c>
       <c r="D251">
-        <v>121.593152</v>
+        <v>121.574752</v>
       </c>
       <c r="E251">
-        <v>31.153259</v>
+        <v>31.353005</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -5912,13 +6050,13 @@
         <v>1</v>
       </c>
       <c r="C252" t="s">
-        <v>356</v>
+        <v>391</v>
       </c>
       <c r="D252">
-        <v>121.349966</v>
+        <v>121.534642</v>
       </c>
       <c r="E252">
-        <v>31.401949</v>
+        <v>31.233004</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -5929,13 +6067,13 @@
         <v>1</v>
       </c>
       <c r="C253" t="s">
-        <v>371</v>
+        <v>413</v>
       </c>
       <c r="D253">
-        <v>121.531974</v>
+        <v>121.929583</v>
       </c>
       <c r="E253">
-        <v>31.305002</v>
+        <v>30.907245</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -5946,13 +6084,13 @@
         <v>2</v>
       </c>
       <c r="C254" t="s">
-        <v>399</v>
+        <v>442</v>
       </c>
       <c r="D254">
-        <v>121.494612</v>
+        <v>121.433143</v>
       </c>
       <c r="E254">
-        <v>31.178513</v>
+        <v>31.168344</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -5960,16 +6098,16 @@
         <v>258</v>
       </c>
       <c r="B255">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C255" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="D255">
-        <v>121.483793</v>
+        <v>121.397769</v>
       </c>
       <c r="E255">
-        <v>31.219014</v>
+        <v>31.170644</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -5980,13 +6118,13 @@
         <v>1</v>
       </c>
       <c r="C256" t="s">
-        <v>371</v>
+        <v>404</v>
       </c>
       <c r="D256">
-        <v>121.510594</v>
+        <v>121.43841</v>
       </c>
       <c r="E256">
-        <v>31.073567</v>
+        <v>31.176746</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -5994,16 +6132,16 @@
         <v>260</v>
       </c>
       <c r="B257">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C257" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="D257">
-        <v>121.450212</v>
+        <v>121.096889</v>
       </c>
       <c r="E257">
-        <v>31.199436</v>
+        <v>31.160467</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -6014,13 +6152,13 @@
         <v>1</v>
       </c>
       <c r="C258" t="s">
-        <v>363</v>
+        <v>392</v>
       </c>
       <c r="D258">
-        <v>121.462366</v>
+        <v>121.355845</v>
       </c>
       <c r="E258">
-        <v>31.236451</v>
+        <v>31.364182</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -6031,13 +6169,13 @@
         <v>1</v>
       </c>
       <c r="C259" t="s">
-        <v>353</v>
+        <v>391</v>
       </c>
       <c r="D259">
-        <v>121.355336</v>
+        <v>121.495295</v>
       </c>
       <c r="E259">
-        <v>31.165417</v>
+        <v>31.148665</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -6048,13 +6186,13 @@
         <v>1</v>
       </c>
       <c r="C260" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="D260">
-        <v>121.617494</v>
+        <v>121.552655</v>
       </c>
       <c r="E260">
-        <v>31.054919</v>
+        <v>31.279788</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -6065,13 +6203,13 @@
         <v>1</v>
       </c>
       <c r="C261" t="s">
-        <v>355</v>
+        <v>405</v>
       </c>
       <c r="D261">
-        <v>121.593974</v>
+        <v>121.463204</v>
       </c>
       <c r="E261">
-        <v>31.335371</v>
+        <v>30.931168</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -6082,13 +6220,13 @@
         <v>1</v>
       </c>
       <c r="C262" t="s">
-        <v>371</v>
+        <v>387</v>
       </c>
       <c r="D262">
-        <v>121.497842</v>
+        <v>121.626863</v>
       </c>
       <c r="E262">
-        <v>31.119015</v>
+        <v>31.280231</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -6099,13 +6237,13 @@
         <v>1</v>
       </c>
       <c r="C263" t="s">
-        <v>356</v>
+        <v>388</v>
       </c>
       <c r="D263">
-        <v>121.562754</v>
+        <v>121.24535</v>
       </c>
       <c r="E263">
-        <v>31.211212</v>
+        <v>31.345359</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -6116,13 +6254,13 @@
         <v>1</v>
       </c>
       <c r="C264" t="s">
-        <v>352</v>
+        <v>400</v>
       </c>
       <c r="D264">
-        <v>121.104407</v>
+        <v>121.381946</v>
       </c>
       <c r="E264">
-        <v>31.29879</v>
+        <v>31.232243</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -6133,13 +6271,13 @@
         <v>1</v>
       </c>
       <c r="C265" t="s">
-        <v>356</v>
+        <v>388</v>
       </c>
       <c r="D265">
-        <v>121.550115</v>
+        <v>121.407219</v>
       </c>
       <c r="E265">
-        <v>31.19311</v>
+        <v>31.250767</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -6150,13 +6288,13 @@
         <v>1</v>
       </c>
       <c r="C266" t="s">
-        <v>350</v>
+        <v>404</v>
       </c>
       <c r="D266">
-        <v>121.558431</v>
+        <v>121.443205</v>
       </c>
       <c r="E266">
-        <v>31.231845</v>
+        <v>31.157949</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -6164,16 +6302,16 @@
         <v>270</v>
       </c>
       <c r="B267">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C267" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="D267">
-        <v>121.385373</v>
+        <v>121.373569</v>
       </c>
       <c r="E267">
-        <v>31.111152</v>
+        <v>31.322315</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -6184,13 +6322,13 @@
         <v>1</v>
       </c>
       <c r="C268" t="s">
-        <v>363</v>
+        <v>412</v>
       </c>
       <c r="D268">
-        <v>121.566414</v>
+        <v>121.38488</v>
       </c>
       <c r="E268">
-        <v>31.16911</v>
+        <v>31.291527</v>
       </c>
     </row>
     <row r="269" spans="1:5">
@@ -6201,13 +6339,13 @@
         <v>1</v>
       </c>
       <c r="C269" t="s">
-        <v>362</v>
+        <v>400</v>
       </c>
       <c r="D269">
-        <v>121.40291</v>
+        <v>121.367275</v>
       </c>
       <c r="E269">
-        <v>31.1309</v>
+        <v>31.237625</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -6218,13 +6356,13 @@
         <v>1</v>
       </c>
       <c r="C270" t="s">
-        <v>367</v>
+        <v>388</v>
       </c>
       <c r="D270">
-        <v>121.441857</v>
+        <v>121.376035</v>
       </c>
       <c r="E270">
-        <v>30.965888</v>
+        <v>31.27165</v>
       </c>
     </row>
     <row r="271" spans="1:5">
@@ -6235,13 +6373,13 @@
         <v>1</v>
       </c>
       <c r="C271" t="s">
-        <v>350</v>
+        <v>388</v>
       </c>
       <c r="D271">
-        <v>121.577978</v>
+        <v>121.59839</v>
       </c>
       <c r="E271">
-        <v>31.241017</v>
+        <v>31.138128</v>
       </c>
     </row>
     <row r="272" spans="1:5">
@@ -6249,16 +6387,16 @@
         <v>275</v>
       </c>
       <c r="B272">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C272" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="D272">
-        <v>121.527627</v>
+        <v>121.451012</v>
       </c>
       <c r="E272">
-        <v>31.211672</v>
+        <v>31.023661</v>
       </c>
     </row>
     <row r="273" spans="1:5">
@@ -6266,16 +6404,16 @@
         <v>276</v>
       </c>
       <c r="B273">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C273" t="s">
-        <v>403</v>
+        <v>389</v>
       </c>
       <c r="D273">
-        <v>121.479154</v>
+        <v>121.364831</v>
       </c>
       <c r="E273">
-        <v>31.271392</v>
+        <v>31.169674</v>
       </c>
     </row>
     <row r="274" spans="1:5">
@@ -6286,13 +6424,13 @@
         <v>1</v>
       </c>
       <c r="C274" t="s">
-        <v>353</v>
+        <v>401</v>
       </c>
       <c r="D274">
-        <v>121.347371</v>
+        <v>121.570547</v>
       </c>
       <c r="E274">
-        <v>31.191363</v>
+        <v>31.102554</v>
       </c>
     </row>
     <row r="275" spans="1:5">
@@ -6300,16 +6438,16 @@
         <v>278</v>
       </c>
       <c r="B275">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C275" t="s">
-        <v>378</v>
+        <v>412</v>
       </c>
       <c r="D275">
-        <v>121.3263</v>
+        <v>121.398344</v>
       </c>
       <c r="E275">
-        <v>31.194211</v>
+        <v>31.198685</v>
       </c>
     </row>
     <row r="276" spans="1:5">
@@ -6317,16 +6455,16 @@
         <v>279</v>
       </c>
       <c r="B276">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C276" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="D276">
-        <v>121.31895</v>
+        <v>121.35747</v>
       </c>
       <c r="E276">
-        <v>31.194022</v>
+        <v>31.388831</v>
       </c>
     </row>
     <row r="277" spans="1:5">
@@ -6334,16 +6472,16 @@
         <v>280</v>
       </c>
       <c r="B277">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C277" t="s">
-        <v>405</v>
+        <v>443</v>
       </c>
       <c r="D277">
-        <v>121.420814</v>
+        <v>121.593152</v>
       </c>
       <c r="E277">
-        <v>31.197524</v>
+        <v>31.153259</v>
       </c>
     </row>
     <row r="278" spans="1:5">
@@ -6354,13 +6492,13 @@
         <v>1</v>
       </c>
       <c r="C278" t="s">
-        <v>351</v>
+        <v>412</v>
       </c>
       <c r="D278">
-        <v>121.39725</v>
+        <v>121.435806</v>
       </c>
       <c r="E278">
-        <v>31.16035</v>
+        <v>31.131552</v>
       </c>
     </row>
     <row r="279" spans="1:5">
@@ -6371,13 +6509,13 @@
         <v>1</v>
       </c>
       <c r="C279" t="s">
-        <v>351</v>
+        <v>392</v>
       </c>
       <c r="D279">
-        <v>121.410553</v>
+        <v>121.349966</v>
       </c>
       <c r="E279">
-        <v>31.164033</v>
+        <v>31.401949</v>
       </c>
     </row>
     <row r="280" spans="1:5">
@@ -6388,13 +6526,13 @@
         <v>1</v>
       </c>
       <c r="C280" t="s">
-        <v>351</v>
+        <v>409</v>
       </c>
       <c r="D280">
-        <v>121.380348</v>
+        <v>121.531974</v>
       </c>
       <c r="E280">
-        <v>31.137448</v>
+        <v>31.305002</v>
       </c>
     </row>
     <row r="281" spans="1:5">
@@ -6402,16 +6540,16 @@
         <v>284</v>
       </c>
       <c r="B281">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C281" t="s">
-        <v>369</v>
+        <v>444</v>
       </c>
       <c r="D281">
-        <v>121.278645</v>
+        <v>121.494612</v>
       </c>
       <c r="E281">
-        <v>31.186328</v>
+        <v>31.178513</v>
       </c>
     </row>
     <row r="282" spans="1:5">
@@ -6419,16 +6557,16 @@
         <v>285</v>
       </c>
       <c r="B282">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C282" t="s">
-        <v>356</v>
+        <v>420</v>
       </c>
       <c r="D282">
-        <v>121.421493</v>
+        <v>121.483793</v>
       </c>
       <c r="E282">
-        <v>31.284942</v>
+        <v>31.219014</v>
       </c>
     </row>
     <row r="283" spans="1:5">
@@ -6439,13 +6577,13 @@
         <v>1</v>
       </c>
       <c r="C283" t="s">
-        <v>362</v>
+        <v>409</v>
       </c>
       <c r="D283">
-        <v>121.446424</v>
+        <v>121.510594</v>
       </c>
       <c r="E283">
-        <v>31.204528</v>
+        <v>31.073567</v>
       </c>
     </row>
     <row r="284" spans="1:5">
@@ -6453,16 +6591,16 @@
         <v>287</v>
       </c>
       <c r="B284">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C284" t="s">
-        <v>367</v>
+        <v>445</v>
       </c>
       <c r="D284">
-        <v>121.432441</v>
+        <v>121.450212</v>
       </c>
       <c r="E284">
-        <v>30.98935</v>
+        <v>31.199436</v>
       </c>
     </row>
     <row r="285" spans="1:5">
@@ -6473,13 +6611,13 @@
         <v>1</v>
       </c>
       <c r="C285" t="s">
-        <v>371</v>
+        <v>400</v>
       </c>
       <c r="D285">
-        <v>121.468769</v>
+        <v>121.462366</v>
       </c>
       <c r="E285">
-        <v>31.263505</v>
+        <v>31.236451</v>
       </c>
     </row>
     <row r="286" spans="1:5">
@@ -6487,16 +6625,16 @@
         <v>289</v>
       </c>
       <c r="B286">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C286" t="s">
-        <v>406</v>
+        <v>389</v>
       </c>
       <c r="D286">
-        <v>121.489555</v>
+        <v>121.355336</v>
       </c>
       <c r="E286">
-        <v>31.201967</v>
+        <v>31.165417</v>
       </c>
     </row>
     <row r="287" spans="1:5">
@@ -6507,13 +6645,13 @@
         <v>1</v>
       </c>
       <c r="C287" t="s">
-        <v>369</v>
+        <v>401</v>
       </c>
       <c r="D287">
-        <v>121.29304</v>
+        <v>121.596083</v>
       </c>
       <c r="E287">
-        <v>31.191678</v>
+        <v>31.037305</v>
       </c>
     </row>
     <row r="288" spans="1:5">
@@ -6524,13 +6662,13 @@
         <v>1</v>
       </c>
       <c r="C288" t="s">
-        <v>353</v>
+        <v>413</v>
       </c>
       <c r="D288">
-        <v>121.487473</v>
+        <v>121.617494</v>
       </c>
       <c r="E288">
-        <v>31.227801</v>
+        <v>31.054919</v>
       </c>
     </row>
     <row r="289" spans="1:5">
@@ -6541,13 +6679,13 @@
         <v>1</v>
       </c>
       <c r="C289" t="s">
-        <v>366</v>
+        <v>391</v>
       </c>
       <c r="D289">
-        <v>121.482429</v>
+        <v>121.593974</v>
       </c>
       <c r="E289">
-        <v>31.281247</v>
+        <v>31.335371</v>
       </c>
     </row>
     <row r="290" spans="1:5">
@@ -6558,13 +6696,13 @@
         <v>1</v>
       </c>
       <c r="C290" t="s">
-        <v>369</v>
+        <v>409</v>
       </c>
       <c r="D290">
-        <v>121.192279</v>
+        <v>121.497842</v>
       </c>
       <c r="E290">
-        <v>31.161247</v>
+        <v>31.119015</v>
       </c>
     </row>
     <row r="291" spans="1:5">
@@ -6575,13 +6713,13 @@
         <v>1</v>
       </c>
       <c r="C291" t="s">
-        <v>361</v>
+        <v>392</v>
       </c>
       <c r="D291">
-        <v>121.755301</v>
+        <v>121.562754</v>
       </c>
       <c r="E291">
-        <v>31.199385</v>
+        <v>31.211212</v>
       </c>
     </row>
     <row r="292" spans="1:5">
@@ -6592,13 +6730,13 @@
         <v>1</v>
       </c>
       <c r="C292" t="s">
-        <v>352</v>
+        <v>388</v>
       </c>
       <c r="D292">
-        <v>121.667959</v>
+        <v>121.104407</v>
       </c>
       <c r="E292">
-        <v>31.141263</v>
+        <v>31.29879</v>
       </c>
     </row>
     <row r="293" spans="1:5">
@@ -6609,13 +6747,13 @@
         <v>1</v>
       </c>
       <c r="C293" t="s">
-        <v>362</v>
+        <v>392</v>
       </c>
       <c r="D293">
-        <v>121.441546</v>
+        <v>121.550115</v>
       </c>
       <c r="E293">
-        <v>31.33113</v>
+        <v>31.19311</v>
       </c>
     </row>
     <row r="294" spans="1:5">
@@ -6626,13 +6764,13 @@
         <v>1</v>
       </c>
       <c r="C294" t="s">
-        <v>353</v>
+        <v>386</v>
       </c>
       <c r="D294">
-        <v>121.494362</v>
+        <v>121.558431</v>
       </c>
       <c r="E294">
-        <v>31.268533</v>
+        <v>31.231845</v>
       </c>
     </row>
     <row r="295" spans="1:5">
@@ -6640,16 +6778,16 @@
         <v>298</v>
       </c>
       <c r="B295">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C295" t="s">
-        <v>350</v>
+        <v>446</v>
       </c>
       <c r="D295">
-        <v>121.229361</v>
+        <v>121.385373</v>
       </c>
       <c r="E295">
-        <v>31.001125</v>
+        <v>31.111152</v>
       </c>
     </row>
     <row r="296" spans="1:5">
@@ -6660,13 +6798,13 @@
         <v>1</v>
       </c>
       <c r="C296" t="s">
-        <v>374</v>
+        <v>400</v>
       </c>
       <c r="D296">
-        <v>121.699218</v>
+        <v>121.566414</v>
       </c>
       <c r="E296">
-        <v>31.050325</v>
+        <v>31.16911</v>
       </c>
     </row>
     <row r="297" spans="1:5">
@@ -6677,13 +6815,13 @@
         <v>1</v>
       </c>
       <c r="C297" t="s">
-        <v>351</v>
+        <v>399</v>
       </c>
       <c r="D297">
-        <v>121.615477</v>
+        <v>121.40291</v>
       </c>
       <c r="E297">
-        <v>31.279823</v>
+        <v>31.1309</v>
       </c>
     </row>
     <row r="298" spans="1:5">
@@ -6694,13 +6832,13 @@
         <v>1</v>
       </c>
       <c r="C298" t="s">
-        <v>350</v>
+        <v>405</v>
       </c>
       <c r="D298">
-        <v>121.628479</v>
+        <v>121.441857</v>
       </c>
       <c r="E298">
-        <v>31.264309</v>
+        <v>30.965888</v>
       </c>
     </row>
     <row r="299" spans="1:5">
@@ -6711,13 +6849,13 @@
         <v>1</v>
       </c>
       <c r="C299" t="s">
-        <v>367</v>
+        <v>386</v>
       </c>
       <c r="D299">
-        <v>121.410186</v>
+        <v>121.577978</v>
       </c>
       <c r="E299">
-        <v>31.011282</v>
+        <v>31.241017</v>
       </c>
     </row>
     <row r="300" spans="1:5">
@@ -6725,16 +6863,16 @@
         <v>303</v>
       </c>
       <c r="B300">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C300" t="s">
-        <v>350</v>
+        <v>447</v>
       </c>
       <c r="D300">
-        <v>121.611336</v>
+        <v>121.527627</v>
       </c>
       <c r="E300">
-        <v>31.26085</v>
+        <v>31.211672</v>
       </c>
     </row>
     <row r="301" spans="1:5">
@@ -6742,16 +6880,16 @@
         <v>304</v>
       </c>
       <c r="B301">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C301" t="s">
-        <v>355</v>
+        <v>448</v>
       </c>
       <c r="D301">
-        <v>121.581817</v>
+        <v>121.479154</v>
       </c>
       <c r="E301">
-        <v>31.257084</v>
+        <v>31.271392</v>
       </c>
     </row>
     <row r="302" spans="1:5">
@@ -6762,13 +6900,13 @@
         <v>1</v>
       </c>
       <c r="C302" t="s">
-        <v>363</v>
+        <v>389</v>
       </c>
       <c r="D302">
-        <v>121.335156</v>
+        <v>121.347371</v>
       </c>
       <c r="E302">
-        <v>31.241152</v>
+        <v>31.191363</v>
       </c>
     </row>
     <row r="303" spans="1:5">
@@ -6776,16 +6914,16 @@
         <v>306</v>
       </c>
       <c r="B303">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C303" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="D303">
-        <v>121.41315</v>
+        <v>121.3263</v>
       </c>
       <c r="E303">
-        <v>31.232004</v>
+        <v>31.194211</v>
       </c>
     </row>
     <row r="304" spans="1:5">
@@ -6793,16 +6931,16 @@
         <v>307</v>
       </c>
       <c r="B304">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C304" t="s">
-        <v>367</v>
+        <v>449</v>
       </c>
       <c r="D304">
-        <v>121.492506</v>
+        <v>121.31895</v>
       </c>
       <c r="E304">
-        <v>30.928805</v>
+        <v>31.194022</v>
       </c>
     </row>
     <row r="305" spans="1:5">
@@ -6810,16 +6948,16 @@
         <v>308</v>
       </c>
       <c r="B305">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C305" t="s">
-        <v>380</v>
+        <v>450</v>
       </c>
       <c r="D305">
-        <v>121.638629</v>
+        <v>121.420814</v>
       </c>
       <c r="E305">
-        <v>31.263141</v>
+        <v>31.197524</v>
       </c>
     </row>
     <row r="306" spans="1:5">
@@ -6830,13 +6968,13 @@
         <v>1</v>
       </c>
       <c r="C306" t="s">
-        <v>361</v>
+        <v>412</v>
       </c>
       <c r="D306">
-        <v>121.601989</v>
+        <v>121.432964</v>
       </c>
       <c r="E306">
-        <v>31.204213</v>
+        <v>31.103976</v>
       </c>
     </row>
     <row r="307" spans="1:5">
@@ -6847,13 +6985,13 @@
         <v>1</v>
       </c>
       <c r="C307" t="s">
-        <v>363</v>
+        <v>387</v>
       </c>
       <c r="D307">
-        <v>121.319308</v>
+        <v>121.39725</v>
       </c>
       <c r="E307">
-        <v>31.240986</v>
+        <v>31.16035</v>
       </c>
     </row>
     <row r="308" spans="1:5">
@@ -6864,13 +7002,13 @@
         <v>1</v>
       </c>
       <c r="C308" t="s">
-        <v>366</v>
+        <v>387</v>
       </c>
       <c r="D308">
-        <v>121.461139</v>
+        <v>121.410553</v>
       </c>
       <c r="E308">
-        <v>31.40812</v>
+        <v>31.164033</v>
       </c>
     </row>
     <row r="309" spans="1:5">
@@ -6881,13 +7019,13 @@
         <v>1</v>
       </c>
       <c r="C309" t="s">
-        <v>367</v>
+        <v>387</v>
       </c>
       <c r="D309">
-        <v>121.390264</v>
+        <v>121.380348</v>
       </c>
       <c r="E309">
-        <v>31.089345</v>
+        <v>31.137448</v>
       </c>
     </row>
     <row r="310" spans="1:5">
@@ -6898,13 +7036,13 @@
         <v>1</v>
       </c>
       <c r="C310" t="s">
-        <v>362</v>
+        <v>407</v>
       </c>
       <c r="D310">
-        <v>121.414107</v>
+        <v>121.278645</v>
       </c>
       <c r="E310">
-        <v>31.142217</v>
+        <v>31.186328</v>
       </c>
     </row>
     <row r="311" spans="1:5">
@@ -6915,13 +7053,13 @@
         <v>1</v>
       </c>
       <c r="C311" t="s">
-        <v>356</v>
+        <v>392</v>
       </c>
       <c r="D311">
-        <v>121.540041</v>
+        <v>121.421493</v>
       </c>
       <c r="E311">
-        <v>31.187592</v>
+        <v>31.284942</v>
       </c>
     </row>
     <row r="312" spans="1:5">
@@ -6929,16 +7067,16 @@
         <v>315</v>
       </c>
       <c r="B312">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C312" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="D312">
-        <v>121.429779</v>
+        <v>121.446424</v>
       </c>
       <c r="E312">
-        <v>31.246369</v>
+        <v>31.204528</v>
       </c>
     </row>
     <row r="313" spans="1:5">
@@ -6946,16 +7084,16 @@
         <v>316</v>
       </c>
       <c r="B313">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C313" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="D313">
-        <v>121.438272</v>
+        <v>121.432441</v>
       </c>
       <c r="E313">
-        <v>31.24086</v>
+        <v>30.98935</v>
       </c>
     </row>
     <row r="314" spans="1:5">
@@ -6966,13 +7104,13 @@
         <v>1</v>
       </c>
       <c r="C314" t="s">
-        <v>366</v>
+        <v>409</v>
       </c>
       <c r="D314">
-        <v>121.491482</v>
+        <v>121.468769</v>
       </c>
       <c r="E314">
-        <v>31.332062</v>
+        <v>31.263505</v>
       </c>
     </row>
     <row r="315" spans="1:5">
@@ -6983,13 +7121,13 @@
         <v>2</v>
       </c>
       <c r="C315" t="s">
-        <v>409</v>
+        <v>451</v>
       </c>
       <c r="D315">
-        <v>121.487775</v>
+        <v>121.489555</v>
       </c>
       <c r="E315">
-        <v>31.174452</v>
+        <v>31.201967</v>
       </c>
     </row>
     <row r="316" spans="1:5">
@@ -7000,13 +7138,13 @@
         <v>1</v>
       </c>
       <c r="C316" t="s">
-        <v>354</v>
+        <v>407</v>
       </c>
       <c r="D316">
-        <v>121.530323</v>
+        <v>121.29304</v>
       </c>
       <c r="E316">
-        <v>31.047956</v>
+        <v>31.191678</v>
       </c>
     </row>
     <row r="317" spans="1:5">
@@ -7017,13 +7155,13 @@
         <v>1</v>
       </c>
       <c r="C317" t="s">
-        <v>367</v>
+        <v>389</v>
       </c>
       <c r="D317">
-        <v>121.369712</v>
+        <v>121.487473</v>
       </c>
       <c r="E317">
-        <v>31.000627</v>
+        <v>31.227801</v>
       </c>
     </row>
     <row r="318" spans="1:5">
@@ -7034,13 +7172,13 @@
         <v>1</v>
       </c>
       <c r="C318" t="s">
-        <v>361</v>
+        <v>404</v>
       </c>
       <c r="D318">
-        <v>121.502262</v>
+        <v>121.482429</v>
       </c>
       <c r="E318">
-        <v>31.238195</v>
+        <v>31.281247</v>
       </c>
     </row>
     <row r="319" spans="1:5">
@@ -7048,16 +7186,16 @@
         <v>322</v>
       </c>
       <c r="B319">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C319" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="D319">
-        <v>121.486115</v>
+        <v>121.192279</v>
       </c>
       <c r="E319">
-        <v>31.211789</v>
+        <v>31.161247</v>
       </c>
     </row>
     <row r="320" spans="1:5">
@@ -7068,13 +7206,13 @@
         <v>1</v>
       </c>
       <c r="C320" t="s">
-        <v>363</v>
+        <v>397</v>
       </c>
       <c r="D320">
-        <v>121.557708</v>
+        <v>121.755301</v>
       </c>
       <c r="E320">
-        <v>31.174756</v>
+        <v>31.199385</v>
       </c>
     </row>
     <row r="321" spans="1:5">
@@ -7082,16 +7220,16 @@
         <v>324</v>
       </c>
       <c r="B321">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C321" t="s">
-        <v>411</v>
+        <v>388</v>
       </c>
       <c r="D321">
-        <v>121.458744</v>
+        <v>121.667959</v>
       </c>
       <c r="E321">
-        <v>31.21515</v>
+        <v>31.141263</v>
       </c>
     </row>
     <row r="322" spans="1:5">
@@ -7099,16 +7237,16 @@
         <v>325</v>
       </c>
       <c r="B322">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C322" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="D322">
-        <v>121.423576</v>
+        <v>121.441546</v>
       </c>
       <c r="E322">
-        <v>31.230509</v>
+        <v>31.33113</v>
       </c>
     </row>
     <row r="323" spans="1:5">
@@ -7119,13 +7257,13 @@
         <v>1</v>
       </c>
       <c r="C323" t="s">
-        <v>351</v>
+        <v>389</v>
       </c>
       <c r="D323">
-        <v>121.544692</v>
+        <v>121.494362</v>
       </c>
       <c r="E323">
-        <v>31.275213</v>
+        <v>31.268533</v>
       </c>
     </row>
     <row r="324" spans="1:5">
@@ -7136,13 +7274,13 @@
         <v>1</v>
       </c>
       <c r="C324" t="s">
-        <v>369</v>
+        <v>386</v>
       </c>
       <c r="D324">
-        <v>121.12567</v>
+        <v>121.229361</v>
       </c>
       <c r="E324">
-        <v>31.158925</v>
+        <v>31.001125</v>
       </c>
     </row>
     <row r="325" spans="1:5">
@@ -7150,16 +7288,16 @@
         <v>328</v>
       </c>
       <c r="B325">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C325" t="s">
         <v>413</v>
       </c>
       <c r="D325">
-        <v>121.446221</v>
+        <v>121.699218</v>
       </c>
       <c r="E325">
-        <v>31.223083</v>
+        <v>31.050325</v>
       </c>
     </row>
     <row r="326" spans="1:5">
@@ -7170,13 +7308,13 @@
         <v>1</v>
       </c>
       <c r="C326" t="s">
-        <v>371</v>
+        <v>387</v>
       </c>
       <c r="D326">
-        <v>121.509685</v>
+        <v>121.615477</v>
       </c>
       <c r="E326">
-        <v>31.273242</v>
+        <v>31.279823</v>
       </c>
     </row>
     <row r="327" spans="1:5">
@@ -7187,13 +7325,13 @@
         <v>1</v>
       </c>
       <c r="C327" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
       <c r="D327">
-        <v>121.656465</v>
+        <v>121.628479</v>
       </c>
       <c r="E327">
-        <v>31.266074</v>
+        <v>31.264309</v>
       </c>
     </row>
     <row r="328" spans="1:5">
@@ -7204,13 +7342,13 @@
         <v>1</v>
       </c>
       <c r="C328" t="s">
-        <v>351</v>
+        <v>405</v>
       </c>
       <c r="D328">
-        <v>121.391856</v>
+        <v>121.410186</v>
       </c>
       <c r="E328">
-        <v>31.14089</v>
+        <v>31.011282</v>
       </c>
     </row>
     <row r="329" spans="1:5">
@@ -7221,13 +7359,13 @@
         <v>1</v>
       </c>
       <c r="C329" t="s">
-        <v>356</v>
+        <v>386</v>
       </c>
       <c r="D329">
-        <v>121.373009</v>
+        <v>121.611336</v>
       </c>
       <c r="E329">
-        <v>31.344594</v>
+        <v>31.26085</v>
       </c>
     </row>
     <row r="330" spans="1:5">
@@ -7238,13 +7376,13 @@
         <v>1</v>
       </c>
       <c r="C330" t="s">
-        <v>367</v>
+        <v>391</v>
       </c>
       <c r="D330">
-        <v>121.401868</v>
+        <v>121.581817</v>
       </c>
       <c r="E330">
-        <v>31.067013</v>
+        <v>31.257084</v>
       </c>
     </row>
     <row r="331" spans="1:5">
@@ -7252,16 +7390,16 @@
         <v>334</v>
       </c>
       <c r="B331">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C331" t="s">
-        <v>414</v>
+        <v>400</v>
       </c>
       <c r="D331">
-        <v>121.477256</v>
+        <v>121.335156</v>
       </c>
       <c r="E331">
-        <v>31.20952</v>
+        <v>31.241152</v>
       </c>
     </row>
     <row r="332" spans="1:5">
@@ -7269,16 +7407,16 @@
         <v>335</v>
       </c>
       <c r="B332">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C332" t="s">
-        <v>352</v>
+        <v>452</v>
       </c>
       <c r="D332">
-        <v>121.276906</v>
+        <v>121.41315</v>
       </c>
       <c r="E332">
-        <v>31.319675</v>
+        <v>31.232004</v>
       </c>
     </row>
     <row r="333" spans="1:5">
@@ -7286,16 +7424,16 @@
         <v>336</v>
       </c>
       <c r="B333">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C333" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="D333">
-        <v>121.509845</v>
+        <v>121.492506</v>
       </c>
       <c r="E333">
-        <v>31.185761</v>
+        <v>30.928805</v>
       </c>
     </row>
     <row r="334" spans="1:5">
@@ -7303,16 +7441,16 @@
         <v>337</v>
       </c>
       <c r="B334">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C334" t="s">
-        <v>355</v>
+        <v>419</v>
       </c>
       <c r="D334">
-        <v>121.515787</v>
+        <v>121.638629</v>
       </c>
       <c r="E334">
-        <v>31.159907</v>
+        <v>31.263141</v>
       </c>
     </row>
     <row r="335" spans="1:5">
@@ -7323,13 +7461,13 @@
         <v>1</v>
       </c>
       <c r="C335" t="s">
-        <v>357</v>
+        <v>397</v>
       </c>
       <c r="D335">
-        <v>121.475148</v>
+        <v>121.601989</v>
       </c>
       <c r="E335">
-        <v>31.199221</v>
+        <v>31.204213</v>
       </c>
     </row>
     <row r="336" spans="1:5">
@@ -7340,13 +7478,13 @@
         <v>1</v>
       </c>
       <c r="C336" t="s">
-        <v>374</v>
+        <v>400</v>
       </c>
       <c r="D336">
-        <v>121.611239</v>
+        <v>121.319308</v>
       </c>
       <c r="E336">
-        <v>31.077797</v>
+        <v>31.240986</v>
       </c>
     </row>
     <row r="337" spans="1:5">
@@ -7357,13 +7495,13 @@
         <v>1</v>
       </c>
       <c r="C337" t="s">
-        <v>371</v>
+        <v>404</v>
       </c>
       <c r="D337">
-        <v>121.533383</v>
+        <v>121.461139</v>
       </c>
       <c r="E337">
-        <v>31.295389</v>
+        <v>31.40812</v>
       </c>
     </row>
     <row r="338" spans="1:5">
@@ -7374,13 +7512,13 @@
         <v>1</v>
       </c>
       <c r="C338" t="s">
-        <v>371</v>
+        <v>412</v>
       </c>
       <c r="D338">
-        <v>121.528401</v>
+        <v>121.397078</v>
       </c>
       <c r="E338">
-        <v>31.278814</v>
+        <v>31.250743</v>
       </c>
     </row>
     <row r="339" spans="1:5">
@@ -7391,13 +7529,13 @@
         <v>1</v>
       </c>
       <c r="C339" t="s">
-        <v>362</v>
+        <v>405</v>
       </c>
       <c r="D339">
-        <v>121.473306</v>
+        <v>121.390264</v>
       </c>
       <c r="E339">
-        <v>31.222745</v>
+        <v>31.089345</v>
       </c>
     </row>
     <row r="340" spans="1:5">
@@ -7405,16 +7543,16 @@
         <v>343</v>
       </c>
       <c r="B340">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C340" t="s">
-        <v>416</v>
+        <v>399</v>
       </c>
       <c r="D340">
-        <v>121.452958</v>
+        <v>121.414107</v>
       </c>
       <c r="E340">
-        <v>31.172672</v>
+        <v>31.142217</v>
       </c>
     </row>
     <row r="341" spans="1:5">
@@ -7422,16 +7560,16 @@
         <v>344</v>
       </c>
       <c r="B341">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C341" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="D341">
-        <v>121.457054</v>
+        <v>121.381765</v>
       </c>
       <c r="E341">
-        <v>31.183843</v>
+        <v>31.320184</v>
       </c>
     </row>
     <row r="342" spans="1:5">
@@ -7442,13 +7580,13 @@
         <v>1</v>
       </c>
       <c r="C342" t="s">
-        <v>353</v>
+        <v>392</v>
       </c>
       <c r="D342">
-        <v>121.37048</v>
+        <v>121.540041</v>
       </c>
       <c r="E342">
-        <v>31.176882</v>
+        <v>31.187592</v>
       </c>
     </row>
     <row r="343" spans="1:5">
@@ -7456,16 +7594,16 @@
         <v>346</v>
       </c>
       <c r="B343">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C343" t="s">
-        <v>353</v>
+        <v>453</v>
       </c>
       <c r="D343">
-        <v>121.380034</v>
+        <v>121.429779</v>
       </c>
       <c r="E343">
-        <v>31.1944</v>
+        <v>31.246369</v>
       </c>
     </row>
     <row r="344" spans="1:5">
@@ -7476,13 +7614,13 @@
         <v>2</v>
       </c>
       <c r="C344" t="s">
-        <v>418</v>
+        <v>454</v>
       </c>
       <c r="D344">
-        <v>121.444383</v>
+        <v>121.438272</v>
       </c>
       <c r="E344">
-        <v>31.169458</v>
+        <v>31.24086</v>
       </c>
     </row>
     <row r="345" spans="1:5">
@@ -7493,13 +7631,13 @@
         <v>1</v>
       </c>
       <c r="C345" t="s">
-        <v>352</v>
+        <v>404</v>
       </c>
       <c r="D345">
-        <v>121.459702</v>
+        <v>121.491482</v>
       </c>
       <c r="E345">
-        <v>31.15972</v>
+        <v>31.332062</v>
       </c>
     </row>
     <row r="346" spans="1:5">
@@ -7507,15 +7645,627 @@
         <v>349</v>
       </c>
       <c r="B346">
+        <v>2</v>
+      </c>
+      <c r="C346" t="s">
+        <v>454</v>
+      </c>
+      <c r="D346">
+        <v>121.487775</v>
+      </c>
+      <c r="E346">
+        <v>31.174452</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5">
+      <c r="A347" t="s">
+        <v>350</v>
+      </c>
+      <c r="B347">
+        <v>1</v>
+      </c>
+      <c r="C347" t="s">
+        <v>412</v>
+      </c>
+      <c r="D347">
+        <v>121.396178</v>
+      </c>
+      <c r="E347">
+        <v>31.226257</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5">
+      <c r="A348" t="s">
+        <v>351</v>
+      </c>
+      <c r="B348">
+        <v>1</v>
+      </c>
+      <c r="C348" t="s">
+        <v>390</v>
+      </c>
+      <c r="D348">
+        <v>121.530323</v>
+      </c>
+      <c r="E348">
+        <v>31.047956</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5">
+      <c r="A349" t="s">
+        <v>352</v>
+      </c>
+      <c r="B349">
+        <v>1</v>
+      </c>
+      <c r="C349" t="s">
+        <v>405</v>
+      </c>
+      <c r="D349">
+        <v>121.369712</v>
+      </c>
+      <c r="E349">
+        <v>31.000627</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5">
+      <c r="A350" t="s">
+        <v>353</v>
+      </c>
+      <c r="B350">
+        <v>1</v>
+      </c>
+      <c r="C350" t="s">
+        <v>397</v>
+      </c>
+      <c r="D350">
+        <v>121.502262</v>
+      </c>
+      <c r="E350">
+        <v>31.238195</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5">
+      <c r="A351" t="s">
+        <v>354</v>
+      </c>
+      <c r="B351">
+        <v>2</v>
+      </c>
+      <c r="C351" t="s">
+        <v>455</v>
+      </c>
+      <c r="D351">
+        <v>121.486115</v>
+      </c>
+      <c r="E351">
+        <v>31.211789</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5">
+      <c r="A352" t="s">
+        <v>355</v>
+      </c>
+      <c r="B352">
+        <v>1</v>
+      </c>
+      <c r="C352" t="s">
+        <v>400</v>
+      </c>
+      <c r="D352">
+        <v>121.557708</v>
+      </c>
+      <c r="E352">
+        <v>31.174756</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5">
+      <c r="A353" t="s">
+        <v>356</v>
+      </c>
+      <c r="B353">
+        <v>1</v>
+      </c>
+      <c r="C353" t="s">
+        <v>388</v>
+      </c>
+      <c r="D353">
+        <v>121.306723</v>
+      </c>
+      <c r="E353">
+        <v>31.306573</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5">
+      <c r="A354" t="s">
+        <v>357</v>
+      </c>
+      <c r="B354">
+        <v>3</v>
+      </c>
+      <c r="C354" t="s">
+        <v>456</v>
+      </c>
+      <c r="D354">
+        <v>121.458744</v>
+      </c>
+      <c r="E354">
+        <v>31.21515</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5">
+      <c r="A355" t="s">
+        <v>358</v>
+      </c>
+      <c r="B355">
+        <v>2</v>
+      </c>
+      <c r="C355" t="s">
+        <v>457</v>
+      </c>
+      <c r="D355">
+        <v>121.423576</v>
+      </c>
+      <c r="E355">
+        <v>31.230509</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5">
+      <c r="A356" t="s">
+        <v>359</v>
+      </c>
+      <c r="B356">
+        <v>1</v>
+      </c>
+      <c r="C356" t="s">
+        <v>387</v>
+      </c>
+      <c r="D356">
+        <v>121.544692</v>
+      </c>
+      <c r="E356">
+        <v>31.275213</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5">
+      <c r="A357" t="s">
+        <v>360</v>
+      </c>
+      <c r="B357">
+        <v>1</v>
+      </c>
+      <c r="C357" t="s">
+        <v>407</v>
+      </c>
+      <c r="D357">
+        <v>121.12567</v>
+      </c>
+      <c r="E357">
+        <v>31.158925</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5">
+      <c r="A358" t="s">
+        <v>361</v>
+      </c>
+      <c r="B358">
+        <v>2</v>
+      </c>
+      <c r="C358" t="s">
+        <v>458</v>
+      </c>
+      <c r="D358">
+        <v>121.446221</v>
+      </c>
+      <c r="E358">
+        <v>31.223083</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5">
+      <c r="A359" t="s">
+        <v>362</v>
+      </c>
+      <c r="B359">
+        <v>1</v>
+      </c>
+      <c r="C359" t="s">
+        <v>409</v>
+      </c>
+      <c r="D359">
+        <v>121.509685</v>
+      </c>
+      <c r="E359">
+        <v>31.273242</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5">
+      <c r="A360" t="s">
+        <v>363</v>
+      </c>
+      <c r="B360">
+        <v>1</v>
+      </c>
+      <c r="C360" t="s">
+        <v>386</v>
+      </c>
+      <c r="D360">
+        <v>121.656465</v>
+      </c>
+      <c r="E360">
+        <v>31.266074</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5">
+      <c r="A361" t="s">
+        <v>364</v>
+      </c>
+      <c r="B361">
+        <v>1</v>
+      </c>
+      <c r="C361" t="s">
+        <v>387</v>
+      </c>
+      <c r="D361">
+        <v>121.391856</v>
+      </c>
+      <c r="E361">
+        <v>31.14089</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5">
+      <c r="A362" t="s">
+        <v>365</v>
+      </c>
+      <c r="B362">
+        <v>2</v>
+      </c>
+      <c r="C362" t="s">
+        <v>459</v>
+      </c>
+      <c r="D362">
+        <v>121.373009</v>
+      </c>
+      <c r="E362">
+        <v>31.344594</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5">
+      <c r="A363" t="s">
+        <v>366</v>
+      </c>
+      <c r="B363">
+        <v>1</v>
+      </c>
+      <c r="C363" t="s">
+        <v>405</v>
+      </c>
+      <c r="D363">
+        <v>121.401868</v>
+      </c>
+      <c r="E363">
+        <v>31.067013</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5">
+      <c r="A364" t="s">
+        <v>367</v>
+      </c>
+      <c r="B364">
+        <v>2</v>
+      </c>
+      <c r="C364" t="s">
+        <v>460</v>
+      </c>
+      <c r="D364">
+        <v>121.477256</v>
+      </c>
+      <c r="E364">
+        <v>31.20952</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5">
+      <c r="A365" t="s">
+        <v>368</v>
+      </c>
+      <c r="B365">
+        <v>1</v>
+      </c>
+      <c r="C365" t="s">
+        <v>388</v>
+      </c>
+      <c r="D365">
+        <v>121.276906</v>
+      </c>
+      <c r="E365">
+        <v>31.319675</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5">
+      <c r="A366" t="s">
+        <v>369</v>
+      </c>
+      <c r="B366">
+        <v>1</v>
+      </c>
+      <c r="C366" t="s">
+        <v>389</v>
+      </c>
+      <c r="D366">
+        <v>121.562971</v>
+      </c>
+      <c r="E366">
+        <v>31.352622</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5">
+      <c r="A367" t="s">
+        <v>370</v>
+      </c>
+      <c r="B367">
+        <v>1</v>
+      </c>
+      <c r="C367" t="s">
+        <v>389</v>
+      </c>
+      <c r="D367">
+        <v>121.54928</v>
+      </c>
+      <c r="E367">
+        <v>31.351489</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5">
+      <c r="A368" t="s">
+        <v>371</v>
+      </c>
+      <c r="B368">
+        <v>2</v>
+      </c>
+      <c r="C368" t="s">
+        <v>461</v>
+      </c>
+      <c r="D368">
+        <v>121.509845</v>
+      </c>
+      <c r="E368">
+        <v>31.185761</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5">
+      <c r="A369" t="s">
+        <v>372</v>
+      </c>
+      <c r="B369">
+        <v>1</v>
+      </c>
+      <c r="C369" t="s">
+        <v>391</v>
+      </c>
+      <c r="D369">
+        <v>121.515787</v>
+      </c>
+      <c r="E369">
+        <v>31.159907</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5">
+      <c r="A370" t="s">
+        <v>373</v>
+      </c>
+      <c r="B370">
+        <v>1</v>
+      </c>
+      <c r="C370" t="s">
+        <v>393</v>
+      </c>
+      <c r="D370">
+        <v>121.475148</v>
+      </c>
+      <c r="E370">
+        <v>31.199221</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5">
+      <c r="A371" t="s">
+        <v>374</v>
+      </c>
+      <c r="B371">
+        <v>1</v>
+      </c>
+      <c r="C371" t="s">
+        <v>413</v>
+      </c>
+      <c r="D371">
+        <v>121.611239</v>
+      </c>
+      <c r="E371">
+        <v>31.077797</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5">
+      <c r="A372" t="s">
+        <v>375</v>
+      </c>
+      <c r="B372">
+        <v>1</v>
+      </c>
+      <c r="C372" t="s">
+        <v>401</v>
+      </c>
+      <c r="D372">
+        <v>121.58596</v>
+      </c>
+      <c r="E372">
+        <v>31.07186</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5">
+      <c r="A373" t="s">
+        <v>376</v>
+      </c>
+      <c r="B373">
+        <v>1</v>
+      </c>
+      <c r="C373" t="s">
+        <v>409</v>
+      </c>
+      <c r="D373">
+        <v>121.533383</v>
+      </c>
+      <c r="E373">
+        <v>31.295389</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5">
+      <c r="A374" t="s">
+        <v>377</v>
+      </c>
+      <c r="B374">
+        <v>1</v>
+      </c>
+      <c r="C374" t="s">
+        <v>409</v>
+      </c>
+      <c r="D374">
+        <v>121.528401</v>
+      </c>
+      <c r="E374">
+        <v>31.278814</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5">
+      <c r="A375" t="s">
+        <v>378</v>
+      </c>
+      <c r="B375">
+        <v>1</v>
+      </c>
+      <c r="C375" t="s">
+        <v>399</v>
+      </c>
+      <c r="D375">
+        <v>121.473306</v>
+      </c>
+      <c r="E375">
+        <v>31.222745</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5">
+      <c r="A376" t="s">
+        <v>379</v>
+      </c>
+      <c r="B376">
+        <v>2</v>
+      </c>
+      <c r="C376" t="s">
+        <v>462</v>
+      </c>
+      <c r="D376">
+        <v>121.452958</v>
+      </c>
+      <c r="E376">
+        <v>31.172672</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5">
+      <c r="A377" t="s">
+        <v>380</v>
+      </c>
+      <c r="B377">
+        <v>2</v>
+      </c>
+      <c r="C377" t="s">
+        <v>463</v>
+      </c>
+      <c r="D377">
+        <v>121.457054</v>
+      </c>
+      <c r="E377">
+        <v>31.183843</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5">
+      <c r="A378" t="s">
+        <v>381</v>
+      </c>
+      <c r="B378">
+        <v>1</v>
+      </c>
+      <c r="C378" t="s">
+        <v>389</v>
+      </c>
+      <c r="D378">
+        <v>121.37048</v>
+      </c>
+      <c r="E378">
+        <v>31.176882</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5">
+      <c r="A379" t="s">
+        <v>382</v>
+      </c>
+      <c r="B379">
+        <v>1</v>
+      </c>
+      <c r="C379" t="s">
+        <v>389</v>
+      </c>
+      <c r="D379">
+        <v>121.380034</v>
+      </c>
+      <c r="E379">
+        <v>31.1944</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5">
+      <c r="A380" t="s">
+        <v>383</v>
+      </c>
+      <c r="B380">
+        <v>2</v>
+      </c>
+      <c r="C380" t="s">
+        <v>464</v>
+      </c>
+      <c r="D380">
+        <v>121.444383</v>
+      </c>
+      <c r="E380">
+        <v>31.169458</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5">
+      <c r="A381" t="s">
+        <v>384</v>
+      </c>
+      <c r="B381">
+        <v>1</v>
+      </c>
+      <c r="C381" t="s">
+        <v>388</v>
+      </c>
+      <c r="D381">
+        <v>121.459702</v>
+      </c>
+      <c r="E381">
+        <v>31.15972</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5">
+      <c r="A382" t="s">
+        <v>385</v>
+      </c>
+      <c r="B382">
         <v>4</v>
       </c>
-      <c r="C346" t="s">
-        <v>419</v>
-      </c>
-      <c r="D346">
+      <c r="C382" t="s">
+        <v>465</v>
+      </c>
+      <c r="D382">
         <v>121.557634</v>
       </c>
-      <c r="E346">
+      <c r="E382">
         <v>31.203575</v>
       </c>
     </row>

--- a/city-metro-visualization/data/上海/metro_exchange_lines.xlsx
+++ b/city-metro-visualization/data/上海/metro_exchange_lines.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="512">
   <si>
     <t>station_name</t>
   </si>
@@ -31,6 +31,12 @@
     <t>station_lat</t>
   </si>
   <si>
+    <t>一大会址·新天地</t>
+  </si>
+  <si>
+    <t>一大会址·黄陂南路</t>
+  </si>
+  <si>
     <t>七宝</t>
   </si>
   <si>
@@ -91,6 +97,9 @@
     <t>上海西站</t>
   </si>
   <si>
+    <t>上海财经大学</t>
+  </si>
+  <si>
     <t>上海赛车场</t>
   </si>
   <si>
@@ -154,6 +163,9 @@
     <t>中华艺术宫</t>
   </si>
   <si>
+    <t>中宁路</t>
+  </si>
+  <si>
     <t>中山公园</t>
   </si>
   <si>
@@ -181,9 +193,18 @@
     <t>临沂新村</t>
   </si>
   <si>
+    <t>临洮路</t>
+  </si>
+  <si>
     <t>临港大道</t>
   </si>
   <si>
+    <t>丹阳路</t>
+  </si>
+  <si>
+    <t>乐秀路</t>
+  </si>
+  <si>
     <t>九亭</t>
   </si>
   <si>
@@ -199,6 +220,9 @@
     <t>云锦路</t>
   </si>
   <si>
+    <t>云顺路</t>
+  </si>
+  <si>
     <t>五洲大道</t>
   </si>
   <si>
@@ -250,6 +274,9 @@
     <t>剑川路</t>
   </si>
   <si>
+    <t>北中路</t>
+  </si>
+  <si>
     <t>北新泾</t>
   </si>
   <si>
@@ -361,6 +388,9 @@
     <t>嘉定西</t>
   </si>
   <si>
+    <t>嘉怡路</t>
+  </si>
+  <si>
     <t>嘉松中路</t>
   </si>
   <si>
@@ -391,6 +421,9 @@
     <t>复兴岛</t>
   </si>
   <si>
+    <t>复旦大学</t>
+  </si>
+  <si>
     <t>外环路</t>
   </si>
   <si>
@@ -454,6 +487,9 @@
     <t>宋园路</t>
   </si>
   <si>
+    <t>定边路</t>
+  </si>
+  <si>
     <t>宜山路</t>
   </si>
   <si>
@@ -469,6 +505,9 @@
     <t>富锦路</t>
   </si>
   <si>
+    <t>封浜</t>
+  </si>
+  <si>
     <t>小南门</t>
   </si>
   <si>
@@ -487,6 +526,9 @@
     <t>常熟路</t>
   </si>
   <si>
+    <t>平凉路</t>
+  </si>
+  <si>
     <t>广兰路</t>
   </si>
   <si>
@@ -547,6 +589,9 @@
     <t>打浦桥</t>
   </si>
   <si>
+    <t>抚顺路</t>
+  </si>
+  <si>
     <t>提篮桥</t>
   </si>
   <si>
@@ -556,9 +601,6 @@
     <t>新场</t>
   </si>
   <si>
-    <t>新天地</t>
-  </si>
-  <si>
     <t>新村路</t>
   </si>
   <si>
@@ -574,6 +616,9 @@
     <t>昌平路</t>
   </si>
   <si>
+    <t>昌邑路</t>
+  </si>
+  <si>
     <t>星中路</t>
   </si>
   <si>
@@ -646,12 +691,18 @@
     <t>桂林路</t>
   </si>
   <si>
+    <t>桂桥路</t>
+  </si>
+  <si>
     <t>桃浦新村</t>
   </si>
   <si>
     <t>梅岭北路</t>
   </si>
   <si>
+    <t>歇浦路</t>
+  </si>
+  <si>
     <t>武威东路</t>
   </si>
   <si>
@@ -661,12 +712,18 @@
     <t>武宁路</t>
   </si>
   <si>
+    <t>武定路</t>
+  </si>
+  <si>
     <t>殷高东路</t>
   </si>
   <si>
     <t>殷高西路</t>
   </si>
   <si>
+    <t>殷高路</t>
+  </si>
+  <si>
     <t>民生路</t>
   </si>
   <si>
@@ -739,12 +796,18 @@
     <t>浦三路</t>
   </si>
   <si>
+    <t>浦东南路</t>
+  </si>
+  <si>
     <t>浦东国际机场</t>
   </si>
   <si>
     <t>浦东大道</t>
   </si>
   <si>
+    <t>浦东足球场</t>
+  </si>
+  <si>
     <t>浦江镇</t>
   </si>
   <si>
@@ -784,6 +847,9 @@
     <t>源深体育中心</t>
   </si>
   <si>
+    <t>源深路</t>
+  </si>
+  <si>
     <t>滴水湖</t>
   </si>
   <si>
@@ -817,12 +883,18 @@
     <t>白银路</t>
   </si>
   <si>
+    <t>真光路</t>
+  </si>
+  <si>
     <t>真北路</t>
   </si>
   <si>
     <t>真如</t>
   </si>
   <si>
+    <t>真新新村</t>
+  </si>
+  <si>
     <t>石龙路</t>
   </si>
   <si>
@@ -910,6 +982,9 @@
     <t>芳甸路</t>
   </si>
   <si>
+    <t>芳芯路</t>
+  </si>
+  <si>
     <t>莘庄</t>
   </si>
   <si>
@@ -985,6 +1060,9 @@
     <t>赵巷</t>
   </si>
   <si>
+    <t>迎春路</t>
+  </si>
+  <si>
     <t>远东大道</t>
   </si>
   <si>
@@ -1033,6 +1111,9 @@
     <t>金科路</t>
   </si>
   <si>
+    <t>金粤路</t>
+  </si>
+  <si>
     <t>金运路</t>
   </si>
   <si>
@@ -1150,7 +1231,7 @@
     <t>黄兴路</t>
   </si>
   <si>
-    <t>黄陂南路</t>
+    <t>黄杨路</t>
   </si>
   <si>
     <t>龙华</t>
@@ -1174,6 +1255,12 @@
     <t>龙阳路</t>
   </si>
   <si>
+    <t>10号线,13号线</t>
+  </si>
+  <si>
+    <t>14号线,1号线</t>
+  </si>
+  <si>
     <t>9号线</t>
   </si>
   <si>
@@ -1213,15 +1300,15 @@
     <t>11号线,15号线</t>
   </si>
   <si>
+    <t>18号线</t>
+  </si>
+  <si>
     <t>1号线</t>
   </si>
   <si>
     <t>13号线</t>
   </si>
   <si>
-    <t>18号线</t>
-  </si>
-  <si>
     <t>2号线,4号线,6号线,9号线</t>
   </si>
   <si>
@@ -1246,6 +1333,9 @@
     <t>8号线</t>
   </si>
   <si>
+    <t>14号线</t>
+  </si>
+  <si>
     <t>2号线,3号线,4号线</t>
   </si>
   <si>
@@ -1258,6 +1348,9 @@
     <t>16号线</t>
   </si>
   <si>
+    <t>14号线,6号线</t>
+  </si>
+  <si>
     <t>10号线,11号线</t>
   </si>
   <si>
@@ -1279,6 +1372,12 @@
     <t>10号线,8号线</t>
   </si>
   <si>
+    <t>10号线,18号线</t>
+  </si>
+  <si>
+    <t>14号线,8号线</t>
+  </si>
+  <si>
     <t>12号线,4号线</t>
   </si>
   <si>
@@ -1309,13 +1408,16 @@
     <t>13号线,8号线</t>
   </si>
   <si>
-    <t>10号线,13号线</t>
+    <t>14号线,18号线</t>
   </si>
   <si>
     <t>12号线,8号线</t>
   </si>
   <si>
-    <t>11号线,3号线,4号线</t>
+    <t>11号线,14号线,3号线,4号线</t>
+  </si>
+  <si>
+    <t>18号线,9号线</t>
   </si>
   <si>
     <t>12号线,15号线</t>
@@ -1324,9 +1426,21 @@
     <t>15号线,9号线</t>
   </si>
   <si>
+    <t>13号线,14号线</t>
+  </si>
+  <si>
+    <t>18号线,6号线</t>
+  </si>
+  <si>
     <t>12号线,13号线,1号线</t>
   </si>
   <si>
+    <t>12号线,18号线</t>
+  </si>
+  <si>
+    <t>18号线,8号线</t>
+  </si>
+  <si>
     <t>11号线,2号线</t>
   </si>
   <si>
@@ -1336,6 +1450,9 @@
     <t>2号线,磁悬浮</t>
   </si>
   <si>
+    <t>14号线,4号线</t>
+  </si>
+  <si>
     <t>10号线,4号线</t>
   </si>
   <si>
@@ -1345,6 +1462,9 @@
     <t>12号线,1号线</t>
   </si>
   <si>
+    <t>11号线,14号线</t>
+  </si>
+  <si>
     <t>11号线,16号线</t>
   </si>
   <si>
@@ -1357,6 +1477,12 @@
     <t>1号线,5号线</t>
   </si>
   <si>
+    <t>13号线,18号线</t>
+  </si>
+  <si>
+    <t>14号线,9号线</t>
+  </si>
+  <si>
     <t>4号线,6号线</t>
   </si>
   <si>
@@ -1372,15 +1498,27 @@
     <t>4号线,8号线</t>
   </si>
   <si>
+    <t>10号线,14号线</t>
+  </si>
+  <si>
     <t>13号线,3号线,4号线</t>
   </si>
   <si>
+    <t>14号线,15号线</t>
+  </si>
+  <si>
     <t>3号线,4号线,7号线</t>
   </si>
   <si>
     <t>13号线,7号线</t>
   </si>
   <si>
+    <t>18号线,3号线</t>
+  </si>
+  <si>
+    <t>14号线,2号线</t>
+  </si>
+  <si>
     <t>8号线,9号线</t>
   </si>
   <si>
@@ -1390,7 +1528,7 @@
     <t>11号线,13号线</t>
   </si>
   <si>
-    <t>2号线,7号线</t>
+    <t>14号线,2号线,7号线</t>
   </si>
   <si>
     <t>15号线,7号线</t>
@@ -1411,7 +1549,7 @@
     <t>12号线,3号线</t>
   </si>
   <si>
-    <t>16号线,2号线,7号线,磁悬浮</t>
+    <t>16号线,18号线,2号线,7号线,磁悬浮</t>
   </si>
 </sst>
 </file>
@@ -1769,7 +1907,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E382"/>
+  <dimension ref="A1:E409"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1797,16 +1935,16 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>386</v>
+        <v>413</v>
       </c>
       <c r="D2">
-        <v>121.349221</v>
+        <v>121.475182</v>
       </c>
       <c r="E2">
-        <v>31.155287</v>
+        <v>31.216367</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1814,16 +1952,16 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>387</v>
+        <v>414</v>
       </c>
       <c r="D3">
-        <v>121.362464</v>
+        <v>121.472904</v>
       </c>
       <c r="E3">
-        <v>31.131638</v>
+        <v>31.223898</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1834,13 +1972,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>388</v>
+        <v>415</v>
       </c>
       <c r="D4">
-        <v>121.511594</v>
+        <v>121.349221</v>
       </c>
       <c r="E4">
-        <v>31.143172</v>
+        <v>31.155287</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1851,13 +1989,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>388</v>
+        <v>416</v>
       </c>
       <c r="D5">
-        <v>121.522999</v>
+        <v>121.362464</v>
       </c>
       <c r="E5">
-        <v>31.146459</v>
+        <v>31.131638</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1868,13 +2006,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>389</v>
+        <v>417</v>
       </c>
       <c r="D6">
-        <v>121.50834</v>
+        <v>121.511594</v>
       </c>
       <c r="E6">
-        <v>31.313214</v>
+        <v>31.143172</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1885,13 +2023,13 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>390</v>
+        <v>417</v>
       </c>
       <c r="D7">
-        <v>121.527389</v>
+        <v>121.522999</v>
       </c>
       <c r="E7">
-        <v>31.056108</v>
+        <v>31.146459</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1902,13 +2040,13 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>391</v>
+        <v>418</v>
       </c>
       <c r="D8">
-        <v>121.506151</v>
+        <v>121.50834</v>
       </c>
       <c r="E8">
-        <v>31.14903</v>
+        <v>31.313214</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1919,13 +2057,13 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>392</v>
+        <v>419</v>
       </c>
       <c r="D9">
-        <v>121.40858</v>
+        <v>121.527389</v>
       </c>
       <c r="E9">
-        <v>31.315071</v>
+        <v>31.056108</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1936,13 +2074,13 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>393</v>
+        <v>420</v>
       </c>
       <c r="D10">
-        <v>121.443529</v>
+        <v>121.506151</v>
       </c>
       <c r="E10">
-        <v>31.185605</v>
+        <v>31.14903</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1950,16 +2088,16 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>394</v>
+        <v>421</v>
       </c>
       <c r="D11">
-        <v>121.437423</v>
+        <v>121.40858</v>
       </c>
       <c r="E11">
-        <v>31.182813</v>
+        <v>31.315071</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1970,13 +2108,13 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>391</v>
+        <v>422</v>
       </c>
       <c r="D12">
-        <v>121.523482</v>
+        <v>121.443529</v>
       </c>
       <c r="E12">
-        <v>31.203277</v>
+        <v>31.185605</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1984,16 +2122,16 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>389</v>
+        <v>423</v>
       </c>
       <c r="D13">
-        <v>121.368137</v>
+        <v>121.437423</v>
       </c>
       <c r="E13">
-        <v>31.190246</v>
+        <v>31.182813</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2001,16 +2139,16 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>395</v>
+        <v>420</v>
       </c>
       <c r="D14">
-        <v>121.430041</v>
+        <v>121.523482</v>
       </c>
       <c r="E14">
-        <v>31.154579</v>
+        <v>31.203277</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2021,13 +2159,13 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>389</v>
+        <v>418</v>
       </c>
       <c r="D15">
-        <v>121.444363</v>
+        <v>121.368137</v>
       </c>
       <c r="E15">
-        <v>31.20796</v>
+        <v>31.190246</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -2035,16 +2173,16 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>392</v>
+        <v>424</v>
       </c>
       <c r="D16">
-        <v>121.388884</v>
+        <v>121.430041</v>
       </c>
       <c r="E16">
-        <v>31.320586</v>
+        <v>31.154579</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -2055,13 +2193,13 @@
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>388</v>
+        <v>418</v>
       </c>
       <c r="D17">
-        <v>121.180742</v>
+        <v>121.444363</v>
       </c>
       <c r="E17">
-        <v>31.285403</v>
+        <v>31.20796</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -2072,13 +2210,13 @@
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>388</v>
+        <v>421</v>
       </c>
       <c r="D18">
-        <v>121.441424</v>
+        <v>121.388884</v>
       </c>
       <c r="E18">
-        <v>31.179123</v>
+        <v>31.320586</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -2086,16 +2224,16 @@
         <v>22</v>
       </c>
       <c r="B19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>396</v>
+        <v>417</v>
       </c>
       <c r="D19">
-        <v>121.457939</v>
+        <v>121.180742</v>
       </c>
       <c r="E19">
-        <v>31.249632</v>
+        <v>31.285403</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -2106,13 +2244,13 @@
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>397</v>
+        <v>417</v>
       </c>
       <c r="D20">
-        <v>121.544439</v>
+        <v>121.441424</v>
       </c>
       <c r="E20">
-        <v>31.21882</v>
+        <v>31.179123</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -2120,16 +2258,16 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>398</v>
+        <v>425</v>
       </c>
       <c r="D21">
-        <v>121.400926</v>
+        <v>121.457939</v>
       </c>
       <c r="E21">
-        <v>31.262693</v>
+        <v>31.249632</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -2140,13 +2278,13 @@
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>388</v>
+        <v>426</v>
       </c>
       <c r="D22">
-        <v>121.226098</v>
+        <v>121.544439</v>
       </c>
       <c r="E22">
-        <v>31.331898</v>
+        <v>31.21882</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -2154,16 +2292,16 @@
         <v>26</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C23" t="s">
-        <v>399</v>
+        <v>427</v>
       </c>
       <c r="D23">
-        <v>121.452023</v>
+        <v>121.400926</v>
       </c>
       <c r="E23">
-        <v>31.279895</v>
+        <v>31.262693</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -2174,13 +2312,13 @@
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>400</v>
+        <v>428</v>
       </c>
       <c r="D24">
-        <v>121.540189</v>
+        <v>121.496332</v>
       </c>
       <c r="E24">
-        <v>31.179295</v>
+        <v>31.307672</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -2191,13 +2329,13 @@
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>401</v>
+        <v>417</v>
       </c>
       <c r="D25">
-        <v>121.588988</v>
+        <v>121.226098</v>
       </c>
       <c r="E25">
-        <v>31.054396</v>
+        <v>31.331898</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -2208,13 +2346,13 @@
         <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>400</v>
+        <v>429</v>
       </c>
       <c r="D26">
-        <v>121.481592</v>
+        <v>121.452023</v>
       </c>
       <c r="E26">
-        <v>31.197572</v>
+        <v>31.279895</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -2225,13 +2363,13 @@
         <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>400</v>
+        <v>430</v>
       </c>
       <c r="D27">
-        <v>121.484313</v>
+        <v>121.540189</v>
       </c>
       <c r="E27">
-        <v>31.182789</v>
+        <v>31.179295</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -2242,13 +2380,13 @@
         <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>397</v>
+        <v>428</v>
       </c>
       <c r="D28">
-        <v>121.550909</v>
+        <v>121.588988</v>
       </c>
       <c r="E28">
-        <v>31.209421</v>
+        <v>31.054396</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -2256,16 +2394,16 @@
         <v>32</v>
       </c>
       <c r="B29">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>402</v>
+        <v>430</v>
       </c>
       <c r="D29">
-        <v>121.527213</v>
+        <v>121.481592</v>
       </c>
       <c r="E29">
-        <v>31.228682</v>
+        <v>31.197572</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -2276,13 +2414,13 @@
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>387</v>
+        <v>430</v>
       </c>
       <c r="D30">
-        <v>121.391915</v>
+        <v>121.484313</v>
       </c>
       <c r="E30">
-        <v>31.155823</v>
+        <v>31.182789</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -2293,13 +2431,13 @@
         <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>390</v>
+        <v>426</v>
       </c>
       <c r="D31">
-        <v>121.532093</v>
+        <v>121.550909</v>
       </c>
       <c r="E31">
-        <v>31.03039</v>
+        <v>31.209421</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -2307,16 +2445,16 @@
         <v>35</v>
       </c>
       <c r="B32">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C32" t="s">
-        <v>403</v>
+        <v>431</v>
       </c>
       <c r="D32">
-        <v>121.454897</v>
+        <v>121.527213</v>
       </c>
       <c r="E32">
-        <v>31.190819</v>
+        <v>31.228682</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -2327,13 +2465,13 @@
         <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>404</v>
+        <v>416</v>
       </c>
       <c r="D33">
-        <v>121.480202</v>
+        <v>121.391915</v>
       </c>
       <c r="E33">
-        <v>31.259886</v>
+        <v>31.155823</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -2344,13 +2482,13 @@
         <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>405</v>
+        <v>419</v>
       </c>
       <c r="D34">
-        <v>121.419901</v>
+        <v>121.532093</v>
       </c>
       <c r="E34">
-        <v>31.018197</v>
+        <v>31.03039</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -2358,16 +2496,16 @@
         <v>38</v>
       </c>
       <c r="B35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C35" t="s">
-        <v>406</v>
+        <v>432</v>
       </c>
       <c r="D35">
-        <v>121.480304</v>
+        <v>121.454897</v>
       </c>
       <c r="E35">
-        <v>31.153366</v>
+        <v>31.190819</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -2378,13 +2516,13 @@
         <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>407</v>
+        <v>433</v>
       </c>
       <c r="D36">
-        <v>121.019534</v>
+        <v>121.480202</v>
       </c>
       <c r="E36">
-        <v>31.098544</v>
+        <v>31.259886</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -2395,13 +2533,13 @@
         <v>1</v>
       </c>
       <c r="C37" t="s">
-        <v>397</v>
+        <v>434</v>
       </c>
       <c r="D37">
-        <v>121.515556</v>
+        <v>121.419901</v>
       </c>
       <c r="E37">
-        <v>31.23327</v>
+        <v>31.018197</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -2409,16 +2547,16 @@
         <v>41</v>
       </c>
       <c r="B38">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C38" t="s">
-        <v>408</v>
+        <v>435</v>
       </c>
       <c r="D38">
-        <v>121.510868</v>
+        <v>121.480304</v>
       </c>
       <c r="E38">
-        <v>31.172646</v>
+        <v>31.153366</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -2429,13 +2567,13 @@
         <v>1</v>
       </c>
       <c r="C39" t="s">
-        <v>387</v>
+        <v>436</v>
       </c>
       <c r="D39">
-        <v>121.579124</v>
+        <v>121.019534</v>
       </c>
       <c r="E39">
-        <v>31.282533</v>
+        <v>31.098544</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -2446,13 +2584,13 @@
         <v>1</v>
       </c>
       <c r="C40" t="s">
-        <v>391</v>
+        <v>426</v>
       </c>
       <c r="D40">
-        <v>121.588736</v>
+        <v>121.515556</v>
       </c>
       <c r="E40">
-        <v>31.290684</v>
+        <v>31.23327</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -2460,16 +2598,16 @@
         <v>44</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C41" t="s">
-        <v>409</v>
+        <v>437</v>
       </c>
       <c r="D41">
-        <v>121.469026</v>
+        <v>121.510868</v>
       </c>
       <c r="E41">
-        <v>31.253228</v>
+        <v>31.172646</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -2480,13 +2618,13 @@
         <v>1</v>
       </c>
       <c r="C42" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="D42">
-        <v>121.493626</v>
+        <v>121.579124</v>
       </c>
       <c r="E42">
-        <v>31.185242</v>
+        <v>31.282533</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -2494,16 +2632,16 @@
         <v>46</v>
       </c>
       <c r="B43">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C43" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="D43">
-        <v>121.415773</v>
+        <v>121.588736</v>
       </c>
       <c r="E43">
-        <v>31.217948</v>
+        <v>31.290684</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -2514,13 +2652,13 @@
         <v>1</v>
       </c>
       <c r="C44" t="s">
-        <v>399</v>
+        <v>438</v>
       </c>
       <c r="D44">
-        <v>121.459204</v>
+        <v>121.469026</v>
       </c>
       <c r="E44">
-        <v>31.258891</v>
+        <v>31.253228</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -2531,13 +2669,13 @@
         <v>1</v>
       </c>
       <c r="C45" t="s">
-        <v>386</v>
+        <v>438</v>
       </c>
       <c r="D45">
-        <v>121.3377</v>
+        <v>121.493626</v>
       </c>
       <c r="E45">
-        <v>31.149415</v>
+        <v>31.185242</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -2545,16 +2683,16 @@
         <v>49</v>
       </c>
       <c r="B46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C46" t="s">
-        <v>411</v>
+        <v>439</v>
       </c>
       <c r="D46">
-        <v>121.441001</v>
+        <v>121.414541</v>
       </c>
       <c r="E46">
-        <v>31.254568</v>
+        <v>31.245059</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -2562,16 +2700,16 @@
         <v>50</v>
       </c>
       <c r="B47">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C47" t="s">
-        <v>400</v>
+        <v>440</v>
       </c>
       <c r="D47">
-        <v>121.602465</v>
+        <v>121.415773</v>
       </c>
       <c r="E47">
-        <v>31.178862</v>
+        <v>31.217948</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -2582,13 +2720,13 @@
         <v>1</v>
       </c>
       <c r="C48" t="s">
-        <v>400</v>
+        <v>429</v>
       </c>
       <c r="D48">
-        <v>121.355141</v>
+        <v>121.459204</v>
       </c>
       <c r="E48">
-        <v>31.242553</v>
+        <v>31.258891</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -2599,13 +2737,13 @@
         <v>1</v>
       </c>
       <c r="C49" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="D49">
-        <v>121.380872</v>
+        <v>121.3377</v>
       </c>
       <c r="E49">
-        <v>31.308218</v>
+        <v>31.149415</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -2613,16 +2751,16 @@
         <v>53</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C50" t="s">
-        <v>393</v>
+        <v>441</v>
       </c>
       <c r="D50">
-        <v>121.500696</v>
+        <v>121.441001</v>
       </c>
       <c r="E50">
-        <v>31.260874</v>
+        <v>31.254568</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -2633,13 +2771,13 @@
         <v>1</v>
       </c>
       <c r="C51" t="s">
-        <v>391</v>
+        <v>430</v>
       </c>
       <c r="D51">
-        <v>121.516695</v>
+        <v>121.602465</v>
       </c>
       <c r="E51">
-        <v>31.193202</v>
+        <v>31.178862</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -2650,13 +2788,13 @@
         <v>1</v>
       </c>
       <c r="C52" t="s">
-        <v>413</v>
+        <v>430</v>
       </c>
       <c r="D52">
-        <v>121.910851</v>
+        <v>121.355141</v>
       </c>
       <c r="E52">
-        <v>30.923519</v>
+        <v>31.242553</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -2667,13 +2805,13 @@
         <v>1</v>
       </c>
       <c r="C53" t="s">
-        <v>386</v>
+        <v>442</v>
       </c>
       <c r="D53">
-        <v>121.319423</v>
+        <v>121.380872</v>
       </c>
       <c r="E53">
-        <v>31.137252</v>
+        <v>31.308218</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -2684,13 +2822,13 @@
         <v>1</v>
       </c>
       <c r="C54" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="D54">
-        <v>121.85052</v>
+        <v>121.500696</v>
       </c>
       <c r="E54">
-        <v>30.959264</v>
+        <v>31.260874</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -2701,13 +2839,13 @@
         <v>1</v>
       </c>
       <c r="C55" t="s">
-        <v>392</v>
+        <v>420</v>
       </c>
       <c r="D55">
-        <v>121.500439</v>
+        <v>121.516695</v>
       </c>
       <c r="E55">
-        <v>31.182212</v>
+        <v>31.193202</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -2718,13 +2856,13 @@
         <v>1</v>
       </c>
       <c r="C56" t="s">
-        <v>391</v>
+        <v>439</v>
       </c>
       <c r="D56">
-        <v>121.572775</v>
+        <v>121.33086</v>
       </c>
       <c r="E56">
-        <v>31.250413</v>
+        <v>31.263059</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -2735,13 +2873,13 @@
         <v>1</v>
       </c>
       <c r="C57" t="s">
-        <v>388</v>
+        <v>443</v>
       </c>
       <c r="D57">
-        <v>121.458519</v>
+        <v>121.910851</v>
       </c>
       <c r="E57">
-        <v>31.166488</v>
+        <v>30.923519</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -2752,13 +2890,13 @@
         <v>1</v>
       </c>
       <c r="C58" t="s">
-        <v>391</v>
+        <v>428</v>
       </c>
       <c r="D58">
-        <v>121.589212</v>
+        <v>121.53116</v>
       </c>
       <c r="E58">
-        <v>31.302569</v>
+        <v>31.253815</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -2769,13 +2907,13 @@
         <v>1</v>
       </c>
       <c r="C59" t="s">
-        <v>391</v>
+        <v>439</v>
       </c>
       <c r="D59">
-        <v>121.587866</v>
+        <v>121.314103</v>
       </c>
       <c r="E59">
-        <v>31.272025</v>
+        <v>31.265363</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -2786,13 +2924,13 @@
         <v>1</v>
       </c>
       <c r="C60" t="s">
-        <v>389</v>
+        <v>415</v>
       </c>
       <c r="D60">
-        <v>121.514632</v>
+        <v>121.319423</v>
       </c>
       <c r="E60">
-        <v>31.298043</v>
+        <v>31.137252</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -2800,16 +2938,16 @@
         <v>64</v>
       </c>
       <c r="B61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C61" t="s">
-        <v>414</v>
+        <v>443</v>
       </c>
       <c r="D61">
-        <v>121.435253</v>
+        <v>121.85052</v>
       </c>
       <c r="E61">
-        <v>31.202213</v>
+        <v>30.959264</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -2817,16 +2955,16 @@
         <v>65</v>
       </c>
       <c r="B62">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C62" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="D62">
-        <v>121.475137</v>
+        <v>121.500439</v>
       </c>
       <c r="E62">
-        <v>31.232781</v>
+        <v>31.182212</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -2834,16 +2972,16 @@
         <v>66</v>
       </c>
       <c r="B63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C63" t="s">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="D63">
-        <v>121.403899</v>
+        <v>121.571153</v>
       </c>
       <c r="E63">
-        <v>31.19888</v>
+        <v>31.250969</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2854,13 +2992,13 @@
         <v>1</v>
       </c>
       <c r="C64" t="s">
-        <v>386</v>
+        <v>417</v>
       </c>
       <c r="D64">
-        <v>121.229686</v>
+        <v>121.458519</v>
       </c>
       <c r="E64">
-        <v>31.104097</v>
+        <v>31.166488</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2871,13 +3009,13 @@
         <v>1</v>
       </c>
       <c r="C65" t="s">
-        <v>412</v>
+        <v>439</v>
       </c>
       <c r="D65">
-        <v>121.431901</v>
+        <v>121.600336</v>
       </c>
       <c r="E65">
-        <v>31.062815</v>
+        <v>31.237064</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2888,13 +3026,13 @@
         <v>1</v>
       </c>
       <c r="C66" t="s">
-        <v>388</v>
+        <v>420</v>
       </c>
       <c r="D66">
-        <v>121.150315</v>
+        <v>121.589212</v>
       </c>
       <c r="E66">
-        <v>31.289048</v>
+        <v>31.302569</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2905,13 +3043,13 @@
         <v>1</v>
       </c>
       <c r="C67" t="s">
-        <v>388</v>
+        <v>420</v>
       </c>
       <c r="D67">
-        <v>121.117186</v>
+        <v>121.587866</v>
       </c>
       <c r="E67">
-        <v>31.29621</v>
+        <v>31.272025</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2922,13 +3060,13 @@
         <v>1</v>
       </c>
       <c r="C68" t="s">
-        <v>399</v>
+        <v>418</v>
       </c>
       <c r="D68">
-        <v>121.434063</v>
+        <v>121.514632</v>
       </c>
       <c r="E68">
-        <v>31.355082</v>
+        <v>31.298043</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2936,16 +3074,16 @@
         <v>72</v>
       </c>
       <c r="B69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C69" t="s">
-        <v>399</v>
+        <v>445</v>
       </c>
       <c r="D69">
-        <v>121.447063</v>
+        <v>121.435253</v>
       </c>
       <c r="E69">
-        <v>31.318936</v>
+        <v>31.202213</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2953,16 +3091,16 @@
         <v>73</v>
       </c>
       <c r="B70">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C70" t="s">
-        <v>409</v>
+        <v>446</v>
       </c>
       <c r="D70">
-        <v>121.489663</v>
+        <v>121.475137</v>
       </c>
       <c r="E70">
-        <v>31.141301</v>
+        <v>31.232781</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2973,13 +3111,13 @@
         <v>1</v>
       </c>
       <c r="C71" t="s">
-        <v>397</v>
+        <v>418</v>
       </c>
       <c r="D71">
-        <v>121.724095</v>
+        <v>121.403899</v>
       </c>
       <c r="E71">
-        <v>31.192861</v>
+        <v>31.19888</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2990,13 +3128,13 @@
         <v>1</v>
       </c>
       <c r="C72" t="s">
-        <v>392</v>
+        <v>415</v>
       </c>
       <c r="D72">
-        <v>121.362376</v>
+        <v>121.229686</v>
       </c>
       <c r="E72">
-        <v>31.357586</v>
+        <v>31.104097</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -3007,13 +3145,13 @@
         <v>1</v>
       </c>
       <c r="C73" t="s">
-        <v>397</v>
+        <v>442</v>
       </c>
       <c r="D73">
-        <v>121.673713</v>
+        <v>121.431901</v>
       </c>
       <c r="E73">
-        <v>31.213871</v>
+        <v>31.062815</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -3024,13 +3162,13 @@
         <v>1</v>
       </c>
       <c r="C74" t="s">
-        <v>405</v>
+        <v>417</v>
       </c>
       <c r="D74">
-        <v>121.416582</v>
+        <v>121.150315</v>
       </c>
       <c r="E74">
-        <v>31.026483</v>
+        <v>31.289048</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -3041,13 +3179,13 @@
         <v>1</v>
       </c>
       <c r="C75" t="s">
-        <v>397</v>
+        <v>417</v>
       </c>
       <c r="D75">
-        <v>121.373998</v>
+        <v>121.117186</v>
       </c>
       <c r="E75">
-        <v>31.216395</v>
+        <v>31.29621</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -3058,13 +3196,13 @@
         <v>1</v>
       </c>
       <c r="C76" t="s">
-        <v>405</v>
+        <v>429</v>
       </c>
       <c r="D76">
-        <v>121.410054</v>
+        <v>121.434063</v>
       </c>
       <c r="E76">
-        <v>31.045112</v>
+        <v>31.355082</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -3075,13 +3213,13 @@
         <v>1</v>
       </c>
       <c r="C77" t="s">
-        <v>391</v>
+        <v>429</v>
       </c>
       <c r="D77">
-        <v>121.552314</v>
+        <v>121.447063</v>
       </c>
       <c r="E77">
-        <v>31.239145</v>
+        <v>31.318936</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -3092,13 +3230,13 @@
         <v>1</v>
       </c>
       <c r="C78" t="s">
-        <v>400</v>
+        <v>438</v>
       </c>
       <c r="D78">
-        <v>121.552017</v>
+        <v>121.489663</v>
       </c>
       <c r="E78">
-        <v>31.180131</v>
+        <v>31.141301</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -3109,13 +3247,13 @@
         <v>1</v>
       </c>
       <c r="C79" t="s">
-        <v>412</v>
+        <v>426</v>
       </c>
       <c r="D79">
-        <v>121.429092</v>
+        <v>121.724095</v>
       </c>
       <c r="E79">
-        <v>31.142709</v>
+        <v>31.192861</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -3126,13 +3264,13 @@
         <v>1</v>
       </c>
       <c r="C80" t="s">
-        <v>397</v>
+        <v>421</v>
       </c>
       <c r="D80">
-        <v>121.680972</v>
+        <v>121.362376</v>
       </c>
       <c r="E80">
-        <v>31.196575</v>
+        <v>31.357586</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -3140,16 +3278,16 @@
         <v>84</v>
       </c>
       <c r="B81">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C81" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="D81">
-        <v>121.583109</v>
+        <v>121.673713</v>
       </c>
       <c r="E81">
-        <v>31.175759</v>
+        <v>31.213871</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -3160,13 +3298,13 @@
         <v>1</v>
       </c>
       <c r="C82" t="s">
-        <v>391</v>
+        <v>434</v>
       </c>
       <c r="D82">
-        <v>121.514539</v>
+        <v>121.416582</v>
       </c>
       <c r="E82">
-        <v>31.149878</v>
+        <v>31.026483</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -3177,13 +3315,13 @@
         <v>1</v>
       </c>
       <c r="C83" t="s">
-        <v>405</v>
+        <v>428</v>
       </c>
       <c r="D83">
-        <v>121.395255</v>
+        <v>121.561355</v>
       </c>
       <c r="E83">
-        <v>31.007467</v>
+        <v>31.182762</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -3194,13 +3332,13 @@
         <v>1</v>
       </c>
       <c r="C84" t="s">
-        <v>412</v>
+        <v>426</v>
       </c>
       <c r="D84">
-        <v>121.440138</v>
+        <v>121.373998</v>
       </c>
       <c r="E84">
-        <v>31.113429</v>
+        <v>31.216395</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -3211,13 +3349,13 @@
         <v>1</v>
       </c>
       <c r="C85" t="s">
-        <v>400</v>
+        <v>434</v>
       </c>
       <c r="D85">
-        <v>121.526567</v>
+        <v>121.410054</v>
       </c>
       <c r="E85">
-        <v>31.176276</v>
+        <v>31.045112</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -3225,16 +3363,16 @@
         <v>89</v>
       </c>
       <c r="B86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C86" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="D86">
-        <v>121.484628</v>
+        <v>121.552314</v>
       </c>
       <c r="E86">
-        <v>31.238101</v>
+        <v>31.239145</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -3242,16 +3380,16 @@
         <v>90</v>
       </c>
       <c r="B87">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C87" t="s">
-        <v>418</v>
+        <v>430</v>
       </c>
       <c r="D87">
-        <v>121.459971</v>
+        <v>121.552017</v>
       </c>
       <c r="E87">
-        <v>31.229853</v>
+        <v>31.180131</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -3262,13 +3400,13 @@
         <v>1</v>
       </c>
       <c r="C88" t="s">
-        <v>412</v>
+        <v>442</v>
       </c>
       <c r="D88">
-        <v>121.380097</v>
+        <v>121.429092</v>
       </c>
       <c r="E88">
-        <v>31.299117</v>
+        <v>31.142709</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -3279,13 +3417,13 @@
         <v>1</v>
       </c>
       <c r="C89" t="s">
-        <v>393</v>
+        <v>426</v>
       </c>
       <c r="D89">
-        <v>121.499725</v>
+        <v>121.680972</v>
       </c>
       <c r="E89">
-        <v>31.208504</v>
+        <v>31.196575</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -3293,16 +3431,16 @@
         <v>93</v>
       </c>
       <c r="B90">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C90" t="s">
-        <v>388</v>
+        <v>447</v>
       </c>
       <c r="D90">
-        <v>121.323141</v>
+        <v>121.583109</v>
       </c>
       <c r="E90">
-        <v>31.296952</v>
+        <v>31.175759</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -3313,13 +3451,13 @@
         <v>1</v>
       </c>
       <c r="C91" t="s">
-        <v>392</v>
+        <v>420</v>
       </c>
       <c r="D91">
-        <v>121.398863</v>
+        <v>121.514539</v>
       </c>
       <c r="E91">
-        <v>31.321437</v>
+        <v>31.149878</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -3330,13 +3468,13 @@
         <v>1</v>
       </c>
       <c r="C92" t="s">
-        <v>391</v>
+        <v>434</v>
       </c>
       <c r="D92">
-        <v>121.586689</v>
+        <v>121.395255</v>
       </c>
       <c r="E92">
-        <v>31.26352</v>
+        <v>31.007467</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -3347,13 +3485,13 @@
         <v>1</v>
       </c>
       <c r="C93" t="s">
-        <v>399</v>
+        <v>442</v>
       </c>
       <c r="D93">
-        <v>121.427953</v>
+        <v>121.440138</v>
       </c>
       <c r="E93">
-        <v>31.381296</v>
+        <v>31.113429</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -3364,13 +3502,13 @@
         <v>1</v>
       </c>
       <c r="C94" t="s">
-        <v>404</v>
+        <v>430</v>
       </c>
       <c r="D94">
-        <v>121.475924</v>
+        <v>121.526567</v>
       </c>
       <c r="E94">
-        <v>31.404016</v>
+        <v>31.176276</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -3378,16 +3516,16 @@
         <v>98</v>
       </c>
       <c r="B95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C95" t="s">
-        <v>412</v>
+        <v>448</v>
       </c>
       <c r="D95">
-        <v>121.42175</v>
+        <v>121.484628</v>
       </c>
       <c r="E95">
-        <v>31.083214</v>
+        <v>31.238101</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -3395,16 +3533,16 @@
         <v>99</v>
       </c>
       <c r="B96">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C96" t="s">
-        <v>389</v>
+        <v>449</v>
       </c>
       <c r="D96">
-        <v>121.539425</v>
+        <v>121.459971</v>
       </c>
       <c r="E96">
-        <v>31.353601</v>
+        <v>31.229853</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -3415,13 +3553,13 @@
         <v>1</v>
       </c>
       <c r="C97" t="s">
-        <v>412</v>
+        <v>442</v>
       </c>
       <c r="D97">
-        <v>121.392261</v>
+        <v>121.380097</v>
       </c>
       <c r="E97">
-        <v>31.284858</v>
+        <v>31.299117</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -3432,13 +3570,13 @@
         <v>1</v>
       </c>
       <c r="C98" t="s">
-        <v>386</v>
+        <v>422</v>
       </c>
       <c r="D98">
-        <v>121.597458</v>
+        <v>121.499725</v>
       </c>
       <c r="E98">
-        <v>31.252825</v>
+        <v>31.208504</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -3449,13 +3587,13 @@
         <v>1</v>
       </c>
       <c r="C99" t="s">
-        <v>386</v>
+        <v>417</v>
       </c>
       <c r="D99">
-        <v>121.384772</v>
+        <v>121.323141</v>
       </c>
       <c r="E99">
-        <v>31.166542</v>
+        <v>31.296952</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -3466,13 +3604,13 @@
         <v>1</v>
       </c>
       <c r="C100" t="s">
-        <v>389</v>
+        <v>421</v>
       </c>
       <c r="D100">
-        <v>121.506357</v>
+        <v>121.398863</v>
       </c>
       <c r="E100">
-        <v>31.282086</v>
+        <v>31.321437</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -3483,13 +3621,13 @@
         <v>1</v>
       </c>
       <c r="C101" t="s">
-        <v>392</v>
+        <v>420</v>
       </c>
       <c r="D101">
-        <v>121.473756</v>
+        <v>121.586689</v>
       </c>
       <c r="E101">
-        <v>31.171918</v>
+        <v>31.26352</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -3500,13 +3638,13 @@
         <v>1</v>
       </c>
       <c r="C102" t="s">
-        <v>412</v>
+        <v>429</v>
       </c>
       <c r="D102">
-        <v>121.413457</v>
+        <v>121.427953</v>
       </c>
       <c r="E102">
-        <v>31.186765</v>
+        <v>31.381296</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -3517,13 +3655,13 @@
         <v>1</v>
       </c>
       <c r="C103" t="s">
-        <v>401</v>
+        <v>433</v>
       </c>
       <c r="D103">
-        <v>121.567589</v>
+        <v>121.475924</v>
       </c>
       <c r="E103">
-        <v>31.113461</v>
+        <v>31.404016</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -3534,13 +3672,13 @@
         <v>1</v>
       </c>
       <c r="C104" t="s">
-        <v>413</v>
+        <v>442</v>
       </c>
       <c r="D104">
-        <v>121.606895</v>
+        <v>121.42175</v>
       </c>
       <c r="E104">
-        <v>31.110038</v>
+        <v>31.083214</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -3551,13 +3689,13 @@
         <v>1</v>
       </c>
       <c r="C105" t="s">
-        <v>399</v>
+        <v>418</v>
       </c>
       <c r="D105">
-        <v>121.437711</v>
+        <v>121.539425</v>
       </c>
       <c r="E105">
-        <v>31.339703</v>
+        <v>31.353601</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -3568,13 +3706,13 @@
         <v>1</v>
       </c>
       <c r="C106" t="s">
-        <v>397</v>
+        <v>442</v>
       </c>
       <c r="D106">
-        <v>121.656269</v>
+        <v>121.392261</v>
       </c>
       <c r="E106">
-        <v>31.214107</v>
+        <v>31.284858</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -3585,13 +3723,13 @@
         <v>1</v>
       </c>
       <c r="C107" t="s">
-        <v>386</v>
+        <v>415</v>
       </c>
       <c r="D107">
-        <v>121.516275</v>
+        <v>121.597458</v>
       </c>
       <c r="E107">
-        <v>31.230258</v>
+        <v>31.252825</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -3599,16 +3737,16 @@
         <v>111</v>
       </c>
       <c r="B108">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C108" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="D108">
-        <v>121.460704</v>
+        <v>121.384772</v>
       </c>
       <c r="E108">
-        <v>31.20282</v>
+        <v>31.166542</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -3619,13 +3757,13 @@
         <v>1</v>
       </c>
       <c r="C109" t="s">
-        <v>388</v>
+        <v>418</v>
       </c>
       <c r="D109">
-        <v>121.23735</v>
+        <v>121.506357</v>
       </c>
       <c r="E109">
-        <v>31.391549</v>
+        <v>31.282086</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -3636,13 +3774,13 @@
         <v>1</v>
       </c>
       <c r="C110" t="s">
-        <v>388</v>
+        <v>421</v>
       </c>
       <c r="D110">
-        <v>121.254294</v>
+        <v>121.473756</v>
       </c>
       <c r="E110">
-        <v>31.330062</v>
+        <v>31.171918</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -3653,13 +3791,13 @@
         <v>1</v>
       </c>
       <c r="C111" t="s">
-        <v>388</v>
+        <v>442</v>
       </c>
       <c r="D111">
-        <v>121.227855</v>
+        <v>121.413457</v>
       </c>
       <c r="E111">
-        <v>31.377107</v>
+        <v>31.186765</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -3670,13 +3808,13 @@
         <v>1</v>
       </c>
       <c r="C112" t="s">
-        <v>407</v>
+        <v>428</v>
       </c>
       <c r="D112">
-        <v>121.223916</v>
+        <v>121.567589</v>
       </c>
       <c r="E112">
-        <v>31.164099</v>
+        <v>31.113461</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -3687,13 +3825,13 @@
         <v>1</v>
       </c>
       <c r="C113" t="s">
-        <v>389</v>
+        <v>443</v>
       </c>
       <c r="D113">
-        <v>121.484208</v>
+        <v>121.606895</v>
       </c>
       <c r="E113">
-        <v>31.252035</v>
+        <v>31.110038</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -3701,16 +3839,16 @@
         <v>117</v>
       </c>
       <c r="B114">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C114" t="s">
-        <v>420</v>
+        <v>429</v>
       </c>
       <c r="D114">
-        <v>121.501488</v>
+        <v>121.437711</v>
       </c>
       <c r="E114">
-        <v>31.27488</v>
+        <v>31.339703</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -3721,13 +3859,13 @@
         <v>1</v>
       </c>
       <c r="C115" t="s">
-        <v>389</v>
+        <v>426</v>
       </c>
       <c r="D115">
-        <v>121.513238</v>
+        <v>121.656269</v>
       </c>
       <c r="E115">
-        <v>31.339761</v>
+        <v>31.214107</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -3738,13 +3876,13 @@
         <v>1</v>
       </c>
       <c r="C116" t="s">
-        <v>389</v>
+        <v>415</v>
       </c>
       <c r="D116">
-        <v>121.510024</v>
+        <v>121.516275</v>
       </c>
       <c r="E116">
-        <v>31.289276</v>
+        <v>31.230258</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -3752,16 +3890,16 @@
         <v>120</v>
       </c>
       <c r="B117">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C117" t="s">
-        <v>387</v>
+        <v>450</v>
       </c>
       <c r="D117">
-        <v>121.498158</v>
+        <v>121.460704</v>
       </c>
       <c r="E117">
-        <v>31.25016</v>
+        <v>31.20282</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -3772,13 +3910,13 @@
         <v>1</v>
       </c>
       <c r="C118" t="s">
-        <v>392</v>
+        <v>417</v>
       </c>
       <c r="D118">
-        <v>121.413661</v>
+        <v>121.23735</v>
       </c>
       <c r="E118">
-        <v>31.303685</v>
+        <v>31.391549</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -3789,13 +3927,13 @@
         <v>1</v>
       </c>
       <c r="C119" t="s">
-        <v>389</v>
+        <v>417</v>
       </c>
       <c r="D119">
-        <v>121.590411</v>
+        <v>121.254294</v>
       </c>
       <c r="E119">
-        <v>31.351311</v>
+        <v>31.330062</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -3806,13 +3944,13 @@
         <v>1</v>
       </c>
       <c r="C120" t="s">
-        <v>393</v>
+        <v>417</v>
       </c>
       <c r="D120">
-        <v>121.51869</v>
+        <v>121.227855</v>
       </c>
       <c r="E120">
-        <v>31.209762</v>
+        <v>31.377107</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -3823,13 +3961,13 @@
         <v>1</v>
       </c>
       <c r="C121" t="s">
-        <v>387</v>
+        <v>439</v>
       </c>
       <c r="D121">
-        <v>121.561315</v>
+        <v>121.345697</v>
       </c>
       <c r="E121">
-        <v>31.280779</v>
+        <v>31.259195</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -3840,13 +3978,13 @@
         <v>1</v>
       </c>
       <c r="C122" t="s">
-        <v>399</v>
+        <v>436</v>
       </c>
       <c r="D122">
-        <v>121.39302</v>
+        <v>121.223916</v>
       </c>
       <c r="E122">
-        <v>31.120899</v>
+        <v>31.164099</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -3857,13 +3995,13 @@
         <v>1</v>
       </c>
       <c r="C123" t="s">
-        <v>391</v>
+        <v>418</v>
       </c>
       <c r="D123">
-        <v>121.586926</v>
+        <v>121.484208</v>
       </c>
       <c r="E123">
-        <v>31.347802</v>
+        <v>31.252035</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -3871,16 +4009,16 @@
         <v>127</v>
       </c>
       <c r="B124">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C124" t="s">
-        <v>391</v>
+        <v>451</v>
       </c>
       <c r="D124">
-        <v>121.601963</v>
+        <v>121.501488</v>
       </c>
       <c r="E124">
-        <v>31.321578</v>
+        <v>31.27488</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -3891,13 +4029,13 @@
         <v>1</v>
       </c>
       <c r="C125" t="s">
-        <v>409</v>
+        <v>418</v>
       </c>
       <c r="D125">
-        <v>121.479326</v>
+        <v>121.513238</v>
       </c>
       <c r="E125">
-        <v>31.227182</v>
+        <v>31.339761</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -3905,16 +4043,16 @@
         <v>129</v>
       </c>
       <c r="B126">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C126" t="s">
-        <v>392</v>
+        <v>452</v>
       </c>
       <c r="D126">
-        <v>121.422949</v>
+        <v>121.510024</v>
       </c>
       <c r="E126">
-        <v>31.274047</v>
+        <v>31.289276</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -3925,13 +4063,13 @@
         <v>1</v>
       </c>
       <c r="C127" t="s">
-        <v>392</v>
+        <v>416</v>
       </c>
       <c r="D127">
-        <v>121.416548</v>
+        <v>121.498158</v>
       </c>
       <c r="E127">
-        <v>31.29332</v>
+        <v>31.25016</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -3939,16 +4077,16 @@
         <v>131</v>
       </c>
       <c r="B128">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C128" t="s">
         <v>421</v>
       </c>
       <c r="D128">
-        <v>121.463278</v>
+        <v>121.413661</v>
       </c>
       <c r="E128">
-        <v>31.194057</v>
+        <v>31.303685</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -3959,13 +4097,13 @@
         <v>1</v>
       </c>
       <c r="C129" t="s">
-        <v>404</v>
+        <v>418</v>
       </c>
       <c r="D129">
-        <v>121.483216</v>
+        <v>121.590411</v>
       </c>
       <c r="E129">
-        <v>31.289433</v>
+        <v>31.351311</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -3973,16 +4111,16 @@
         <v>133</v>
       </c>
       <c r="B130">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C130" t="s">
         <v>422</v>
       </c>
       <c r="D130">
-        <v>121.394431</v>
+        <v>121.51869</v>
       </c>
       <c r="E130">
-        <v>31.231752</v>
+        <v>31.209762</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -3990,16 +4128,16 @@
         <v>134</v>
       </c>
       <c r="B131">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C131" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="D131">
-        <v>121.513088</v>
+        <v>121.561315</v>
       </c>
       <c r="E131">
-        <v>31.257938</v>
+        <v>31.280779</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -4007,16 +4145,16 @@
         <v>135</v>
       </c>
       <c r="B132">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C132" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="D132">
-        <v>121.482473</v>
+        <v>121.499709</v>
       </c>
       <c r="E132">
-        <v>31.243829</v>
+        <v>31.295909</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -4027,13 +4165,13 @@
         <v>1</v>
       </c>
       <c r="C133" t="s">
-        <v>405</v>
+        <v>429</v>
       </c>
       <c r="D133">
-        <v>121.448984</v>
+        <v>121.39302</v>
       </c>
       <c r="E133">
-        <v>30.942055</v>
+        <v>31.120899</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -4044,13 +4182,13 @@
         <v>1</v>
       </c>
       <c r="C134" t="s">
-        <v>405</v>
+        <v>420</v>
       </c>
       <c r="D134">
-        <v>121.49629</v>
+        <v>121.586926</v>
       </c>
       <c r="E134">
-        <v>30.913916</v>
+        <v>31.347802</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -4061,13 +4199,13 @@
         <v>1</v>
       </c>
       <c r="C135" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="D135">
-        <v>121.406699</v>
+        <v>121.601963</v>
       </c>
       <c r="E135">
-        <v>31.191535</v>
+        <v>31.321578</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -4075,16 +4213,16 @@
         <v>139</v>
       </c>
       <c r="B136">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C136" t="s">
-        <v>397</v>
+        <v>453</v>
       </c>
       <c r="D136">
-        <v>121.387285</v>
+        <v>121.479182</v>
       </c>
       <c r="E136">
-        <v>31.21487</v>
+        <v>31.227392</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -4092,16 +4230,16 @@
         <v>140</v>
       </c>
       <c r="B137">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C137" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="D137">
-        <v>121.404058</v>
+        <v>121.422949</v>
       </c>
       <c r="E137">
-        <v>31.211158</v>
+        <v>31.274047</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -4112,13 +4250,13 @@
         <v>1</v>
       </c>
       <c r="C138" t="s">
-        <v>409</v>
+        <v>421</v>
       </c>
       <c r="D138">
-        <v>121.531954</v>
+        <v>121.416548</v>
       </c>
       <c r="E138">
-        <v>31.314804</v>
+        <v>31.29332</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -4126,16 +4264,16 @@
         <v>142</v>
       </c>
       <c r="B139">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C139" t="s">
-        <v>400</v>
+        <v>454</v>
       </c>
       <c r="D139">
-        <v>121.614363</v>
+        <v>121.463278</v>
       </c>
       <c r="E139">
-        <v>31.183476</v>
+        <v>31.194057</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -4146,13 +4284,13 @@
         <v>1</v>
       </c>
       <c r="C140" t="s">
-        <v>387</v>
+        <v>433</v>
       </c>
       <c r="D140">
-        <v>121.532352</v>
+        <v>121.483216</v>
       </c>
       <c r="E140">
-        <v>31.268574</v>
+        <v>31.289433</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -4160,16 +4298,16 @@
         <v>144</v>
       </c>
       <c r="B141">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C141" t="s">
-        <v>388</v>
+        <v>455</v>
       </c>
       <c r="D141">
-        <v>121.161985</v>
+        <v>121.394431</v>
       </c>
       <c r="E141">
-        <v>31.28849</v>
+        <v>31.231752</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -4177,16 +4315,16 @@
         <v>145</v>
       </c>
       <c r="B142">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C142" t="s">
-        <v>389</v>
+        <v>454</v>
       </c>
       <c r="D142">
-        <v>121.41208</v>
+        <v>121.513088</v>
       </c>
       <c r="E142">
-        <v>31.19654</v>
+        <v>31.257938</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -4194,16 +4332,16 @@
         <v>146</v>
       </c>
       <c r="B143">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C143" t="s">
-        <v>425</v>
+        <v>456</v>
       </c>
       <c r="D143">
-        <v>121.427194</v>
+        <v>121.482473</v>
       </c>
       <c r="E143">
-        <v>31.186717</v>
+        <v>31.243829</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -4214,13 +4352,13 @@
         <v>1</v>
       </c>
       <c r="C144" t="s">
-        <v>399</v>
+        <v>434</v>
       </c>
       <c r="D144">
-        <v>121.430914</v>
+        <v>121.448984</v>
       </c>
       <c r="E144">
-        <v>31.369555</v>
+        <v>30.942055</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -4228,16 +4366,16 @@
         <v>148</v>
       </c>
       <c r="B145">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C145" t="s">
-        <v>411</v>
+        <v>434</v>
       </c>
       <c r="D145">
-        <v>121.476298</v>
+        <v>121.49629</v>
       </c>
       <c r="E145">
-        <v>31.251523</v>
+        <v>30.913916</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -4248,13 +4386,13 @@
         <v>1</v>
       </c>
       <c r="C146" t="s">
-        <v>404</v>
+        <v>442</v>
       </c>
       <c r="D146">
-        <v>121.479574</v>
+        <v>121.406699</v>
       </c>
       <c r="E146">
-        <v>31.395315</v>
+        <v>31.191535</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -4265,13 +4403,13 @@
         <v>1</v>
       </c>
       <c r="C147" t="s">
-        <v>399</v>
+        <v>426</v>
       </c>
       <c r="D147">
-        <v>121.424661</v>
+        <v>121.387285</v>
       </c>
       <c r="E147">
-        <v>31.39226</v>
+        <v>31.21487</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -4279,16 +4417,16 @@
         <v>151</v>
       </c>
       <c r="B148">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C148" t="s">
-        <v>386</v>
+        <v>457</v>
       </c>
       <c r="D148">
-        <v>121.498398</v>
+        <v>121.404058</v>
       </c>
       <c r="E148">
-        <v>31.216866</v>
+        <v>31.211158</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -4299,13 +4437,13 @@
         <v>1</v>
       </c>
       <c r="C149" t="s">
-        <v>392</v>
+        <v>438</v>
       </c>
       <c r="D149">
-        <v>121.421939</v>
+        <v>121.531954</v>
       </c>
       <c r="E149">
-        <v>31.256198</v>
+        <v>31.314804</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -4316,13 +4454,13 @@
         <v>1</v>
       </c>
       <c r="C150" t="s">
-        <v>397</v>
+        <v>430</v>
       </c>
       <c r="D150">
-        <v>121.69821</v>
+        <v>121.614363</v>
       </c>
       <c r="E150">
-        <v>31.186741</v>
+        <v>31.183476</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -4330,16 +4468,16 @@
         <v>154</v>
       </c>
       <c r="B151">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C151" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="D151">
-        <v>121.588365</v>
+        <v>121.532352</v>
       </c>
       <c r="E151">
-        <v>31.280684</v>
+        <v>31.268574</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -4350,13 +4488,13 @@
         <v>1</v>
       </c>
       <c r="C152" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="D152">
-        <v>121.531933</v>
+        <v>121.161985</v>
       </c>
       <c r="E152">
-        <v>31.322724</v>
+        <v>31.28849</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -4364,16 +4502,16 @@
         <v>156</v>
       </c>
       <c r="B153">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C153" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="D153">
-        <v>121.449141</v>
+        <v>121.41208</v>
       </c>
       <c r="E153">
-        <v>31.213524</v>
+        <v>31.19654</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -4384,13 +4522,13 @@
         <v>1</v>
       </c>
       <c r="C154" t="s">
-        <v>397</v>
+        <v>439</v>
       </c>
       <c r="D154">
-        <v>121.621072</v>
+        <v>121.362396</v>
       </c>
       <c r="E154">
-        <v>31.21105</v>
+        <v>31.256392</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -4398,16 +4536,16 @@
         <v>158</v>
       </c>
       <c r="B155">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C155" t="s">
-        <v>388</v>
+        <v>458</v>
       </c>
       <c r="D155">
-        <v>121.617199</v>
+        <v>121.427194</v>
       </c>
       <c r="E155">
-        <v>31.130439</v>
+        <v>31.186717</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -4418,13 +4556,13 @@
         <v>1</v>
       </c>
       <c r="C156" t="s">
-        <v>401</v>
+        <v>429</v>
       </c>
       <c r="D156">
-        <v>121.567342</v>
+        <v>121.430914</v>
       </c>
       <c r="E156">
-        <v>31.134504</v>
+        <v>31.369555</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -4432,16 +4570,16 @@
         <v>160</v>
       </c>
       <c r="B157">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C157" t="s">
-        <v>409</v>
+        <v>441</v>
       </c>
       <c r="D157">
-        <v>121.534941</v>
+        <v>121.476298</v>
       </c>
       <c r="E157">
-        <v>31.288543</v>
+        <v>31.251523</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -4449,16 +4587,16 @@
         <v>161</v>
       </c>
       <c r="B158">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C158" t="s">
-        <v>411</v>
+        <v>433</v>
       </c>
       <c r="D158">
-        <v>121.417062</v>
+        <v>121.479574</v>
       </c>
       <c r="E158">
-        <v>31.209616</v>
+        <v>31.395315</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -4469,13 +4607,13 @@
         <v>1</v>
       </c>
       <c r="C159" t="s">
-        <v>399</v>
+        <v>429</v>
       </c>
       <c r="D159">
-        <v>121.455329</v>
+        <v>121.424661</v>
       </c>
       <c r="E159">
-        <v>31.271675</v>
+        <v>31.39226</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -4486,13 +4624,13 @@
         <v>1</v>
       </c>
       <c r="C160" t="s">
-        <v>404</v>
+        <v>439</v>
       </c>
       <c r="D160">
-        <v>121.498671</v>
+        <v>121.297006</v>
       </c>
       <c r="E160">
-        <v>31.358016</v>
+        <v>31.267488</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -4503,13 +4641,13 @@
         <v>1</v>
       </c>
       <c r="C161" t="s">
-        <v>400</v>
+        <v>415</v>
       </c>
       <c r="D161">
-        <v>121.629182</v>
+        <v>121.498398</v>
       </c>
       <c r="E161">
-        <v>31.18913</v>
+        <v>31.216866</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -4520,13 +4658,13 @@
         <v>1</v>
       </c>
       <c r="C162" t="s">
-        <v>397</v>
+        <v>421</v>
       </c>
       <c r="D162">
-        <v>121.587687</v>
+        <v>121.421939</v>
       </c>
       <c r="E162">
-        <v>31.201832</v>
+        <v>31.256198</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -4537,13 +4675,13 @@
         <v>1</v>
       </c>
       <c r="C163" t="s">
-        <v>399</v>
+        <v>426</v>
       </c>
       <c r="D163">
-        <v>121.448642</v>
+        <v>121.69821</v>
       </c>
       <c r="E163">
-        <v>31.306604</v>
+        <v>31.186741</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -4551,16 +4689,16 @@
         <v>167</v>
       </c>
       <c r="B164">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C164" t="s">
-        <v>428</v>
+        <v>459</v>
       </c>
       <c r="D164">
-        <v>121.436837</v>
+        <v>121.588365</v>
       </c>
       <c r="E164">
-        <v>31.195338</v>
+        <v>31.280684</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -4571,13 +4709,13 @@
         <v>1</v>
       </c>
       <c r="C165" t="s">
-        <v>397</v>
+        <v>438</v>
       </c>
       <c r="D165">
-        <v>121.299204</v>
+        <v>121.531933</v>
       </c>
       <c r="E165">
-        <v>31.188367</v>
+        <v>31.322724</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -4585,16 +4723,16 @@
         <v>169</v>
       </c>
       <c r="B166">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C166" t="s">
-        <v>407</v>
+        <v>460</v>
       </c>
       <c r="D166">
-        <v>121.241668</v>
+        <v>121.449141</v>
       </c>
       <c r="E166">
-        <v>31.175518</v>
+        <v>31.213524</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -4605,13 +4743,13 @@
         <v>1</v>
       </c>
       <c r="C167" t="s">
-        <v>407</v>
+        <v>428</v>
       </c>
       <c r="D167">
-        <v>121.253976</v>
+        <v>121.526701</v>
       </c>
       <c r="E167">
-        <v>31.178101</v>
+        <v>31.259038</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -4619,16 +4757,16 @@
         <v>171</v>
       </c>
       <c r="B168">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C168" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="D168">
-        <v>121.570914</v>
+        <v>121.621072</v>
       </c>
       <c r="E168">
-        <v>31.158131</v>
+        <v>31.21105</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -4639,13 +4777,13 @@
         <v>1</v>
       </c>
       <c r="C169" t="s">
-        <v>391</v>
+        <v>417</v>
       </c>
       <c r="D169">
-        <v>121.564237</v>
+        <v>121.617199</v>
       </c>
       <c r="E169">
-        <v>31.2454</v>
+        <v>31.130439</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -4656,13 +4794,13 @@
         <v>1</v>
       </c>
       <c r="C170" t="s">
-        <v>413</v>
+        <v>428</v>
       </c>
       <c r="D170">
-        <v>121.761677</v>
+        <v>121.567342</v>
       </c>
       <c r="E170">
-        <v>31.053828</v>
+        <v>31.134504</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -4673,13 +4811,13 @@
         <v>1</v>
       </c>
       <c r="C171" t="s">
-        <v>413</v>
+        <v>438</v>
       </c>
       <c r="D171">
-        <v>121.7938</v>
+        <v>121.534941</v>
       </c>
       <c r="E171">
-        <v>31.026448</v>
+        <v>31.288543</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -4690,13 +4828,13 @@
         <v>2</v>
       </c>
       <c r="C172" t="s">
-        <v>430</v>
+        <v>441</v>
       </c>
       <c r="D172">
-        <v>121.49622</v>
+        <v>121.417062</v>
       </c>
       <c r="E172">
-        <v>31.170735</v>
+        <v>31.209616</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -4707,13 +4845,13 @@
         <v>1</v>
       </c>
       <c r="C173" t="s">
-        <v>386</v>
+        <v>429</v>
       </c>
       <c r="D173">
-        <v>121.468681</v>
+        <v>121.455329</v>
       </c>
       <c r="E173">
-        <v>31.206309</v>
+        <v>31.271675</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -4724,13 +4862,13 @@
         <v>1</v>
       </c>
       <c r="C174" t="s">
-        <v>387</v>
+        <v>433</v>
       </c>
       <c r="D174">
-        <v>121.506801</v>
+        <v>121.498671</v>
       </c>
       <c r="E174">
-        <v>31.253518</v>
+        <v>31.358016</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -4741,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="C175" t="s">
-        <v>405</v>
+        <v>430</v>
       </c>
       <c r="D175">
-        <v>121.380775</v>
+        <v>121.629182</v>
       </c>
       <c r="E175">
-        <v>31.003597</v>
+        <v>31.18913</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -4758,13 +4896,13 @@
         <v>1</v>
       </c>
       <c r="C176" t="s">
-        <v>413</v>
+        <v>426</v>
       </c>
       <c r="D176">
-        <v>121.64898</v>
+        <v>121.587687</v>
       </c>
       <c r="E176">
-        <v>31.045561</v>
+        <v>31.201832</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -4772,16 +4910,16 @@
         <v>180</v>
       </c>
       <c r="B177">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C177" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="D177">
-        <v>121.475182</v>
+        <v>121.448642</v>
       </c>
       <c r="E177">
-        <v>31.216367</v>
+        <v>31.306604</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -4789,16 +4927,16 @@
         <v>181</v>
       </c>
       <c r="B178">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C178" t="s">
-        <v>392</v>
+        <v>461</v>
       </c>
       <c r="D178">
-        <v>121.422682</v>
+        <v>121.436837</v>
       </c>
       <c r="E178">
-        <v>31.263952</v>
+        <v>31.195338</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -4809,13 +4947,13 @@
         <v>1</v>
       </c>
       <c r="C179" t="s">
-        <v>389</v>
+        <v>426</v>
       </c>
       <c r="D179">
-        <v>121.506951</v>
+        <v>121.299204</v>
       </c>
       <c r="E179">
-        <v>31.328496</v>
+        <v>31.188367</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -4826,13 +4964,13 @@
         <v>1</v>
       </c>
       <c r="C180" t="s">
-        <v>399</v>
+        <v>436</v>
       </c>
       <c r="D180">
-        <v>121.468151</v>
+        <v>121.241668</v>
       </c>
       <c r="E180">
-        <v>31.238373</v>
+        <v>31.175518</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -4843,13 +4981,13 @@
         <v>1</v>
       </c>
       <c r="C181" t="s">
-        <v>388</v>
+        <v>436</v>
       </c>
       <c r="D181">
-        <v>121.200384</v>
+        <v>121.253976</v>
       </c>
       <c r="E181">
-        <v>31.29362</v>
+        <v>31.178101</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -4857,16 +4995,16 @@
         <v>185</v>
       </c>
       <c r="B182">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C182" t="s">
-        <v>392</v>
+        <v>462</v>
       </c>
       <c r="D182">
-        <v>121.442617</v>
+        <v>121.570914</v>
       </c>
       <c r="E182">
-        <v>31.233749</v>
+        <v>31.158131</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -4877,13 +5015,13 @@
         <v>1</v>
       </c>
       <c r="C183" t="s">
-        <v>386</v>
+        <v>420</v>
       </c>
       <c r="D183">
-        <v>121.368903</v>
+        <v>121.564237</v>
       </c>
       <c r="E183">
-        <v>31.158109</v>
+        <v>31.2454</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -4894,13 +5032,13 @@
         <v>1</v>
       </c>
       <c r="C184" t="s">
-        <v>405</v>
+        <v>443</v>
       </c>
       <c r="D184">
-        <v>121.385818</v>
+        <v>121.761677</v>
       </c>
       <c r="E184">
-        <v>31.09825</v>
+        <v>31.053828</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -4911,13 +5049,13 @@
         <v>1</v>
       </c>
       <c r="C185" t="s">
-        <v>412</v>
+        <v>443</v>
       </c>
       <c r="D185">
-        <v>121.41876</v>
+        <v>121.7938</v>
       </c>
       <c r="E185">
-        <v>31.099727</v>
+        <v>31.026448</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -4925,16 +5063,16 @@
         <v>189</v>
       </c>
       <c r="B186">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C186" t="s">
-        <v>412</v>
+        <v>463</v>
       </c>
       <c r="D186">
-        <v>121.417897</v>
+        <v>121.49622</v>
       </c>
       <c r="E186">
-        <v>31.090625</v>
+        <v>31.170735</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -4942,16 +5080,16 @@
         <v>190</v>
       </c>
       <c r="B187">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C187" t="s">
-        <v>432</v>
+        <v>415</v>
       </c>
       <c r="D187">
-        <v>121.471543</v>
+        <v>121.468681</v>
       </c>
       <c r="E187">
-        <v>31.242307</v>
+        <v>31.206309</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -4962,13 +5100,13 @@
         <v>1</v>
       </c>
       <c r="C188" t="s">
-        <v>409</v>
+        <v>428</v>
       </c>
       <c r="D188">
-        <v>121.491138</v>
+        <v>121.515793</v>
       </c>
       <c r="E188">
-        <v>31.276524</v>
+        <v>31.283664</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -4976,16 +5114,16 @@
         <v>192</v>
       </c>
       <c r="B189">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C189" t="s">
-        <v>433</v>
+        <v>416</v>
       </c>
       <c r="D189">
-        <v>121.417701</v>
+        <v>121.506801</v>
       </c>
       <c r="E189">
-        <v>31.239302</v>
+        <v>31.253518</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -4996,13 +5134,13 @@
         <v>1</v>
       </c>
       <c r="C190" t="s">
-        <v>386</v>
+        <v>434</v>
       </c>
       <c r="D190">
-        <v>121.683046</v>
+        <v>121.380775</v>
       </c>
       <c r="E190">
-        <v>31.271272</v>
+        <v>31.003597</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -5013,13 +5151,13 @@
         <v>1</v>
       </c>
       <c r="C191" t="s">
-        <v>405</v>
+        <v>443</v>
       </c>
       <c r="D191">
-        <v>121.48358</v>
+        <v>121.64898</v>
       </c>
       <c r="E191">
-        <v>30.93194</v>
+        <v>31.045561</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -5030,13 +5168,13 @@
         <v>1</v>
       </c>
       <c r="C192" t="s">
-        <v>407</v>
+        <v>421</v>
       </c>
       <c r="D192">
-        <v>121.048989</v>
+        <v>121.422682</v>
       </c>
       <c r="E192">
-        <v>31.100594</v>
+        <v>31.263952</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -5047,13 +5185,13 @@
         <v>1</v>
       </c>
       <c r="C193" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="D193">
-        <v>121.437804</v>
+        <v>121.506951</v>
       </c>
       <c r="E193">
-        <v>31.124364</v>
+        <v>31.328496</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -5064,13 +5202,13 @@
         <v>1</v>
       </c>
       <c r="C194" t="s">
-        <v>388</v>
+        <v>429</v>
       </c>
       <c r="D194">
-        <v>121.389969</v>
+        <v>121.468151</v>
       </c>
       <c r="E194">
-        <v>31.26902</v>
+        <v>31.238373</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -5081,13 +5219,13 @@
         <v>1</v>
       </c>
       <c r="C195" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="D195">
-        <v>121.493443</v>
+        <v>121.200384</v>
       </c>
       <c r="E195">
-        <v>31.161054</v>
+        <v>31.29362</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -5098,13 +5236,13 @@
         <v>1</v>
       </c>
       <c r="C196" t="s">
-        <v>393</v>
+        <v>421</v>
       </c>
       <c r="D196">
-        <v>121.51721</v>
+        <v>121.442617</v>
       </c>
       <c r="E196">
-        <v>31.251935</v>
+        <v>31.233749</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -5112,16 +5250,16 @@
         <v>200</v>
       </c>
       <c r="B197">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C197" t="s">
-        <v>386</v>
+        <v>464</v>
       </c>
       <c r="D197">
-        <v>121.548664</v>
+        <v>121.540104</v>
       </c>
       <c r="E197">
-        <v>31.22751</v>
+        <v>31.24394</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -5132,13 +5270,13 @@
         <v>1</v>
       </c>
       <c r="C198" t="s">
-        <v>387</v>
+        <v>415</v>
       </c>
       <c r="D198">
-        <v>121.60296</v>
+        <v>121.368903</v>
       </c>
       <c r="E198">
-        <v>31.280092</v>
+        <v>31.158109</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -5149,13 +5287,13 @@
         <v>1</v>
       </c>
       <c r="C199" t="s">
-        <v>392</v>
+        <v>434</v>
       </c>
       <c r="D199">
-        <v>121.525087</v>
+        <v>121.385818</v>
       </c>
       <c r="E199">
-        <v>31.187566</v>
+        <v>31.09825</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -5166,13 +5304,13 @@
         <v>1</v>
       </c>
       <c r="C200" t="s">
-        <v>386</v>
+        <v>442</v>
       </c>
       <c r="D200">
-        <v>121.230504</v>
+        <v>121.41876</v>
       </c>
       <c r="E200">
-        <v>31.016038</v>
+        <v>31.099727</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -5183,13 +5321,13 @@
         <v>1</v>
       </c>
       <c r="C201" t="s">
-        <v>386</v>
+        <v>442</v>
       </c>
       <c r="D201">
-        <v>121.230884</v>
+        <v>121.417897</v>
       </c>
       <c r="E201">
-        <v>30.984818</v>
+        <v>31.090625</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -5197,16 +5335,16 @@
         <v>205</v>
       </c>
       <c r="B202">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C202" t="s">
-        <v>386</v>
+        <v>465</v>
       </c>
       <c r="D202">
-        <v>121.232577</v>
+        <v>121.471543</v>
       </c>
       <c r="E202">
-        <v>31.053984</v>
+        <v>31.242307</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -5217,13 +5355,13 @@
         <v>1</v>
       </c>
       <c r="C203" t="s">
-        <v>386</v>
+        <v>438</v>
       </c>
       <c r="D203">
-        <v>121.230739</v>
+        <v>121.491138</v>
       </c>
       <c r="E203">
-        <v>31.030295</v>
+        <v>31.276524</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -5231,16 +5369,16 @@
         <v>207</v>
       </c>
       <c r="B204">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C204" t="s">
-        <v>388</v>
+        <v>466</v>
       </c>
       <c r="D204">
-        <v>121.411402</v>
+        <v>121.417701</v>
       </c>
       <c r="E204">
-        <v>31.24185</v>
+        <v>31.239302</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -5248,16 +5386,16 @@
         <v>208</v>
       </c>
       <c r="B205">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C205" t="s">
-        <v>434</v>
+        <v>415</v>
       </c>
       <c r="D205">
-        <v>121.419654</v>
+        <v>121.683046</v>
       </c>
       <c r="E205">
-        <v>31.166986</v>
+        <v>31.271272</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -5265,16 +5403,16 @@
         <v>209</v>
       </c>
       <c r="B206">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C206" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D206">
-        <v>121.418064</v>
+        <v>121.48358</v>
       </c>
       <c r="E206">
-        <v>31.174791</v>
+        <v>30.93194</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -5285,13 +5423,13 @@
         <v>1</v>
       </c>
       <c r="C207" t="s">
-        <v>388</v>
+        <v>436</v>
       </c>
       <c r="D207">
-        <v>121.349623</v>
+        <v>121.048989</v>
       </c>
       <c r="E207">
-        <v>31.281603</v>
+        <v>31.100594</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -5302,13 +5440,13 @@
         <v>1</v>
       </c>
       <c r="C208" t="s">
-        <v>412</v>
+        <v>442</v>
       </c>
       <c r="D208">
-        <v>121.39697</v>
+        <v>121.437804</v>
       </c>
       <c r="E208">
-        <v>31.242948</v>
+        <v>31.124364</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -5319,13 +5457,13 @@
         <v>1</v>
       </c>
       <c r="C209" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="D209">
-        <v>121.391307</v>
+        <v>121.389969</v>
       </c>
       <c r="E209">
-        <v>31.275685</v>
+        <v>31.26902</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -5336,13 +5474,13 @@
         <v>1</v>
       </c>
       <c r="C210" t="s">
-        <v>388</v>
+        <v>438</v>
       </c>
       <c r="D210">
-        <v>121.364678</v>
+        <v>121.493443</v>
       </c>
       <c r="E210">
-        <v>31.276646</v>
+        <v>31.161054</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -5353,13 +5491,13 @@
         <v>1</v>
       </c>
       <c r="C211" t="s">
-        <v>400</v>
+        <v>422</v>
       </c>
       <c r="D211">
-        <v>121.430504</v>
+        <v>121.51721</v>
       </c>
       <c r="E211">
-        <v>31.234346</v>
+        <v>31.251935</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -5367,16 +5505,16 @@
         <v>215</v>
       </c>
       <c r="B212">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C212" t="s">
-        <v>389</v>
+        <v>467</v>
       </c>
       <c r="D212">
-        <v>121.506797</v>
+        <v>121.548664</v>
       </c>
       <c r="E212">
-        <v>31.321768</v>
+        <v>31.22751</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -5387,13 +5525,13 @@
         <v>1</v>
       </c>
       <c r="C213" t="s">
-        <v>404</v>
+        <v>416</v>
       </c>
       <c r="D213">
-        <v>121.484856</v>
+        <v>121.60296</v>
       </c>
       <c r="E213">
-        <v>31.320005</v>
+        <v>31.280092</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -5404,13 +5542,13 @@
         <v>1</v>
       </c>
       <c r="C214" t="s">
-        <v>391</v>
+        <v>421</v>
       </c>
       <c r="D214">
-        <v>121.543527</v>
+        <v>121.525087</v>
       </c>
       <c r="E214">
-        <v>31.235851</v>
+        <v>31.187566</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -5421,13 +5559,13 @@
         <v>1</v>
       </c>
       <c r="C215" t="s">
-        <v>386</v>
+        <v>415</v>
       </c>
       <c r="D215">
-        <v>121.668125</v>
+        <v>121.230504</v>
       </c>
       <c r="E215">
-        <v>31.268335</v>
+        <v>31.016038</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -5438,13 +5576,13 @@
         <v>1</v>
       </c>
       <c r="C216" t="s">
-        <v>404</v>
+        <v>415</v>
       </c>
       <c r="D216">
-        <v>121.488247</v>
+        <v>121.230884</v>
       </c>
       <c r="E216">
-        <v>31.381302</v>
+        <v>30.984818</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -5455,13 +5593,13 @@
         <v>1</v>
       </c>
       <c r="C217" t="s">
-        <v>389</v>
+        <v>415</v>
       </c>
       <c r="D217">
-        <v>121.392259</v>
+        <v>121.232577</v>
       </c>
       <c r="E217">
-        <v>31.199482</v>
+        <v>31.053984</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -5472,13 +5610,13 @@
         <v>1</v>
       </c>
       <c r="C218" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="D218">
-        <v>121.443203</v>
+        <v>121.230739</v>
       </c>
       <c r="E218">
-        <v>31.039147</v>
+        <v>31.030295</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -5489,13 +5627,13 @@
         <v>1</v>
       </c>
       <c r="C219" t="s">
-        <v>390</v>
+        <v>417</v>
       </c>
       <c r="D219">
-        <v>121.524558</v>
+        <v>121.411402</v>
       </c>
       <c r="E219">
-        <v>31.025245</v>
+        <v>31.24185</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -5503,16 +5641,16 @@
         <v>223</v>
       </c>
       <c r="B220">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C220" t="s">
-        <v>407</v>
+        <v>468</v>
       </c>
       <c r="D220">
-        <v>121.151665</v>
+        <v>121.419654</v>
       </c>
       <c r="E220">
-        <v>31.161221</v>
+        <v>31.166986</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -5520,16 +5658,16 @@
         <v>224</v>
       </c>
       <c r="B221">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C221" t="s">
-        <v>436</v>
+        <v>469</v>
       </c>
       <c r="D221">
-        <v>121.458699</v>
+        <v>121.418064</v>
       </c>
       <c r="E221">
-        <v>31.241883</v>
+        <v>31.174791</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -5540,13 +5678,13 @@
         <v>1</v>
       </c>
       <c r="C222" t="s">
-        <v>400</v>
+        <v>439</v>
       </c>
       <c r="D222">
-        <v>121.44483</v>
+        <v>121.635028</v>
       </c>
       <c r="E222">
-        <v>31.244282</v>
+        <v>31.249967</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -5557,13 +5695,13 @@
         <v>1</v>
       </c>
       <c r="C223" t="s">
-        <v>405</v>
+        <v>417</v>
       </c>
       <c r="D223">
-        <v>121.423474</v>
+        <v>121.349623</v>
       </c>
       <c r="E223">
-        <v>31.005428</v>
+        <v>31.281603</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -5574,13 +5712,13 @@
         <v>1</v>
       </c>
       <c r="C224" t="s">
-        <v>409</v>
+        <v>442</v>
       </c>
       <c r="D224">
-        <v>121.508603</v>
+        <v>121.39697</v>
       </c>
       <c r="E224">
-        <v>31.084253</v>
+        <v>31.242948</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -5591,13 +5729,13 @@
         <v>1</v>
       </c>
       <c r="C225" t="s">
-        <v>404</v>
+        <v>439</v>
       </c>
       <c r="D225">
-        <v>121.439819</v>
+        <v>121.551356</v>
       </c>
       <c r="E225">
-        <v>31.407858</v>
+        <v>31.250569</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -5608,13 +5746,13 @@
         <v>1</v>
       </c>
       <c r="C226" t="s">
-        <v>387</v>
+        <v>442</v>
       </c>
       <c r="D226">
-        <v>121.523697</v>
+        <v>121.391307</v>
       </c>
       <c r="E226">
-        <v>31.26457</v>
+        <v>31.275685</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -5625,13 +5763,13 @@
         <v>1</v>
       </c>
       <c r="C227" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="D227">
-        <v>121.518379</v>
+        <v>121.364678</v>
       </c>
       <c r="E227">
-        <v>31.274946</v>
+        <v>31.276646</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -5639,16 +5777,16 @@
         <v>231</v>
       </c>
       <c r="B228">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C228" t="s">
-        <v>389</v>
+        <v>470</v>
       </c>
       <c r="D228">
-        <v>121.513314</v>
+        <v>121.430504</v>
       </c>
       <c r="E228">
-        <v>31.304293</v>
+        <v>31.234346</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -5659,13 +5797,13 @@
         <v>1</v>
       </c>
       <c r="C229" t="s">
-        <v>404</v>
+        <v>439</v>
       </c>
       <c r="D229">
-        <v>121.485064</v>
+        <v>121.436535</v>
       </c>
       <c r="E229">
-        <v>31.305566</v>
+        <v>31.226966</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -5673,16 +5811,16 @@
         <v>233</v>
       </c>
       <c r="B230">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C230" t="s">
-        <v>437</v>
+        <v>418</v>
       </c>
       <c r="D230">
-        <v>121.430642</v>
+        <v>121.506797</v>
       </c>
       <c r="E230">
-        <v>31.220411</v>
+        <v>31.321768</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -5693,13 +5831,13 @@
         <v>1</v>
       </c>
       <c r="C231" t="s">
-        <v>399</v>
+        <v>433</v>
       </c>
       <c r="D231">
-        <v>121.450251</v>
+        <v>121.484856</v>
       </c>
       <c r="E231">
-        <v>31.292556</v>
+        <v>31.320005</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -5707,16 +5845,16 @@
         <v>235</v>
       </c>
       <c r="B232">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C232" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="D232">
-        <v>121.512272</v>
+        <v>121.49556</v>
       </c>
       <c r="E232">
-        <v>31.061427</v>
+        <v>31.321705</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -5724,16 +5862,16 @@
         <v>236</v>
       </c>
       <c r="B233">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C233" t="s">
-        <v>401</v>
+        <v>471</v>
       </c>
       <c r="D233">
-        <v>121.580094</v>
+        <v>121.543527</v>
       </c>
       <c r="E233">
-        <v>31.091457</v>
+        <v>31.235851</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -5744,13 +5882,13 @@
         <v>1</v>
       </c>
       <c r="C234" t="s">
-        <v>386</v>
+        <v>415</v>
       </c>
       <c r="D234">
-        <v>121.260247</v>
+        <v>121.668125</v>
       </c>
       <c r="E234">
-        <v>31.118272</v>
+        <v>31.268335</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -5761,13 +5899,13 @@
         <v>1</v>
       </c>
       <c r="C235" t="s">
-        <v>386</v>
+        <v>433</v>
       </c>
       <c r="D235">
-        <v>121.230473</v>
+        <v>121.488247</v>
       </c>
       <c r="E235">
-        <v>31.084492</v>
+        <v>31.381302</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -5778,13 +5916,13 @@
         <v>1</v>
       </c>
       <c r="C236" t="s">
-        <v>391</v>
+        <v>418</v>
       </c>
       <c r="D236">
-        <v>121.589396</v>
+        <v>121.392259</v>
       </c>
       <c r="E236">
-        <v>31.312229</v>
+        <v>31.199482</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -5795,13 +5933,13 @@
         <v>1</v>
       </c>
       <c r="C237" t="s">
-        <v>388</v>
+        <v>442</v>
       </c>
       <c r="D237">
-        <v>121.539005</v>
+        <v>121.443203</v>
       </c>
       <c r="E237">
-        <v>31.150861</v>
+        <v>31.039147</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -5809,16 +5947,16 @@
         <v>241</v>
       </c>
       <c r="B238">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C238" t="s">
-        <v>439</v>
+        <v>419</v>
       </c>
       <c r="D238">
-        <v>121.805591</v>
+        <v>121.524558</v>
       </c>
       <c r="E238">
-        <v>31.150958</v>
+        <v>31.025245</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -5829,13 +5967,13 @@
         <v>1</v>
       </c>
       <c r="C239" t="s">
-        <v>393</v>
+        <v>436</v>
       </c>
       <c r="D239">
-        <v>121.519385</v>
+        <v>121.151665</v>
       </c>
       <c r="E239">
-        <v>31.239974</v>
+        <v>31.161221</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -5843,16 +5981,16 @@
         <v>243</v>
       </c>
       <c r="B240">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C240" t="s">
-        <v>409</v>
+        <v>472</v>
       </c>
       <c r="D240">
-        <v>121.506272</v>
+        <v>121.458699</v>
       </c>
       <c r="E240">
-        <v>31.09659</v>
+        <v>31.241883</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -5863,13 +6001,13 @@
         <v>1</v>
       </c>
       <c r="C241" t="s">
-        <v>393</v>
+        <v>430</v>
       </c>
       <c r="D241">
-        <v>121.53208</v>
+        <v>121.44483</v>
       </c>
       <c r="E241">
-        <v>31.222285</v>
+        <v>31.244282</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -5880,13 +6018,13 @@
         <v>1</v>
       </c>
       <c r="C242" t="s">
-        <v>391</v>
+        <v>434</v>
       </c>
       <c r="D242">
-        <v>121.529122</v>
+        <v>121.423474</v>
       </c>
       <c r="E242">
-        <v>31.220104</v>
+        <v>31.005428</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -5897,13 +6035,13 @@
         <v>1</v>
       </c>
       <c r="C243" t="s">
-        <v>390</v>
+        <v>438</v>
       </c>
       <c r="D243">
-        <v>121.530591</v>
+        <v>121.508603</v>
       </c>
       <c r="E243">
-        <v>31.040993</v>
+        <v>31.084253</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -5911,16 +6049,16 @@
         <v>247</v>
       </c>
       <c r="B244">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C244" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="D244">
-        <v>121.488697</v>
+        <v>121.439819</v>
       </c>
       <c r="E244">
-        <v>31.259303</v>
+        <v>31.407858</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -5928,16 +6066,16 @@
         <v>248</v>
       </c>
       <c r="B245">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C245" t="s">
-        <v>397</v>
+        <v>473</v>
       </c>
       <c r="D245">
-        <v>121.796878</v>
+        <v>121.523697</v>
       </c>
       <c r="E245">
-        <v>31.168459</v>
+        <v>31.26457</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -5945,16 +6083,16 @@
         <v>249</v>
       </c>
       <c r="B246">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C246" t="s">
-        <v>407</v>
+        <v>474</v>
       </c>
       <c r="D246">
-        <v>121.082134</v>
+        <v>121.518379</v>
       </c>
       <c r="E246">
-        <v>31.13446</v>
+        <v>31.274946</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -5965,13 +6103,13 @@
         <v>1</v>
       </c>
       <c r="C247" t="s">
-        <v>404</v>
+        <v>418</v>
       </c>
       <c r="D247">
-        <v>121.50039</v>
+        <v>121.513314</v>
       </c>
       <c r="E247">
-        <v>31.345135</v>
+        <v>31.304293</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -5982,13 +6120,13 @@
         <v>1</v>
       </c>
       <c r="C248" t="s">
-        <v>404</v>
+        <v>433</v>
       </c>
       <c r="D248">
-        <v>121.492818</v>
+        <v>121.485064</v>
       </c>
       <c r="E248">
-        <v>31.370928</v>
+        <v>31.305566</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -5996,16 +6134,16 @@
         <v>252</v>
       </c>
       <c r="B249">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C249" t="s">
-        <v>397</v>
+        <v>475</v>
       </c>
       <c r="D249">
-        <v>121.359588</v>
+        <v>121.430642</v>
       </c>
       <c r="E249">
-        <v>31.218212</v>
+        <v>31.220411</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -6016,13 +6154,13 @@
         <v>1</v>
       </c>
       <c r="C250" t="s">
-        <v>400</v>
+        <v>429</v>
       </c>
       <c r="D250">
-        <v>121.464514</v>
+        <v>121.450251</v>
       </c>
       <c r="E250">
-        <v>31.22028</v>
+        <v>31.292556</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -6033,13 +6171,13 @@
         <v>2</v>
       </c>
       <c r="C251" t="s">
-        <v>441</v>
+        <v>476</v>
       </c>
       <c r="D251">
-        <v>121.574752</v>
+        <v>121.512272</v>
       </c>
       <c r="E251">
-        <v>31.353005</v>
+        <v>31.061427</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -6050,13 +6188,13 @@
         <v>1</v>
       </c>
       <c r="C252" t="s">
-        <v>391</v>
+        <v>428</v>
       </c>
       <c r="D252">
-        <v>121.534642</v>
+        <v>121.580094</v>
       </c>
       <c r="E252">
-        <v>31.233004</v>
+        <v>31.091457</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -6067,13 +6205,13 @@
         <v>1</v>
       </c>
       <c r="C253" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="D253">
-        <v>121.929583</v>
+        <v>121.260247</v>
       </c>
       <c r="E253">
-        <v>30.907245</v>
+        <v>31.118272</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -6081,16 +6219,16 @@
         <v>257</v>
       </c>
       <c r="B254">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C254" t="s">
-        <v>442</v>
+        <v>415</v>
       </c>
       <c r="D254">
-        <v>121.433143</v>
+        <v>121.230473</v>
       </c>
       <c r="E254">
-        <v>31.168344</v>
+        <v>31.084492</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -6101,13 +6239,13 @@
         <v>1</v>
       </c>
       <c r="C255" t="s">
-        <v>386</v>
+        <v>420</v>
       </c>
       <c r="D255">
-        <v>121.397769</v>
+        <v>121.589396</v>
       </c>
       <c r="E255">
-        <v>31.170644</v>
+        <v>31.312229</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -6118,13 +6256,13 @@
         <v>1</v>
       </c>
       <c r="C256" t="s">
-        <v>404</v>
+        <v>417</v>
       </c>
       <c r="D256">
-        <v>121.43841</v>
+        <v>121.539005</v>
       </c>
       <c r="E256">
-        <v>31.176746</v>
+        <v>31.150861</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -6135,13 +6273,13 @@
         <v>1</v>
       </c>
       <c r="C257" t="s">
-        <v>407</v>
+        <v>439</v>
       </c>
       <c r="D257">
-        <v>121.096889</v>
+        <v>121.512412</v>
       </c>
       <c r="E257">
-        <v>31.160467</v>
+        <v>31.238532</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -6149,16 +6287,16 @@
         <v>261</v>
       </c>
       <c r="B258">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C258" t="s">
-        <v>392</v>
+        <v>477</v>
       </c>
       <c r="D258">
-        <v>121.355845</v>
+        <v>121.805591</v>
       </c>
       <c r="E258">
-        <v>31.364182</v>
+        <v>31.150958</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -6166,16 +6304,16 @@
         <v>262</v>
       </c>
       <c r="B259">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C259" t="s">
-        <v>391</v>
+        <v>478</v>
       </c>
       <c r="D259">
-        <v>121.495295</v>
+        <v>121.519302</v>
       </c>
       <c r="E259">
-        <v>31.148665</v>
+        <v>31.240308</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -6186,13 +6324,13 @@
         <v>1</v>
       </c>
       <c r="C260" t="s">
-        <v>387</v>
+        <v>439</v>
       </c>
       <c r="D260">
-        <v>121.552655</v>
+        <v>121.61543</v>
       </c>
       <c r="E260">
-        <v>31.279788</v>
+        <v>31.241645</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -6203,13 +6341,13 @@
         <v>1</v>
       </c>
       <c r="C261" t="s">
-        <v>405</v>
+        <v>438</v>
       </c>
       <c r="D261">
-        <v>121.463204</v>
+        <v>121.506272</v>
       </c>
       <c r="E261">
-        <v>30.931168</v>
+        <v>31.09659</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -6220,13 +6358,13 @@
         <v>1</v>
       </c>
       <c r="C262" t="s">
-        <v>387</v>
+        <v>422</v>
       </c>
       <c r="D262">
-        <v>121.626863</v>
+        <v>121.53208</v>
       </c>
       <c r="E262">
-        <v>31.280231</v>
+        <v>31.222285</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -6237,13 +6375,13 @@
         <v>1</v>
       </c>
       <c r="C263" t="s">
-        <v>388</v>
+        <v>420</v>
       </c>
       <c r="D263">
-        <v>121.24535</v>
+        <v>121.529122</v>
       </c>
       <c r="E263">
-        <v>31.345359</v>
+        <v>31.220104</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -6254,13 +6392,13 @@
         <v>1</v>
       </c>
       <c r="C264" t="s">
-        <v>400</v>
+        <v>419</v>
       </c>
       <c r="D264">
-        <v>121.381946</v>
+        <v>121.530591</v>
       </c>
       <c r="E264">
-        <v>31.232243</v>
+        <v>31.040993</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -6268,16 +6406,16 @@
         <v>268</v>
       </c>
       <c r="B265">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C265" t="s">
-        <v>388</v>
+        <v>479</v>
       </c>
       <c r="D265">
-        <v>121.407219</v>
+        <v>121.488697</v>
       </c>
       <c r="E265">
-        <v>31.250767</v>
+        <v>31.259303</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -6288,13 +6426,13 @@
         <v>1</v>
       </c>
       <c r="C266" t="s">
-        <v>404</v>
+        <v>426</v>
       </c>
       <c r="D266">
-        <v>121.443205</v>
+        <v>121.796878</v>
       </c>
       <c r="E266">
-        <v>31.157949</v>
+        <v>31.168459</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -6305,13 +6443,13 @@
         <v>1</v>
       </c>
       <c r="C267" t="s">
-        <v>392</v>
+        <v>436</v>
       </c>
       <c r="D267">
-        <v>121.373569</v>
+        <v>121.082134</v>
       </c>
       <c r="E267">
-        <v>31.322315</v>
+        <v>31.13446</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -6322,13 +6460,13 @@
         <v>1</v>
       </c>
       <c r="C268" t="s">
-        <v>412</v>
+        <v>433</v>
       </c>
       <c r="D268">
-        <v>121.38488</v>
+        <v>121.50039</v>
       </c>
       <c r="E268">
-        <v>31.291527</v>
+        <v>31.345135</v>
       </c>
     </row>
     <row r="269" spans="1:5">
@@ -6339,13 +6477,13 @@
         <v>1</v>
       </c>
       <c r="C269" t="s">
-        <v>400</v>
+        <v>433</v>
       </c>
       <c r="D269">
-        <v>121.367275</v>
+        <v>121.492818</v>
       </c>
       <c r="E269">
-        <v>31.237625</v>
+        <v>31.370928</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -6356,13 +6494,13 @@
         <v>1</v>
       </c>
       <c r="C270" t="s">
-        <v>388</v>
+        <v>426</v>
       </c>
       <c r="D270">
-        <v>121.376035</v>
+        <v>121.359588</v>
       </c>
       <c r="E270">
-        <v>31.27165</v>
+        <v>31.218212</v>
       </c>
     </row>
     <row r="271" spans="1:5">
@@ -6373,13 +6511,13 @@
         <v>1</v>
       </c>
       <c r="C271" t="s">
-        <v>388</v>
+        <v>430</v>
       </c>
       <c r="D271">
-        <v>121.59839</v>
+        <v>121.464514</v>
       </c>
       <c r="E271">
-        <v>31.138128</v>
+        <v>31.22028</v>
       </c>
     </row>
     <row r="272" spans="1:5">
@@ -6387,16 +6525,16 @@
         <v>275</v>
       </c>
       <c r="B272">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C272" t="s">
-        <v>412</v>
+        <v>480</v>
       </c>
       <c r="D272">
-        <v>121.451012</v>
+        <v>121.574752</v>
       </c>
       <c r="E272">
-        <v>31.023661</v>
+        <v>31.353005</v>
       </c>
     </row>
     <row r="273" spans="1:5">
@@ -6407,13 +6545,13 @@
         <v>1</v>
       </c>
       <c r="C273" t="s">
-        <v>389</v>
+        <v>420</v>
       </c>
       <c r="D273">
-        <v>121.364831</v>
+        <v>121.534642</v>
       </c>
       <c r="E273">
-        <v>31.169674</v>
+        <v>31.233004</v>
       </c>
     </row>
     <row r="274" spans="1:5">
@@ -6424,13 +6562,13 @@
         <v>1</v>
       </c>
       <c r="C274" t="s">
-        <v>401</v>
+        <v>439</v>
       </c>
       <c r="D274">
-        <v>121.570547</v>
+        <v>121.531016</v>
       </c>
       <c r="E274">
-        <v>31.102554</v>
+        <v>31.241318</v>
       </c>
     </row>
     <row r="275" spans="1:5">
@@ -6441,13 +6579,13 @@
         <v>1</v>
       </c>
       <c r="C275" t="s">
-        <v>412</v>
+        <v>443</v>
       </c>
       <c r="D275">
-        <v>121.398344</v>
+        <v>121.929583</v>
       </c>
       <c r="E275">
-        <v>31.198685</v>
+        <v>30.907245</v>
       </c>
     </row>
     <row r="276" spans="1:5">
@@ -6455,16 +6593,16 @@
         <v>279</v>
       </c>
       <c r="B276">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C276" t="s">
-        <v>392</v>
+        <v>481</v>
       </c>
       <c r="D276">
-        <v>121.35747</v>
+        <v>121.433143</v>
       </c>
       <c r="E276">
-        <v>31.388831</v>
+        <v>31.168344</v>
       </c>
     </row>
     <row r="277" spans="1:5">
@@ -6472,16 +6610,16 @@
         <v>280</v>
       </c>
       <c r="B277">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C277" t="s">
-        <v>443</v>
+        <v>415</v>
       </c>
       <c r="D277">
-        <v>121.593152</v>
+        <v>121.397769</v>
       </c>
       <c r="E277">
-        <v>31.153259</v>
+        <v>31.170644</v>
       </c>
     </row>
     <row r="278" spans="1:5">
@@ -6492,13 +6630,13 @@
         <v>1</v>
       </c>
       <c r="C278" t="s">
-        <v>412</v>
+        <v>433</v>
       </c>
       <c r="D278">
-        <v>121.435806</v>
+        <v>121.43841</v>
       </c>
       <c r="E278">
-        <v>31.131552</v>
+        <v>31.176746</v>
       </c>
     </row>
     <row r="279" spans="1:5">
@@ -6509,13 +6647,13 @@
         <v>1</v>
       </c>
       <c r="C279" t="s">
-        <v>392</v>
+        <v>436</v>
       </c>
       <c r="D279">
-        <v>121.349966</v>
+        <v>121.096889</v>
       </c>
       <c r="E279">
-        <v>31.401949</v>
+        <v>31.160467</v>
       </c>
     </row>
     <row r="280" spans="1:5">
@@ -6526,13 +6664,13 @@
         <v>1</v>
       </c>
       <c r="C280" t="s">
-        <v>409</v>
+        <v>421</v>
       </c>
       <c r="D280">
-        <v>121.531974</v>
+        <v>121.355845</v>
       </c>
       <c r="E280">
-        <v>31.305002</v>
+        <v>31.364182</v>
       </c>
     </row>
     <row r="281" spans="1:5">
@@ -6540,16 +6678,16 @@
         <v>284</v>
       </c>
       <c r="B281">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C281" t="s">
-        <v>444</v>
+        <v>420</v>
       </c>
       <c r="D281">
-        <v>121.494612</v>
+        <v>121.495295</v>
       </c>
       <c r="E281">
-        <v>31.178513</v>
+        <v>31.148665</v>
       </c>
     </row>
     <row r="282" spans="1:5">
@@ -6557,16 +6695,16 @@
         <v>285</v>
       </c>
       <c r="B282">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C282" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="D282">
-        <v>121.483793</v>
+        <v>121.552655</v>
       </c>
       <c r="E282">
-        <v>31.219014</v>
+        <v>31.279788</v>
       </c>
     </row>
     <row r="283" spans="1:5">
@@ -6577,13 +6715,13 @@
         <v>1</v>
       </c>
       <c r="C283" t="s">
-        <v>409</v>
+        <v>434</v>
       </c>
       <c r="D283">
-        <v>121.510594</v>
+        <v>121.463204</v>
       </c>
       <c r="E283">
-        <v>31.073567</v>
+        <v>30.931168</v>
       </c>
     </row>
     <row r="284" spans="1:5">
@@ -6591,16 +6729,16 @@
         <v>287</v>
       </c>
       <c r="B284">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C284" t="s">
-        <v>445</v>
+        <v>416</v>
       </c>
       <c r="D284">
-        <v>121.450212</v>
+        <v>121.626863</v>
       </c>
       <c r="E284">
-        <v>31.199436</v>
+        <v>31.280231</v>
       </c>
     </row>
     <row r="285" spans="1:5">
@@ -6611,13 +6749,13 @@
         <v>1</v>
       </c>
       <c r="C285" t="s">
-        <v>400</v>
+        <v>417</v>
       </c>
       <c r="D285">
-        <v>121.462366</v>
+        <v>121.24535</v>
       </c>
       <c r="E285">
-        <v>31.236451</v>
+        <v>31.345359</v>
       </c>
     </row>
     <row r="286" spans="1:5">
@@ -6628,13 +6766,13 @@
         <v>1</v>
       </c>
       <c r="C286" t="s">
-        <v>389</v>
+        <v>439</v>
       </c>
       <c r="D286">
-        <v>121.355336</v>
+        <v>121.384162</v>
       </c>
       <c r="E286">
-        <v>31.165417</v>
+        <v>31.253278</v>
       </c>
     </row>
     <row r="287" spans="1:5">
@@ -6645,13 +6783,13 @@
         <v>1</v>
       </c>
       <c r="C287" t="s">
-        <v>401</v>
+        <v>430</v>
       </c>
       <c r="D287">
-        <v>121.596083</v>
+        <v>121.381946</v>
       </c>
       <c r="E287">
-        <v>31.037305</v>
+        <v>31.232243</v>
       </c>
     </row>
     <row r="288" spans="1:5">
@@ -6659,16 +6797,16 @@
         <v>291</v>
       </c>
       <c r="B288">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C288" t="s">
-        <v>413</v>
+        <v>482</v>
       </c>
       <c r="D288">
-        <v>121.617494</v>
+        <v>121.407219</v>
       </c>
       <c r="E288">
-        <v>31.054919</v>
+        <v>31.250767</v>
       </c>
     </row>
     <row r="289" spans="1:5">
@@ -6679,13 +6817,13 @@
         <v>1</v>
       </c>
       <c r="C289" t="s">
-        <v>391</v>
+        <v>439</v>
       </c>
       <c r="D289">
-        <v>121.593974</v>
+        <v>121.372284</v>
       </c>
       <c r="E289">
-        <v>31.335371</v>
+        <v>31.255506</v>
       </c>
     </row>
     <row r="290" spans="1:5">
@@ -6696,13 +6834,13 @@
         <v>1</v>
       </c>
       <c r="C290" t="s">
-        <v>409</v>
+        <v>433</v>
       </c>
       <c r="D290">
-        <v>121.497842</v>
+        <v>121.443205</v>
       </c>
       <c r="E290">
-        <v>31.119015</v>
+        <v>31.157949</v>
       </c>
     </row>
     <row r="291" spans="1:5">
@@ -6713,13 +6851,13 @@
         <v>1</v>
       </c>
       <c r="C291" t="s">
-        <v>392</v>
+        <v>421</v>
       </c>
       <c r="D291">
-        <v>121.562754</v>
+        <v>121.373569</v>
       </c>
       <c r="E291">
-        <v>31.211212</v>
+        <v>31.322315</v>
       </c>
     </row>
     <row r="292" spans="1:5">
@@ -6730,13 +6868,13 @@
         <v>1</v>
       </c>
       <c r="C292" t="s">
-        <v>388</v>
+        <v>442</v>
       </c>
       <c r="D292">
-        <v>121.104407</v>
+        <v>121.38488</v>
       </c>
       <c r="E292">
-        <v>31.29879</v>
+        <v>31.291527</v>
       </c>
     </row>
     <row r="293" spans="1:5">
@@ -6747,13 +6885,13 @@
         <v>1</v>
       </c>
       <c r="C293" t="s">
-        <v>392</v>
+        <v>430</v>
       </c>
       <c r="D293">
-        <v>121.550115</v>
+        <v>121.367275</v>
       </c>
       <c r="E293">
-        <v>31.19311</v>
+        <v>31.237625</v>
       </c>
     </row>
     <row r="294" spans="1:5">
@@ -6764,13 +6902,13 @@
         <v>1</v>
       </c>
       <c r="C294" t="s">
-        <v>386</v>
+        <v>417</v>
       </c>
       <c r="D294">
-        <v>121.558431</v>
+        <v>121.376035</v>
       </c>
       <c r="E294">
-        <v>31.231845</v>
+        <v>31.27165</v>
       </c>
     </row>
     <row r="295" spans="1:5">
@@ -6778,16 +6916,16 @@
         <v>298</v>
       </c>
       <c r="B295">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C295" t="s">
-        <v>446</v>
+        <v>417</v>
       </c>
       <c r="D295">
-        <v>121.385373</v>
+        <v>121.59839</v>
       </c>
       <c r="E295">
-        <v>31.111152</v>
+        <v>31.138128</v>
       </c>
     </row>
     <row r="296" spans="1:5">
@@ -6798,13 +6936,13 @@
         <v>1</v>
       </c>
       <c r="C296" t="s">
-        <v>400</v>
+        <v>442</v>
       </c>
       <c r="D296">
-        <v>121.566414</v>
+        <v>121.451012</v>
       </c>
       <c r="E296">
-        <v>31.16911</v>
+        <v>31.023661</v>
       </c>
     </row>
     <row r="297" spans="1:5">
@@ -6815,13 +6953,13 @@
         <v>1</v>
       </c>
       <c r="C297" t="s">
-        <v>399</v>
+        <v>418</v>
       </c>
       <c r="D297">
-        <v>121.40291</v>
+        <v>121.364831</v>
       </c>
       <c r="E297">
-        <v>31.1309</v>
+        <v>31.169674</v>
       </c>
     </row>
     <row r="298" spans="1:5">
@@ -6832,13 +6970,13 @@
         <v>1</v>
       </c>
       <c r="C298" t="s">
-        <v>405</v>
+        <v>428</v>
       </c>
       <c r="D298">
-        <v>121.441857</v>
+        <v>121.570547</v>
       </c>
       <c r="E298">
-        <v>30.965888</v>
+        <v>31.102554</v>
       </c>
     </row>
     <row r="299" spans="1:5">
@@ -6849,13 +6987,13 @@
         <v>1</v>
       </c>
       <c r="C299" t="s">
-        <v>386</v>
+        <v>442</v>
       </c>
       <c r="D299">
-        <v>121.577978</v>
+        <v>121.398344</v>
       </c>
       <c r="E299">
-        <v>31.241017</v>
+        <v>31.198685</v>
       </c>
     </row>
     <row r="300" spans="1:5">
@@ -6863,16 +7001,16 @@
         <v>303</v>
       </c>
       <c r="B300">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C300" t="s">
-        <v>447</v>
+        <v>421</v>
       </c>
       <c r="D300">
-        <v>121.527627</v>
+        <v>121.35747</v>
       </c>
       <c r="E300">
-        <v>31.211672</v>
+        <v>31.388831</v>
       </c>
     </row>
     <row r="301" spans="1:5">
@@ -6883,13 +7021,13 @@
         <v>2</v>
       </c>
       <c r="C301" t="s">
-        <v>448</v>
+        <v>483</v>
       </c>
       <c r="D301">
-        <v>121.479154</v>
+        <v>121.593152</v>
       </c>
       <c r="E301">
-        <v>31.271392</v>
+        <v>31.153259</v>
       </c>
     </row>
     <row r="302" spans="1:5">
@@ -6900,13 +7038,13 @@
         <v>1</v>
       </c>
       <c r="C302" t="s">
-        <v>389</v>
+        <v>442</v>
       </c>
       <c r="D302">
-        <v>121.347371</v>
+        <v>121.435806</v>
       </c>
       <c r="E302">
-        <v>31.191363</v>
+        <v>31.131552</v>
       </c>
     </row>
     <row r="303" spans="1:5">
@@ -6914,16 +7052,16 @@
         <v>306</v>
       </c>
       <c r="B303">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C303" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="D303">
-        <v>121.3263</v>
+        <v>121.349966</v>
       </c>
       <c r="E303">
-        <v>31.194211</v>
+        <v>31.401949</v>
       </c>
     </row>
     <row r="304" spans="1:5">
@@ -6931,16 +7069,16 @@
         <v>307</v>
       </c>
       <c r="B304">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C304" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="D304">
-        <v>121.31895</v>
+        <v>121.531974</v>
       </c>
       <c r="E304">
-        <v>31.194022</v>
+        <v>31.305002</v>
       </c>
     </row>
     <row r="305" spans="1:5">
@@ -6948,16 +7086,16 @@
         <v>308</v>
       </c>
       <c r="B305">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C305" t="s">
-        <v>450</v>
+        <v>484</v>
       </c>
       <c r="D305">
-        <v>121.420814</v>
+        <v>121.494612</v>
       </c>
       <c r="E305">
-        <v>31.197524</v>
+        <v>31.178513</v>
       </c>
     </row>
     <row r="306" spans="1:5">
@@ -6965,16 +7103,16 @@
         <v>309</v>
       </c>
       <c r="B306">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C306" t="s">
-        <v>412</v>
+        <v>451</v>
       </c>
       <c r="D306">
-        <v>121.432964</v>
+        <v>121.483793</v>
       </c>
       <c r="E306">
-        <v>31.103976</v>
+        <v>31.219014</v>
       </c>
     </row>
     <row r="307" spans="1:5">
@@ -6985,13 +7123,13 @@
         <v>1</v>
       </c>
       <c r="C307" t="s">
-        <v>387</v>
+        <v>438</v>
       </c>
       <c r="D307">
-        <v>121.39725</v>
+        <v>121.510594</v>
       </c>
       <c r="E307">
-        <v>31.16035</v>
+        <v>31.073567</v>
       </c>
     </row>
     <row r="308" spans="1:5">
@@ -6999,16 +7137,16 @@
         <v>311</v>
       </c>
       <c r="B308">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C308" t="s">
-        <v>387</v>
+        <v>485</v>
       </c>
       <c r="D308">
-        <v>121.410553</v>
+        <v>121.450212</v>
       </c>
       <c r="E308">
-        <v>31.164033</v>
+        <v>31.199436</v>
       </c>
     </row>
     <row r="309" spans="1:5">
@@ -7019,13 +7157,13 @@
         <v>1</v>
       </c>
       <c r="C309" t="s">
-        <v>387</v>
+        <v>430</v>
       </c>
       <c r="D309">
-        <v>121.380348</v>
+        <v>121.462366</v>
       </c>
       <c r="E309">
-        <v>31.137448</v>
+        <v>31.236451</v>
       </c>
     </row>
     <row r="310" spans="1:5">
@@ -7036,13 +7174,13 @@
         <v>1</v>
       </c>
       <c r="C310" t="s">
-        <v>407</v>
+        <v>418</v>
       </c>
       <c r="D310">
-        <v>121.278645</v>
+        <v>121.355336</v>
       </c>
       <c r="E310">
-        <v>31.186328</v>
+        <v>31.165417</v>
       </c>
     </row>
     <row r="311" spans="1:5">
@@ -7053,13 +7191,13 @@
         <v>1</v>
       </c>
       <c r="C311" t="s">
-        <v>392</v>
+        <v>428</v>
       </c>
       <c r="D311">
-        <v>121.421493</v>
+        <v>121.596083</v>
       </c>
       <c r="E311">
-        <v>31.284942</v>
+        <v>31.037305</v>
       </c>
     </row>
     <row r="312" spans="1:5">
@@ -7070,13 +7208,13 @@
         <v>1</v>
       </c>
       <c r="C312" t="s">
-        <v>399</v>
+        <v>443</v>
       </c>
       <c r="D312">
-        <v>121.446424</v>
+        <v>121.617494</v>
       </c>
       <c r="E312">
-        <v>31.204528</v>
+        <v>31.054919</v>
       </c>
     </row>
     <row r="313" spans="1:5">
@@ -7087,13 +7225,13 @@
         <v>1</v>
       </c>
       <c r="C313" t="s">
-        <v>405</v>
+        <v>420</v>
       </c>
       <c r="D313">
-        <v>121.432441</v>
+        <v>121.593974</v>
       </c>
       <c r="E313">
-        <v>30.98935</v>
+        <v>31.335371</v>
       </c>
     </row>
     <row r="314" spans="1:5">
@@ -7104,13 +7242,13 @@
         <v>1</v>
       </c>
       <c r="C314" t="s">
-        <v>409</v>
+        <v>438</v>
       </c>
       <c r="D314">
-        <v>121.468769</v>
+        <v>121.497842</v>
       </c>
       <c r="E314">
-        <v>31.263505</v>
+        <v>31.119015</v>
       </c>
     </row>
     <row r="315" spans="1:5">
@@ -7118,16 +7256,16 @@
         <v>318</v>
       </c>
       <c r="B315">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C315" t="s">
-        <v>451</v>
+        <v>421</v>
       </c>
       <c r="D315">
-        <v>121.489555</v>
+        <v>121.562754</v>
       </c>
       <c r="E315">
-        <v>31.201967</v>
+        <v>31.211212</v>
       </c>
     </row>
     <row r="316" spans="1:5">
@@ -7138,13 +7276,13 @@
         <v>1</v>
       </c>
       <c r="C316" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="D316">
-        <v>121.29304</v>
+        <v>121.104407</v>
       </c>
       <c r="E316">
-        <v>31.191678</v>
+        <v>31.29879</v>
       </c>
     </row>
     <row r="317" spans="1:5">
@@ -7155,13 +7293,13 @@
         <v>1</v>
       </c>
       <c r="C317" t="s">
-        <v>389</v>
+        <v>421</v>
       </c>
       <c r="D317">
-        <v>121.487473</v>
+        <v>121.550115</v>
       </c>
       <c r="E317">
-        <v>31.227801</v>
+        <v>31.19311</v>
       </c>
     </row>
     <row r="318" spans="1:5">
@@ -7172,13 +7310,13 @@
         <v>1</v>
       </c>
       <c r="C318" t="s">
-        <v>404</v>
+        <v>415</v>
       </c>
       <c r="D318">
-        <v>121.482429</v>
+        <v>121.558431</v>
       </c>
       <c r="E318">
-        <v>31.281247</v>
+        <v>31.231845</v>
       </c>
     </row>
     <row r="319" spans="1:5">
@@ -7189,13 +7327,13 @@
         <v>1</v>
       </c>
       <c r="C319" t="s">
-        <v>407</v>
+        <v>428</v>
       </c>
       <c r="D319">
-        <v>121.192279</v>
+        <v>121.559226</v>
       </c>
       <c r="E319">
-        <v>31.161247</v>
+        <v>31.191158</v>
       </c>
     </row>
     <row r="320" spans="1:5">
@@ -7203,16 +7341,16 @@
         <v>323</v>
       </c>
       <c r="B320">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C320" t="s">
-        <v>397</v>
+        <v>486</v>
       </c>
       <c r="D320">
-        <v>121.755301</v>
+        <v>121.385373</v>
       </c>
       <c r="E320">
-        <v>31.199385</v>
+        <v>31.111152</v>
       </c>
     </row>
     <row r="321" spans="1:5">
@@ -7220,16 +7358,16 @@
         <v>324</v>
       </c>
       <c r="B321">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C321" t="s">
-        <v>388</v>
+        <v>487</v>
       </c>
       <c r="D321">
-        <v>121.667959</v>
+        <v>121.566414</v>
       </c>
       <c r="E321">
-        <v>31.141263</v>
+        <v>31.16911</v>
       </c>
     </row>
     <row r="322" spans="1:5">
@@ -7240,13 +7378,13 @@
         <v>1</v>
       </c>
       <c r="C322" t="s">
-        <v>399</v>
+        <v>429</v>
       </c>
       <c r="D322">
-        <v>121.441546</v>
+        <v>121.40291</v>
       </c>
       <c r="E322">
-        <v>31.33113</v>
+        <v>31.1309</v>
       </c>
     </row>
     <row r="323" spans="1:5">
@@ -7257,13 +7395,13 @@
         <v>1</v>
       </c>
       <c r="C323" t="s">
-        <v>389</v>
+        <v>434</v>
       </c>
       <c r="D323">
-        <v>121.494362</v>
+        <v>121.441857</v>
       </c>
       <c r="E323">
-        <v>31.268533</v>
+        <v>30.965888</v>
       </c>
     </row>
     <row r="324" spans="1:5">
@@ -7271,16 +7409,16 @@
         <v>327</v>
       </c>
       <c r="B324">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C324" t="s">
-        <v>386</v>
+        <v>488</v>
       </c>
       <c r="D324">
-        <v>121.229361</v>
+        <v>121.577978</v>
       </c>
       <c r="E324">
-        <v>31.001125</v>
+        <v>31.241017</v>
       </c>
     </row>
     <row r="325" spans="1:5">
@@ -7288,16 +7426,16 @@
         <v>328</v>
       </c>
       <c r="B325">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C325" t="s">
-        <v>413</v>
+        <v>489</v>
       </c>
       <c r="D325">
-        <v>121.699218</v>
+        <v>121.527627</v>
       </c>
       <c r="E325">
-        <v>31.050325</v>
+        <v>31.211672</v>
       </c>
     </row>
     <row r="326" spans="1:5">
@@ -7305,16 +7443,16 @@
         <v>329</v>
       </c>
       <c r="B326">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C326" t="s">
-        <v>387</v>
+        <v>490</v>
       </c>
       <c r="D326">
-        <v>121.615477</v>
+        <v>121.479154</v>
       </c>
       <c r="E326">
-        <v>31.279823</v>
+        <v>31.271392</v>
       </c>
     </row>
     <row r="327" spans="1:5">
@@ -7325,13 +7463,13 @@
         <v>1</v>
       </c>
       <c r="C327" t="s">
-        <v>386</v>
+        <v>418</v>
       </c>
       <c r="D327">
-        <v>121.628479</v>
+        <v>121.347371</v>
       </c>
       <c r="E327">
-        <v>31.264309</v>
+        <v>31.191363</v>
       </c>
     </row>
     <row r="328" spans="1:5">
@@ -7339,16 +7477,16 @@
         <v>331</v>
       </c>
       <c r="B328">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C328" t="s">
-        <v>405</v>
+        <v>448</v>
       </c>
       <c r="D328">
-        <v>121.410186</v>
+        <v>121.3263</v>
       </c>
       <c r="E328">
-        <v>31.011282</v>
+        <v>31.194211</v>
       </c>
     </row>
     <row r="329" spans="1:5">
@@ -7356,16 +7494,16 @@
         <v>332</v>
       </c>
       <c r="B329">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C329" t="s">
-        <v>386</v>
+        <v>491</v>
       </c>
       <c r="D329">
-        <v>121.611336</v>
+        <v>121.31895</v>
       </c>
       <c r="E329">
-        <v>31.26085</v>
+        <v>31.194022</v>
       </c>
     </row>
     <row r="330" spans="1:5">
@@ -7373,16 +7511,16 @@
         <v>333</v>
       </c>
       <c r="B330">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C330" t="s">
-        <v>391</v>
+        <v>492</v>
       </c>
       <c r="D330">
-        <v>121.581817</v>
+        <v>121.420814</v>
       </c>
       <c r="E330">
-        <v>31.257084</v>
+        <v>31.197524</v>
       </c>
     </row>
     <row r="331" spans="1:5">
@@ -7393,13 +7531,13 @@
         <v>1</v>
       </c>
       <c r="C331" t="s">
-        <v>400</v>
+        <v>442</v>
       </c>
       <c r="D331">
-        <v>121.335156</v>
+        <v>121.432964</v>
       </c>
       <c r="E331">
-        <v>31.241152</v>
+        <v>31.103976</v>
       </c>
     </row>
     <row r="332" spans="1:5">
@@ -7407,16 +7545,16 @@
         <v>335</v>
       </c>
       <c r="B332">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C332" t="s">
-        <v>452</v>
+        <v>416</v>
       </c>
       <c r="D332">
-        <v>121.41315</v>
+        <v>121.39725</v>
       </c>
       <c r="E332">
-        <v>31.232004</v>
+        <v>31.16035</v>
       </c>
     </row>
     <row r="333" spans="1:5">
@@ -7427,13 +7565,13 @@
         <v>1</v>
       </c>
       <c r="C333" t="s">
-        <v>405</v>
+        <v>416</v>
       </c>
       <c r="D333">
-        <v>121.492506</v>
+        <v>121.410553</v>
       </c>
       <c r="E333">
-        <v>30.928805</v>
+        <v>31.164033</v>
       </c>
     </row>
     <row r="334" spans="1:5">
@@ -7441,16 +7579,16 @@
         <v>337</v>
       </c>
       <c r="B334">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C334" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="D334">
-        <v>121.638629</v>
+        <v>121.380348</v>
       </c>
       <c r="E334">
-        <v>31.263141</v>
+        <v>31.137448</v>
       </c>
     </row>
     <row r="335" spans="1:5">
@@ -7461,13 +7599,13 @@
         <v>1</v>
       </c>
       <c r="C335" t="s">
-        <v>397</v>
+        <v>436</v>
       </c>
       <c r="D335">
-        <v>121.601989</v>
+        <v>121.278645</v>
       </c>
       <c r="E335">
-        <v>31.204213</v>
+        <v>31.186328</v>
       </c>
     </row>
     <row r="336" spans="1:5">
@@ -7478,13 +7616,13 @@
         <v>1</v>
       </c>
       <c r="C336" t="s">
-        <v>400</v>
+        <v>421</v>
       </c>
       <c r="D336">
-        <v>121.319308</v>
+        <v>121.421493</v>
       </c>
       <c r="E336">
-        <v>31.240986</v>
+        <v>31.284942</v>
       </c>
     </row>
     <row r="337" spans="1:5">
@@ -7495,13 +7633,13 @@
         <v>1</v>
       </c>
       <c r="C337" t="s">
-        <v>404</v>
+        <v>429</v>
       </c>
       <c r="D337">
-        <v>121.461139</v>
+        <v>121.446424</v>
       </c>
       <c r="E337">
-        <v>31.40812</v>
+        <v>31.204528</v>
       </c>
     </row>
     <row r="338" spans="1:5">
@@ -7512,13 +7650,13 @@
         <v>1</v>
       </c>
       <c r="C338" t="s">
-        <v>412</v>
+        <v>434</v>
       </c>
       <c r="D338">
-        <v>121.397078</v>
+        <v>121.432441</v>
       </c>
       <c r="E338">
-        <v>31.250743</v>
+        <v>30.98935</v>
       </c>
     </row>
     <row r="339" spans="1:5">
@@ -7529,13 +7667,13 @@
         <v>1</v>
       </c>
       <c r="C339" t="s">
-        <v>405</v>
+        <v>438</v>
       </c>
       <c r="D339">
-        <v>121.390264</v>
+        <v>121.468769</v>
       </c>
       <c r="E339">
-        <v>31.089345</v>
+        <v>31.263505</v>
       </c>
     </row>
     <row r="340" spans="1:5">
@@ -7543,16 +7681,16 @@
         <v>343</v>
       </c>
       <c r="B340">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C340" t="s">
-        <v>399</v>
+        <v>493</v>
       </c>
       <c r="D340">
-        <v>121.414107</v>
+        <v>121.489555</v>
       </c>
       <c r="E340">
-        <v>31.142217</v>
+        <v>31.201967</v>
       </c>
     </row>
     <row r="341" spans="1:5">
@@ -7563,13 +7701,13 @@
         <v>1</v>
       </c>
       <c r="C341" t="s">
-        <v>412</v>
+        <v>436</v>
       </c>
       <c r="D341">
-        <v>121.381765</v>
+        <v>121.29304</v>
       </c>
       <c r="E341">
-        <v>31.320184</v>
+        <v>31.191678</v>
       </c>
     </row>
     <row r="342" spans="1:5">
@@ -7577,16 +7715,16 @@
         <v>345</v>
       </c>
       <c r="B342">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C342" t="s">
-        <v>392</v>
+        <v>494</v>
       </c>
       <c r="D342">
-        <v>121.540041</v>
+        <v>121.487473</v>
       </c>
       <c r="E342">
-        <v>31.187592</v>
+        <v>31.227801</v>
       </c>
     </row>
     <row r="343" spans="1:5">
@@ -7594,16 +7732,16 @@
         <v>346</v>
       </c>
       <c r="B343">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C343" t="s">
-        <v>453</v>
+        <v>433</v>
       </c>
       <c r="D343">
-        <v>121.429779</v>
+        <v>121.482429</v>
       </c>
       <c r="E343">
-        <v>31.246369</v>
+        <v>31.281247</v>
       </c>
     </row>
     <row r="344" spans="1:5">
@@ -7611,16 +7749,16 @@
         <v>347</v>
       </c>
       <c r="B344">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C344" t="s">
-        <v>454</v>
+        <v>436</v>
       </c>
       <c r="D344">
-        <v>121.438272</v>
+        <v>121.192279</v>
       </c>
       <c r="E344">
-        <v>31.24086</v>
+        <v>31.161247</v>
       </c>
     </row>
     <row r="345" spans="1:5">
@@ -7631,13 +7769,13 @@
         <v>1</v>
       </c>
       <c r="C345" t="s">
-        <v>404</v>
+        <v>428</v>
       </c>
       <c r="D345">
-        <v>121.491482</v>
+        <v>121.550998</v>
       </c>
       <c r="E345">
-        <v>31.332062</v>
+        <v>31.221002</v>
       </c>
     </row>
     <row r="346" spans="1:5">
@@ -7645,16 +7783,16 @@
         <v>349</v>
       </c>
       <c r="B346">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C346" t="s">
-        <v>454</v>
+        <v>426</v>
       </c>
       <c r="D346">
-        <v>121.487775</v>
+        <v>121.755301</v>
       </c>
       <c r="E346">
-        <v>31.174452</v>
+        <v>31.199385</v>
       </c>
     </row>
     <row r="347" spans="1:5">
@@ -7665,13 +7803,13 @@
         <v>1</v>
       </c>
       <c r="C347" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="D347">
-        <v>121.396178</v>
+        <v>121.667959</v>
       </c>
       <c r="E347">
-        <v>31.226257</v>
+        <v>31.141263</v>
       </c>
     </row>
     <row r="348" spans="1:5">
@@ -7682,13 +7820,13 @@
         <v>1</v>
       </c>
       <c r="C348" t="s">
-        <v>390</v>
+        <v>429</v>
       </c>
       <c r="D348">
-        <v>121.530323</v>
+        <v>121.441546</v>
       </c>
       <c r="E348">
-        <v>31.047956</v>
+        <v>31.33113</v>
       </c>
     </row>
     <row r="349" spans="1:5">
@@ -7699,13 +7837,13 @@
         <v>1</v>
       </c>
       <c r="C349" t="s">
-        <v>405</v>
+        <v>418</v>
       </c>
       <c r="D349">
-        <v>121.369712</v>
+        <v>121.494362</v>
       </c>
       <c r="E349">
-        <v>31.000627</v>
+        <v>31.268533</v>
       </c>
     </row>
     <row r="350" spans="1:5">
@@ -7716,13 +7854,13 @@
         <v>1</v>
       </c>
       <c r="C350" t="s">
-        <v>397</v>
+        <v>415</v>
       </c>
       <c r="D350">
-        <v>121.502262</v>
+        <v>121.229361</v>
       </c>
       <c r="E350">
-        <v>31.238195</v>
+        <v>31.001125</v>
       </c>
     </row>
     <row r="351" spans="1:5">
@@ -7730,16 +7868,16 @@
         <v>354</v>
       </c>
       <c r="B351">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C351" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
       <c r="D351">
-        <v>121.486115</v>
+        <v>121.699218</v>
       </c>
       <c r="E351">
-        <v>31.211789</v>
+        <v>31.050325</v>
       </c>
     </row>
     <row r="352" spans="1:5">
@@ -7750,13 +7888,13 @@
         <v>1</v>
       </c>
       <c r="C352" t="s">
-        <v>400</v>
+        <v>416</v>
       </c>
       <c r="D352">
-        <v>121.557708</v>
+        <v>121.615477</v>
       </c>
       <c r="E352">
-        <v>31.174756</v>
+        <v>31.279823</v>
       </c>
     </row>
     <row r="353" spans="1:5">
@@ -7767,13 +7905,13 @@
         <v>1</v>
       </c>
       <c r="C353" t="s">
-        <v>388</v>
+        <v>415</v>
       </c>
       <c r="D353">
-        <v>121.306723</v>
+        <v>121.628479</v>
       </c>
       <c r="E353">
-        <v>31.306573</v>
+        <v>31.264309</v>
       </c>
     </row>
     <row r="354" spans="1:5">
@@ -7781,16 +7919,16 @@
         <v>357</v>
       </c>
       <c r="B354">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C354" t="s">
-        <v>456</v>
+        <v>434</v>
       </c>
       <c r="D354">
-        <v>121.458744</v>
+        <v>121.410186</v>
       </c>
       <c r="E354">
-        <v>31.21515</v>
+        <v>31.011282</v>
       </c>
     </row>
     <row r="355" spans="1:5">
@@ -7798,16 +7936,16 @@
         <v>358</v>
       </c>
       <c r="B355">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C355" t="s">
-        <v>457</v>
+        <v>415</v>
       </c>
       <c r="D355">
-        <v>121.423576</v>
+        <v>121.611336</v>
       </c>
       <c r="E355">
-        <v>31.230509</v>
+        <v>31.26085</v>
       </c>
     </row>
     <row r="356" spans="1:5">
@@ -7818,13 +7956,13 @@
         <v>1</v>
       </c>
       <c r="C356" t="s">
-        <v>387</v>
+        <v>420</v>
       </c>
       <c r="D356">
-        <v>121.544692</v>
+        <v>121.581817</v>
       </c>
       <c r="E356">
-        <v>31.275213</v>
+        <v>31.257084</v>
       </c>
     </row>
     <row r="357" spans="1:5">
@@ -7835,13 +7973,13 @@
         <v>1</v>
       </c>
       <c r="C357" t="s">
-        <v>407</v>
+        <v>430</v>
       </c>
       <c r="D357">
-        <v>121.12567</v>
+        <v>121.335156</v>
       </c>
       <c r="E357">
-        <v>31.158925</v>
+        <v>31.241152</v>
       </c>
     </row>
     <row r="358" spans="1:5">
@@ -7849,16 +7987,16 @@
         <v>361</v>
       </c>
       <c r="B358">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C358" t="s">
-        <v>458</v>
+        <v>495</v>
       </c>
       <c r="D358">
-        <v>121.446221</v>
+        <v>121.41315</v>
       </c>
       <c r="E358">
-        <v>31.223083</v>
+        <v>31.232004</v>
       </c>
     </row>
     <row r="359" spans="1:5">
@@ -7869,13 +8007,13 @@
         <v>1</v>
       </c>
       <c r="C359" t="s">
-        <v>409</v>
+        <v>434</v>
       </c>
       <c r="D359">
-        <v>121.509685</v>
+        <v>121.492506</v>
       </c>
       <c r="E359">
-        <v>31.273242</v>
+        <v>30.928805</v>
       </c>
     </row>
     <row r="360" spans="1:5">
@@ -7883,16 +8021,16 @@
         <v>363</v>
       </c>
       <c r="B360">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C360" t="s">
-        <v>386</v>
+        <v>450</v>
       </c>
       <c r="D360">
-        <v>121.656465</v>
+        <v>121.638629</v>
       </c>
       <c r="E360">
-        <v>31.266074</v>
+        <v>31.263141</v>
       </c>
     </row>
     <row r="361" spans="1:5">
@@ -7903,13 +8041,13 @@
         <v>1</v>
       </c>
       <c r="C361" t="s">
-        <v>387</v>
+        <v>426</v>
       </c>
       <c r="D361">
-        <v>121.391856</v>
+        <v>121.601989</v>
       </c>
       <c r="E361">
-        <v>31.14089</v>
+        <v>31.204213</v>
       </c>
     </row>
     <row r="362" spans="1:5">
@@ -7917,16 +8055,16 @@
         <v>365</v>
       </c>
       <c r="B362">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C362" t="s">
-        <v>459</v>
+        <v>439</v>
       </c>
       <c r="D362">
-        <v>121.373009</v>
+        <v>121.629016</v>
       </c>
       <c r="E362">
-        <v>31.344594</v>
+        <v>31.242087</v>
       </c>
     </row>
     <row r="363" spans="1:5">
@@ -7937,13 +8075,13 @@
         <v>1</v>
       </c>
       <c r="C363" t="s">
-        <v>405</v>
+        <v>430</v>
       </c>
       <c r="D363">
-        <v>121.401868</v>
+        <v>121.319308</v>
       </c>
       <c r="E363">
-        <v>31.067013</v>
+        <v>31.240986</v>
       </c>
     </row>
     <row r="364" spans="1:5">
@@ -7951,16 +8089,16 @@
         <v>367</v>
       </c>
       <c r="B364">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C364" t="s">
-        <v>460</v>
+        <v>433</v>
       </c>
       <c r="D364">
-        <v>121.477256</v>
+        <v>121.461139</v>
       </c>
       <c r="E364">
-        <v>31.20952</v>
+        <v>31.40812</v>
       </c>
     </row>
     <row r="365" spans="1:5">
@@ -7968,16 +8106,16 @@
         <v>368</v>
       </c>
       <c r="B365">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C365" t="s">
-        <v>388</v>
+        <v>496</v>
       </c>
       <c r="D365">
-        <v>121.276906</v>
+        <v>121.397036</v>
       </c>
       <c r="E365">
-        <v>31.319675</v>
+        <v>31.250733</v>
       </c>
     </row>
     <row r="366" spans="1:5">
@@ -7988,13 +8126,13 @@
         <v>1</v>
       </c>
       <c r="C366" t="s">
-        <v>389</v>
+        <v>434</v>
       </c>
       <c r="D366">
-        <v>121.562971</v>
+        <v>121.390264</v>
       </c>
       <c r="E366">
-        <v>31.352622</v>
+        <v>31.089345</v>
       </c>
     </row>
     <row r="367" spans="1:5">
@@ -8005,13 +8143,13 @@
         <v>1</v>
       </c>
       <c r="C367" t="s">
-        <v>389</v>
+        <v>429</v>
       </c>
       <c r="D367">
-        <v>121.54928</v>
+        <v>121.414107</v>
       </c>
       <c r="E367">
-        <v>31.351489</v>
+        <v>31.142217</v>
       </c>
     </row>
     <row r="368" spans="1:5">
@@ -8019,16 +8157,16 @@
         <v>371</v>
       </c>
       <c r="B368">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C368" t="s">
-        <v>461</v>
+        <v>442</v>
       </c>
       <c r="D368">
-        <v>121.509845</v>
+        <v>121.381765</v>
       </c>
       <c r="E368">
-        <v>31.185761</v>
+        <v>31.320184</v>
       </c>
     </row>
     <row r="369" spans="1:5">
@@ -8039,13 +8177,13 @@
         <v>1</v>
       </c>
       <c r="C369" t="s">
-        <v>391</v>
+        <v>421</v>
       </c>
       <c r="D369">
-        <v>121.515787</v>
+        <v>121.540041</v>
       </c>
       <c r="E369">
-        <v>31.159907</v>
+        <v>31.187592</v>
       </c>
     </row>
     <row r="370" spans="1:5">
@@ -8053,16 +8191,16 @@
         <v>373</v>
       </c>
       <c r="B370">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C370" t="s">
-        <v>393</v>
+        <v>497</v>
       </c>
       <c r="D370">
-        <v>121.475148</v>
+        <v>121.429779</v>
       </c>
       <c r="E370">
-        <v>31.199221</v>
+        <v>31.246369</v>
       </c>
     </row>
     <row r="371" spans="1:5">
@@ -8070,16 +8208,16 @@
         <v>374</v>
       </c>
       <c r="B371">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C371" t="s">
-        <v>413</v>
+        <v>498</v>
       </c>
       <c r="D371">
-        <v>121.611239</v>
+        <v>121.438272</v>
       </c>
       <c r="E371">
-        <v>31.077797</v>
+        <v>31.24086</v>
       </c>
     </row>
     <row r="372" spans="1:5">
@@ -8087,16 +8225,16 @@
         <v>375</v>
       </c>
       <c r="B372">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C372" t="s">
-        <v>401</v>
+        <v>499</v>
       </c>
       <c r="D372">
-        <v>121.58596</v>
+        <v>121.491482</v>
       </c>
       <c r="E372">
-        <v>31.07186</v>
+        <v>31.332062</v>
       </c>
     </row>
     <row r="373" spans="1:5">
@@ -8104,16 +8242,16 @@
         <v>376</v>
       </c>
       <c r="B373">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C373" t="s">
-        <v>409</v>
+        <v>498</v>
       </c>
       <c r="D373">
-        <v>121.533383</v>
+        <v>121.487775</v>
       </c>
       <c r="E373">
-        <v>31.295389</v>
+        <v>31.174452</v>
       </c>
     </row>
     <row r="374" spans="1:5">
@@ -8124,13 +8262,13 @@
         <v>1</v>
       </c>
       <c r="C374" t="s">
-        <v>409</v>
+        <v>442</v>
       </c>
       <c r="D374">
-        <v>121.528401</v>
+        <v>121.396178</v>
       </c>
       <c r="E374">
-        <v>31.278814</v>
+        <v>31.226257</v>
       </c>
     </row>
     <row r="375" spans="1:5">
@@ -8141,13 +8279,13 @@
         <v>1</v>
       </c>
       <c r="C375" t="s">
-        <v>399</v>
+        <v>419</v>
       </c>
       <c r="D375">
-        <v>121.473306</v>
+        <v>121.530323</v>
       </c>
       <c r="E375">
-        <v>31.222745</v>
+        <v>31.047956</v>
       </c>
     </row>
     <row r="376" spans="1:5">
@@ -8155,16 +8293,16 @@
         <v>379</v>
       </c>
       <c r="B376">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C376" t="s">
-        <v>462</v>
+        <v>434</v>
       </c>
       <c r="D376">
-        <v>121.452958</v>
+        <v>121.369712</v>
       </c>
       <c r="E376">
-        <v>31.172672</v>
+        <v>31.000627</v>
       </c>
     </row>
     <row r="377" spans="1:5">
@@ -8175,13 +8313,13 @@
         <v>2</v>
       </c>
       <c r="C377" t="s">
-        <v>463</v>
+        <v>500</v>
       </c>
       <c r="D377">
-        <v>121.457054</v>
+        <v>121.502129</v>
       </c>
       <c r="E377">
-        <v>31.183843</v>
+        <v>31.238259</v>
       </c>
     </row>
     <row r="378" spans="1:5">
@@ -8189,16 +8327,16 @@
         <v>381</v>
       </c>
       <c r="B378">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C378" t="s">
-        <v>389</v>
+        <v>501</v>
       </c>
       <c r="D378">
-        <v>121.37048</v>
+        <v>121.486115</v>
       </c>
       <c r="E378">
-        <v>31.176882</v>
+        <v>31.211789</v>
       </c>
     </row>
     <row r="379" spans="1:5">
@@ -8209,13 +8347,13 @@
         <v>1</v>
       </c>
       <c r="C379" t="s">
-        <v>389</v>
+        <v>430</v>
       </c>
       <c r="D379">
-        <v>121.380034</v>
+        <v>121.557708</v>
       </c>
       <c r="E379">
-        <v>31.1944</v>
+        <v>31.174756</v>
       </c>
     </row>
     <row r="380" spans="1:5">
@@ -8223,16 +8361,16 @@
         <v>383</v>
       </c>
       <c r="B380">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C380" t="s">
-        <v>464</v>
+        <v>417</v>
       </c>
       <c r="D380">
-        <v>121.444383</v>
+        <v>121.306723</v>
       </c>
       <c r="E380">
-        <v>31.169458</v>
+        <v>31.306573</v>
       </c>
     </row>
     <row r="381" spans="1:5">
@@ -8240,16 +8378,16 @@
         <v>384</v>
       </c>
       <c r="B381">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C381" t="s">
-        <v>388</v>
+        <v>502</v>
       </c>
       <c r="D381">
-        <v>121.459702</v>
+        <v>121.458744</v>
       </c>
       <c r="E381">
-        <v>31.15972</v>
+        <v>31.21515</v>
       </c>
     </row>
     <row r="382" spans="1:5">
@@ -8257,15 +8395,474 @@
         <v>385</v>
       </c>
       <c r="B382">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C382" t="s">
-        <v>465</v>
+        <v>503</v>
       </c>
       <c r="D382">
+        <v>121.423576</v>
+      </c>
+      <c r="E382">
+        <v>31.230509</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5">
+      <c r="A383" t="s">
+        <v>386</v>
+      </c>
+      <c r="B383">
+        <v>1</v>
+      </c>
+      <c r="C383" t="s">
+        <v>416</v>
+      </c>
+      <c r="D383">
+        <v>121.544692</v>
+      </c>
+      <c r="E383">
+        <v>31.275213</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5">
+      <c r="A384" t="s">
+        <v>387</v>
+      </c>
+      <c r="B384">
+        <v>1</v>
+      </c>
+      <c r="C384" t="s">
+        <v>436</v>
+      </c>
+      <c r="D384">
+        <v>121.12567</v>
+      </c>
+      <c r="E384">
+        <v>31.158925</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5">
+      <c r="A385" t="s">
+        <v>388</v>
+      </c>
+      <c r="B385">
+        <v>3</v>
+      </c>
+      <c r="C385" t="s">
+        <v>504</v>
+      </c>
+      <c r="D385">
+        <v>121.446221</v>
+      </c>
+      <c r="E385">
+        <v>31.223083</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5">
+      <c r="A386" t="s">
+        <v>389</v>
+      </c>
+      <c r="B386">
+        <v>1</v>
+      </c>
+      <c r="C386" t="s">
+        <v>438</v>
+      </c>
+      <c r="D386">
+        <v>121.509685</v>
+      </c>
+      <c r="E386">
+        <v>31.273242</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5">
+      <c r="A387" t="s">
+        <v>390</v>
+      </c>
+      <c r="B387">
+        <v>1</v>
+      </c>
+      <c r="C387" t="s">
+        <v>415</v>
+      </c>
+      <c r="D387">
+        <v>121.656465</v>
+      </c>
+      <c r="E387">
+        <v>31.266074</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5">
+      <c r="A388" t="s">
+        <v>391</v>
+      </c>
+      <c r="B388">
+        <v>1</v>
+      </c>
+      <c r="C388" t="s">
+        <v>416</v>
+      </c>
+      <c r="D388">
+        <v>121.391856</v>
+      </c>
+      <c r="E388">
+        <v>31.14089</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5">
+      <c r="A389" t="s">
+        <v>392</v>
+      </c>
+      <c r="B389">
+        <v>2</v>
+      </c>
+      <c r="C389" t="s">
+        <v>505</v>
+      </c>
+      <c r="D389">
+        <v>121.373009</v>
+      </c>
+      <c r="E389">
+        <v>31.344594</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5">
+      <c r="A390" t="s">
+        <v>393</v>
+      </c>
+      <c r="B390">
+        <v>1</v>
+      </c>
+      <c r="C390" t="s">
+        <v>434</v>
+      </c>
+      <c r="D390">
+        <v>121.401868</v>
+      </c>
+      <c r="E390">
+        <v>31.067013</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5">
+      <c r="A391" t="s">
+        <v>394</v>
+      </c>
+      <c r="B391">
+        <v>2</v>
+      </c>
+      <c r="C391" t="s">
+        <v>506</v>
+      </c>
+      <c r="D391">
+        <v>121.477256</v>
+      </c>
+      <c r="E391">
+        <v>31.20952</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5">
+      <c r="A392" t="s">
+        <v>395</v>
+      </c>
+      <c r="B392">
+        <v>1</v>
+      </c>
+      <c r="C392" t="s">
+        <v>417</v>
+      </c>
+      <c r="D392">
+        <v>121.276906</v>
+      </c>
+      <c r="E392">
+        <v>31.319675</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5">
+      <c r="A393" t="s">
+        <v>396</v>
+      </c>
+      <c r="B393">
+        <v>1</v>
+      </c>
+      <c r="C393" t="s">
+        <v>418</v>
+      </c>
+      <c r="D393">
+        <v>121.562971</v>
+      </c>
+      <c r="E393">
+        <v>31.352622</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5">
+      <c r="A394" t="s">
+        <v>397</v>
+      </c>
+      <c r="B394">
+        <v>1</v>
+      </c>
+      <c r="C394" t="s">
+        <v>418</v>
+      </c>
+      <c r="D394">
+        <v>121.54928</v>
+      </c>
+      <c r="E394">
+        <v>31.351489</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5">
+      <c r="A395" t="s">
+        <v>398</v>
+      </c>
+      <c r="B395">
+        <v>2</v>
+      </c>
+      <c r="C395" t="s">
+        <v>507</v>
+      </c>
+      <c r="D395">
+        <v>121.509845</v>
+      </c>
+      <c r="E395">
+        <v>31.185761</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5">
+      <c r="A396" t="s">
+        <v>399</v>
+      </c>
+      <c r="B396">
+        <v>1</v>
+      </c>
+      <c r="C396" t="s">
+        <v>420</v>
+      </c>
+      <c r="D396">
+        <v>121.515787</v>
+      </c>
+      <c r="E396">
+        <v>31.159907</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5">
+      <c r="A397" t="s">
+        <v>400</v>
+      </c>
+      <c r="B397">
+        <v>1</v>
+      </c>
+      <c r="C397" t="s">
+        <v>422</v>
+      </c>
+      <c r="D397">
+        <v>121.475148</v>
+      </c>
+      <c r="E397">
+        <v>31.199221</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5">
+      <c r="A398" t="s">
+        <v>401</v>
+      </c>
+      <c r="B398">
+        <v>1</v>
+      </c>
+      <c r="C398" t="s">
+        <v>443</v>
+      </c>
+      <c r="D398">
+        <v>121.611239</v>
+      </c>
+      <c r="E398">
+        <v>31.077797</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5">
+      <c r="A399" t="s">
+        <v>402</v>
+      </c>
+      <c r="B399">
+        <v>1</v>
+      </c>
+      <c r="C399" t="s">
+        <v>428</v>
+      </c>
+      <c r="D399">
+        <v>121.58596</v>
+      </c>
+      <c r="E399">
+        <v>31.07186</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5">
+      <c r="A400" t="s">
+        <v>403</v>
+      </c>
+      <c r="B400">
+        <v>1</v>
+      </c>
+      <c r="C400" t="s">
+        <v>438</v>
+      </c>
+      <c r="D400">
+        <v>121.533383</v>
+      </c>
+      <c r="E400">
+        <v>31.295389</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5">
+      <c r="A401" t="s">
+        <v>404</v>
+      </c>
+      <c r="B401">
+        <v>1</v>
+      </c>
+      <c r="C401" t="s">
+        <v>438</v>
+      </c>
+      <c r="D401">
+        <v>121.528401</v>
+      </c>
+      <c r="E401">
+        <v>31.278814</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5">
+      <c r="A402" t="s">
+        <v>405</v>
+      </c>
+      <c r="B402">
+        <v>1</v>
+      </c>
+      <c r="C402" t="s">
+        <v>439</v>
+      </c>
+      <c r="D402">
+        <v>121.591014</v>
+      </c>
+      <c r="E402">
+        <v>31.233998</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5">
+      <c r="A403" t="s">
+        <v>406</v>
+      </c>
+      <c r="B403">
+        <v>2</v>
+      </c>
+      <c r="C403" t="s">
+        <v>508</v>
+      </c>
+      <c r="D403">
+        <v>121.452958</v>
+      </c>
+      <c r="E403">
+        <v>31.172672</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5">
+      <c r="A404" t="s">
+        <v>407</v>
+      </c>
+      <c r="B404">
+        <v>2</v>
+      </c>
+      <c r="C404" t="s">
+        <v>509</v>
+      </c>
+      <c r="D404">
+        <v>121.457054</v>
+      </c>
+      <c r="E404">
+        <v>31.183843</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5">
+      <c r="A405" t="s">
+        <v>408</v>
+      </c>
+      <c r="B405">
+        <v>1</v>
+      </c>
+      <c r="C405" t="s">
+        <v>418</v>
+      </c>
+      <c r="D405">
+        <v>121.37048</v>
+      </c>
+      <c r="E405">
+        <v>31.176882</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5">
+      <c r="A406" t="s">
+        <v>409</v>
+      </c>
+      <c r="B406">
+        <v>1</v>
+      </c>
+      <c r="C406" t="s">
+        <v>418</v>
+      </c>
+      <c r="D406">
+        <v>121.380034</v>
+      </c>
+      <c r="E406">
+        <v>31.1944</v>
+      </c>
+    </row>
+    <row r="407" spans="1:5">
+      <c r="A407" t="s">
+        <v>410</v>
+      </c>
+      <c r="B407">
+        <v>2</v>
+      </c>
+      <c r="C407" t="s">
+        <v>510</v>
+      </c>
+      <c r="D407">
+        <v>121.444383</v>
+      </c>
+      <c r="E407">
+        <v>31.169458</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5">
+      <c r="A408" t="s">
+        <v>411</v>
+      </c>
+      <c r="B408">
+        <v>1</v>
+      </c>
+      <c r="C408" t="s">
+        <v>417</v>
+      </c>
+      <c r="D408">
+        <v>121.459702</v>
+      </c>
+      <c r="E408">
+        <v>31.15972</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5">
+      <c r="A409" t="s">
+        <v>412</v>
+      </c>
+      <c r="B409">
+        <v>5</v>
+      </c>
+      <c r="C409" t="s">
+        <v>511</v>
+      </c>
+      <c r="D409">
         <v>121.557634</v>
       </c>
-      <c r="E382">
+      <c r="E409">
         <v>31.203575</v>
       </c>
     </row>
